--- a/app/src/main/assets/「郑州招聘信息」郑州招聘网 - BOSS直聘.xlsx
+++ b/app/src/main/assets/「郑州招聘信息」郑州招聘网 - BOSS直聘.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G236"/>
+  <dimension ref="A1:G266"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -882,10 +882,10 @@
       </c>
       <c r="G19" t="str" xml:space="preserve">
         <v xml:space="preserve">Android
-                                                    测试工程师
                                                     测试开发
-                                                    javascript
-                                                    深入理解android</v>
+                                                    深入理解android
+                                                    软件用户
+                                                    代码阅读</v>
       </c>
     </row>
     <row r="20" xml:space="preserve">
@@ -947,21 +947,48 @@
         <v>Android</v>
       </c>
       <c r="B22" t="str">
+        <v>4-8K</v>
+      </c>
+      <c r="C22" t="str">
+        <v>博信科技</v>
+      </c>
+      <c r="D22" t="str">
+        <v>郑州·管城回族区·郑州东站</v>
+      </c>
+      <c r="E22" t="str">
+        <v>1-3年本科</v>
+      </c>
+      <c r="F22" t="str">
+        <v>1-3年本科</v>
+      </c>
+      <c r="G22" t="str" xml:space="preserve">
+        <v xml:space="preserve">Android
+                                                    淘宝运营
+                                                    php
+                                                    移动产品
+                                                    编写</v>
+      </c>
+    </row>
+    <row r="23" xml:space="preserve">
+      <c r="A23" t="str">
+        <v>Android</v>
+      </c>
+      <c r="B23" t="str">
         <v>6-9K</v>
       </c>
-      <c r="C22" t="str">
+      <c r="C23" t="str">
         <v>羽林</v>
       </c>
-      <c r="D22" t="str">
+      <c r="D23" t="str">
         <v>郑州·金水区·庙李</v>
       </c>
-      <c r="E22" t="str">
+      <c r="E23" t="str">
         <v>1-3年学历不限</v>
       </c>
-      <c r="F22" t="str">
+      <c r="F23" t="str">
         <v>1-3年学历不限</v>
       </c>
-      <c r="G22" t="str" xml:space="preserve">
+      <c r="G23" t="str" xml:space="preserve">
         <v xml:space="preserve">SDK
                                                     Android
                                                     负责开发
@@ -969,58 +996,31 @@
                                                     Studio</v>
       </c>
     </row>
-    <row r="23" xml:space="preserve">
-      <c r="A23" t="str">
-        <v>Android</v>
-      </c>
-      <c r="B23" t="str">
+    <row r="24" xml:space="preserve">
+      <c r="A24" t="str">
+        <v>Android</v>
+      </c>
+      <c r="B24" t="str">
         <v>4-6K</v>
       </c>
-      <c r="C23" t="str">
+      <c r="C24" t="str">
         <v>兴邦股份</v>
       </c>
-      <c r="D23" t="str">
+      <c r="D24" t="str">
         <v>郑州·中原区·新郑大</v>
       </c>
-      <c r="E23" t="str">
-        <v>1-3年本科</v>
-      </c>
-      <c r="F23" t="str">
-        <v>1-3年本科</v>
-      </c>
-      <c r="G23" t="str" xml:space="preserve">
+      <c r="E24" t="str">
+        <v>1-3年本科</v>
+      </c>
+      <c r="F24" t="str">
+        <v>1-3年本科</v>
+      </c>
+      <c r="G24" t="str" xml:space="preserve">
         <v xml:space="preserve">NDK
                                                     SDK
                                                     Android
                                                     安卓
                                                     平台软件开发</v>
-      </c>
-    </row>
-    <row r="24" xml:space="preserve">
-      <c r="A24" t="str">
-        <v>Android</v>
-      </c>
-      <c r="B24" t="str">
-        <v>12-15K</v>
-      </c>
-      <c r="C24" t="str">
-        <v>郑州燚轩科技</v>
-      </c>
-      <c r="D24" t="str">
-        <v>郑州·金水区·CBD</v>
-      </c>
-      <c r="E24" t="str">
-        <v>1-3年本科</v>
-      </c>
-      <c r="F24" t="str">
-        <v>1-3年本科</v>
-      </c>
-      <c r="G24" t="str" xml:space="preserve">
-        <v xml:space="preserve">android应用开发
-                                                    框架原理
-                                                    Framework
-                                                    Http协议
-                                                    Socket编程</v>
       </c>
     </row>
     <row r="25" xml:space="preserve">
@@ -1055,21 +1055,48 @@
         <v>Android</v>
       </c>
       <c r="B26" t="str">
+        <v>12-15K</v>
+      </c>
+      <c r="C26" t="str">
+        <v>郑州燚轩科技</v>
+      </c>
+      <c r="D26" t="str">
+        <v>郑州·金水区·CBD</v>
+      </c>
+      <c r="E26" t="str">
+        <v>1-3年本科</v>
+      </c>
+      <c r="F26" t="str">
+        <v>1-3年本科</v>
+      </c>
+      <c r="G26" t="str" xml:space="preserve">
+        <v xml:space="preserve">android应用开发
+                                                    框架原理
+                                                    Framework
+                                                    Http协议
+                                                    Socket编程</v>
+      </c>
+    </row>
+    <row r="27" xml:space="preserve">
+      <c r="A27" t="str">
+        <v>Android</v>
+      </c>
+      <c r="B27" t="str">
         <v>3-5K</v>
       </c>
-      <c r="C26" t="str">
+      <c r="C27" t="str">
         <v>福务达</v>
       </c>
-      <c r="D26" t="str">
+      <c r="D27" t="str">
         <v>郑州·中原区·高新区</v>
       </c>
-      <c r="E26" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="F26" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="G26" t="str" xml:space="preserve">
+      <c r="E27" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="F27" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="G27" t="str" xml:space="preserve">
         <v xml:space="preserve">手机应用产品
                                                     Framework
                                                     Android
@@ -1077,52 +1104,52 @@
                                                     数据结构</v>
       </c>
     </row>
-    <row r="27" xml:space="preserve">
-      <c r="A27" t="str">
-        <v>Android</v>
-      </c>
-      <c r="B27" t="str">
+    <row r="28" xml:space="preserve">
+      <c r="A28" t="str">
+        <v>Android</v>
+      </c>
+      <c r="B28" t="str">
         <v>6-8K</v>
       </c>
-      <c r="C27" t="str">
+      <c r="C28" t="str">
         <v>新中科技</v>
       </c>
-      <c r="D27" t="str">
+      <c r="D28" t="str">
         <v>郑州·金水区·大石桥</v>
       </c>
-      <c r="E27" t="str">
-        <v>3-5年大专</v>
-      </c>
-      <c r="F27" t="str">
-        <v>3-5年大专</v>
-      </c>
-      <c r="G27" t="str" xml:space="preserve">
+      <c r="E28" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="F28" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="G28" t="str" xml:space="preserve">
         <v xml:space="preserve">SDK
                                                     Android
                                                     负责android
                                                     移动端app开发</v>
       </c>
     </row>
-    <row r="28" xml:space="preserve">
-      <c r="A28" t="str">
+    <row r="29" xml:space="preserve">
+      <c r="A29" t="str">
         <v>Android工程开发师</v>
       </c>
-      <c r="B28" t="str">
+      <c r="B29" t="str">
         <v>8-10K</v>
       </c>
-      <c r="C28" t="str">
+      <c r="C29" t="str">
         <v>帝通</v>
       </c>
-      <c r="D28" t="str">
+      <c r="D29" t="str">
         <v>郑州·中原区·高新区</v>
       </c>
-      <c r="E28" t="str">
-        <v>3-5年大专</v>
-      </c>
-      <c r="F28" t="str">
-        <v>3-5年大专</v>
-      </c>
-      <c r="G28" t="str" xml:space="preserve">
+      <c r="E29" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="F29" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="G29" t="str" xml:space="preserve">
         <v xml:space="preserve">Android
                                                     Java
                                                     C#
@@ -1130,26 +1157,26 @@
                                                     android系统开发</v>
       </c>
     </row>
-    <row r="29" xml:space="preserve">
-      <c r="A29" t="str">
-        <v>Android</v>
-      </c>
-      <c r="B29" t="str">
+    <row r="30" xml:space="preserve">
+      <c r="A30" t="str">
+        <v>Android</v>
+      </c>
+      <c r="B30" t="str">
         <v>5-8K</v>
       </c>
-      <c r="C29" t="str">
+      <c r="C30" t="str">
         <v>叁柒壹</v>
       </c>
-      <c r="D29" t="str">
+      <c r="D30" t="str">
         <v>郑州·中原区·高新区</v>
       </c>
-      <c r="E29" t="str">
-        <v>3-5年大专</v>
-      </c>
-      <c r="F29" t="str">
-        <v>3-5年大专</v>
-      </c>
-      <c r="G29" t="str" xml:space="preserve">
+      <c r="E30" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="F30" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="G30" t="str" xml:space="preserve">
         <v xml:space="preserve">Java
                                                     系统软件设计
                                                     Android
@@ -1157,26 +1184,26 @@
                                                     编写</v>
       </c>
     </row>
-    <row r="30" xml:space="preserve">
-      <c r="A30" t="str">
-        <v>Android</v>
-      </c>
-      <c r="B30" t="str">
+    <row r="31" xml:space="preserve">
+      <c r="A31" t="str">
+        <v>Android</v>
+      </c>
+      <c r="B31" t="str">
         <v>6-9K</v>
       </c>
-      <c r="C30" t="str">
+      <c r="C31" t="str">
         <v>福睿智能科技</v>
       </c>
-      <c r="D30" t="str">
+      <c r="D31" t="str">
         <v>郑州·管城回族区·经开区</v>
       </c>
-      <c r="E30" t="str">
-        <v>3-5年本科</v>
-      </c>
-      <c r="F30" t="str">
-        <v>3-5年本科</v>
-      </c>
-      <c r="G30" t="str" xml:space="preserve">
+      <c r="E31" t="str">
+        <v>3-5年本科</v>
+      </c>
+      <c r="F31" t="str">
+        <v>3-5年本科</v>
+      </c>
+      <c r="G31" t="str" xml:space="preserve">
         <v xml:space="preserve">开发质量
                                                     android应用开发
                                                     android客户端开发
@@ -1184,26 +1211,26 @@
                                                     UI控件</v>
       </c>
     </row>
-    <row r="31" xml:space="preserve">
-      <c r="A31" t="str">
+    <row r="32" xml:space="preserve">
+      <c r="A32" t="str">
         <v>安卓开发工程师</v>
       </c>
-      <c r="B31" t="str">
+      <c r="B32" t="str">
         <v>9-12K</v>
       </c>
-      <c r="C31" t="str">
+      <c r="C32" t="str">
         <v>郑州方洛</v>
       </c>
-      <c r="D31" t="str">
+      <c r="D32" t="str">
         <v>郑州·二七区·万客来</v>
       </c>
-      <c r="E31" t="str">
+      <c r="E32" t="str">
         <v>3-5年学历不限</v>
       </c>
-      <c r="F31" t="str">
+      <c r="F32" t="str">
         <v>3-5年学历不限</v>
       </c>
-      <c r="G31" t="str" xml:space="preserve">
+      <c r="G32" t="str" xml:space="preserve">
         <v xml:space="preserve">Android SDK
                                                     android框架
                                                     自定义ui
@@ -1211,26 +1238,26 @@
                                                     安卓开发工程师</v>
       </c>
     </row>
-    <row r="32" xml:space="preserve">
-      <c r="A32" t="str">
-        <v>Android</v>
-      </c>
-      <c r="B32" t="str">
+    <row r="33" xml:space="preserve">
+      <c r="A33" t="str">
+        <v>Android</v>
+      </c>
+      <c r="B33" t="str">
         <v>7-10K</v>
       </c>
-      <c r="C32" t="str">
+      <c r="C33" t="str">
         <v>乐而知教育</v>
       </c>
-      <c r="D32" t="str">
+      <c r="D33" t="str">
         <v>郑州·中原区·高新区</v>
       </c>
-      <c r="E32" t="str">
-        <v>3-5年本科</v>
-      </c>
-      <c r="F32" t="str">
-        <v>3-5年本科</v>
-      </c>
-      <c r="G32" t="str" xml:space="preserve">
+      <c r="E33" t="str">
+        <v>3-5年本科</v>
+      </c>
+      <c r="F33" t="str">
+        <v>3-5年本科</v>
+      </c>
+      <c r="G33" t="str" xml:space="preserve">
         <v xml:space="preserve">JNI
                                                     NDK
                                                     精通android
@@ -1238,26 +1265,53 @@
                                                     ui开发</v>
       </c>
     </row>
-    <row r="33" xml:space="preserve">
-      <c r="A33" t="str">
-        <v>Android</v>
-      </c>
-      <c r="B33" t="str">
+    <row r="34" xml:space="preserve">
+      <c r="A34" t="str">
+        <v>Android 开发工程师</v>
+      </c>
+      <c r="B34" t="str">
+        <v>10-20K</v>
+      </c>
+      <c r="C34" t="str">
+        <v>郑州帕博文化传媒</v>
+      </c>
+      <c r="D34" t="str">
+        <v>郑州·中牟县·白沙镇</v>
+      </c>
+      <c r="E34" t="str">
+        <v>3-5年本科</v>
+      </c>
+      <c r="F34" t="str">
+        <v>3-5年本科</v>
+      </c>
+      <c r="G34" t="str" xml:space="preserve">
+        <v xml:space="preserve">Android
+                                                    项目实施
+                                                    编程技术
+                                                    高性能
+                                                    通信机制</v>
+      </c>
+    </row>
+    <row r="35" xml:space="preserve">
+      <c r="A35" t="str">
+        <v>Android</v>
+      </c>
+      <c r="B35" t="str">
         <v>6-9K</v>
       </c>
-      <c r="C33" t="str">
+      <c r="C35" t="str">
         <v>凝聚网络</v>
       </c>
-      <c r="D33" t="str">
+      <c r="D35" t="str">
         <v>郑州·中原区·凯旋门</v>
       </c>
-      <c r="E33" t="str">
-        <v>1-3年本科</v>
-      </c>
-      <c r="F33" t="str">
-        <v>1-3年本科</v>
-      </c>
-      <c r="G33" t="str" xml:space="preserve">
+      <c r="E35" t="str">
+        <v>1-3年本科</v>
+      </c>
+      <c r="F35" t="str">
+        <v>1-3年本科</v>
+      </c>
+      <c r="G35" t="str" xml:space="preserve">
         <v xml:space="preserve">Android
                                                     移动端
                                                     Java
@@ -1265,166 +1319,112 @@
                                                     项目计划</v>
       </c>
     </row>
-    <row r="34" xml:space="preserve">
-      <c r="A34" t="str">
-        <v>Android 开发工程师</v>
-      </c>
-      <c r="B34" t="str">
-        <v>10-20K</v>
-      </c>
-      <c r="C34" t="str">
-        <v>郑州帕博文化传媒</v>
-      </c>
-      <c r="D34" t="str">
-        <v>郑州·中牟县·白沙镇</v>
-      </c>
-      <c r="E34" t="str">
-        <v>3-5年本科</v>
-      </c>
-      <c r="F34" t="str">
-        <v>3-5年本科</v>
-      </c>
-      <c r="G34" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-                                                    项目实施
-                                                    编程技术
-                                                    高性能
-                                                    通信机制</v>
-      </c>
-    </row>
-    <row r="35" xml:space="preserve">
-      <c r="A35" t="str">
-        <v>Android</v>
-      </c>
-      <c r="B35" t="str">
+    <row r="36" xml:space="preserve">
+      <c r="A36" t="str">
+        <v>Android</v>
+      </c>
+      <c r="B36" t="str">
+        <v>8-12K</v>
+      </c>
+      <c r="C36" t="str">
+        <v>犇犇科技</v>
+      </c>
+      <c r="D36" t="str">
+        <v>郑州·二七区·京广路</v>
+      </c>
+      <c r="E36" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="F36" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="G36" t="str" xml:space="preserve">
+        <v xml:space="preserve">Android
+                                                    移动端
+                                                    精通android
+                                                    框架原理
+                                                    android平台开发</v>
+      </c>
+    </row>
+    <row r="37" xml:space="preserve">
+      <c r="A37" t="str">
+        <v>Android</v>
+      </c>
+      <c r="B37" t="str">
+        <v>6-12K</v>
+      </c>
+      <c r="C37" t="str">
+        <v>河南涛雷软件科技</v>
+      </c>
+      <c r="D37" t="str">
+        <v>郑州·金水区·农科路酒吧街</v>
+      </c>
+      <c r="E37" t="str">
+        <v>3-5年本科</v>
+      </c>
+      <c r="F37" t="str">
+        <v>3-5年本科</v>
+      </c>
+      <c r="G37" t="str" xml:space="preserve">
+        <v xml:space="preserve">常用布局
+                                                    android应用开发
+                                                    android客户端开发
+                                                    通信机制
+                                                    SDK开发</v>
+      </c>
+    </row>
+    <row r="38" xml:space="preserve">
+      <c r="A38" t="str">
+        <v>Android</v>
+      </c>
+      <c r="B38" t="str">
+        <v>6-12K</v>
+      </c>
+      <c r="C38" t="str">
+        <v>采知企业孵化器</v>
+      </c>
+      <c r="D38" t="str">
+        <v>郑州·金水区·国基路</v>
+      </c>
+      <c r="E38" t="str">
+        <v>1-3年学历不限</v>
+      </c>
+      <c r="F38" t="str">
+        <v>1-3年学历不限</v>
+      </c>
+      <c r="G38" t="str" xml:space="preserve">
+        <v xml:space="preserve">android平台开发
+                                                    app应用开发
+                                                    Android
+                                                    Android平台
+                                                    开发应用程序</v>
+      </c>
+    </row>
+    <row r="39" xml:space="preserve">
+      <c r="A39" t="str">
+        <v>Android</v>
+      </c>
+      <c r="B39" t="str">
         <v>5-10K</v>
       </c>
-      <c r="C35" t="str">
+      <c r="C39" t="str">
         <v>保驾护航</v>
       </c>
-      <c r="D35" t="str">
+      <c r="D39" t="str">
         <v>郑州·金水区·国基路</v>
       </c>
-      <c r="E35" t="str">
+      <c r="E39" t="str">
         <v>1年以内本科</v>
       </c>
-      <c r="F35" t="str">
+      <c r="F39" t="str">
         <v>1年以内本科</v>
       </c>
-      <c r="G35" t="str" xml:space="preserve">
+      <c r="G39" t="str" xml:space="preserve">
         <v xml:space="preserve">android开发工程师
                                                     ios工程师
                                                     Android
                                                     .NET
                                                     工程师</v>
-      </c>
-    </row>
-    <row r="36" xml:space="preserve">
-      <c r="A36" t="str">
-        <v>Android</v>
-      </c>
-      <c r="B36" t="str">
-        <v>8-12K</v>
-      </c>
-      <c r="C36" t="str">
-        <v>犇犇科技</v>
-      </c>
-      <c r="D36" t="str">
-        <v>郑州·二七区·京广路</v>
-      </c>
-      <c r="E36" t="str">
-        <v>3-5年大专</v>
-      </c>
-      <c r="F36" t="str">
-        <v>3-5年大专</v>
-      </c>
-      <c r="G36" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-                                                    移动端
-                                                    精通android
-                                                    框架原理
-                                                    android平台开发</v>
-      </c>
-    </row>
-    <row r="37" xml:space="preserve">
-      <c r="A37" t="str">
-        <v>Android</v>
-      </c>
-      <c r="B37" t="str">
-        <v>4-8K</v>
-      </c>
-      <c r="C37" t="str">
-        <v>博信科技</v>
-      </c>
-      <c r="D37" t="str">
-        <v>郑州·管城回族区·郑州东站</v>
-      </c>
-      <c r="E37" t="str">
-        <v>1-3年本科</v>
-      </c>
-      <c r="F37" t="str">
-        <v>1-3年本科</v>
-      </c>
-      <c r="G37" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-                                                    淘宝运营
-                                                    php
-                                                    移动产品
-                                                    编写</v>
-      </c>
-    </row>
-    <row r="38" xml:space="preserve">
-      <c r="A38" t="str">
-        <v>Android</v>
-      </c>
-      <c r="B38" t="str">
-        <v>6-12K</v>
-      </c>
-      <c r="C38" t="str">
-        <v>河南涛雷软件科技</v>
-      </c>
-      <c r="D38" t="str">
-        <v>郑州·金水区·农科路酒吧街</v>
-      </c>
-      <c r="E38" t="str">
-        <v>3-5年本科</v>
-      </c>
-      <c r="F38" t="str">
-        <v>3-5年本科</v>
-      </c>
-      <c r="G38" t="str" xml:space="preserve">
-        <v xml:space="preserve">常用布局
-                                                    android应用开发
-                                                    android客户端开发
-                                                    通信机制
-                                                    SDK开发</v>
-      </c>
-    </row>
-    <row r="39" xml:space="preserve">
-      <c r="A39" t="str">
-        <v>Android</v>
-      </c>
-      <c r="B39" t="str">
-        <v>6-12K</v>
-      </c>
-      <c r="C39" t="str">
-        <v>采知企业孵化器</v>
-      </c>
-      <c r="D39" t="str">
-        <v>郑州·金水区·国基路</v>
-      </c>
-      <c r="E39" t="str">
-        <v>1-3年学历不限</v>
-      </c>
-      <c r="F39" t="str">
-        <v>1-3年学历不限</v>
-      </c>
-      <c r="G39" t="str" xml:space="preserve">
-        <v xml:space="preserve">android平台开发
-                                                    app应用开发
-                                                    Android
-                                                    Android平台
-                                                    开发应用程序</v>
       </c>
     </row>
     <row r="40" xml:space="preserve">
@@ -1591,24 +1591,51 @@
     </row>
     <row r="46" xml:space="preserve">
       <c r="A46" t="str">
+        <v>安卓</v>
+      </c>
+      <c r="B46" t="str">
+        <v>4-7K</v>
+      </c>
+      <c r="C46" t="str">
+        <v>哲硕网络科技有限公司</v>
+      </c>
+      <c r="D46" t="str">
+        <v>郑州·管城回族区·郑州东站</v>
+      </c>
+      <c r="E46" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="F46" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="G46" t="str" xml:space="preserve">
+        <v xml:space="preserve">Android
+                                                    移动端
+                                                    管理系统
+                                                    机器人
+                                                    物联网</v>
+      </c>
+    </row>
+    <row r="47" xml:space="preserve">
+      <c r="A47" t="str">
         <v>诚聘安卓开发工程师</v>
       </c>
-      <c r="B46" t="str">
+      <c r="B47" t="str">
         <v>7-12K</v>
       </c>
-      <c r="C46" t="str">
+      <c r="C47" t="str">
         <v>winderInfo</v>
       </c>
-      <c r="D46" t="str">
+      <c r="D47" t="str">
         <v>郑州·中原区·石佛</v>
       </c>
-      <c r="E46" t="str">
-        <v>3-5年大专</v>
-      </c>
-      <c r="F46" t="str">
-        <v>3-5年大专</v>
-      </c>
-      <c r="G46" t="str" xml:space="preserve">
+      <c r="E47" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="F47" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="G47" t="str" xml:space="preserve">
         <v xml:space="preserve">精通android
                                                     框架原理
                                                     android平台开发
@@ -1616,45 +1643,18 @@
                                                     android系统</v>
       </c>
     </row>
-    <row r="47" xml:space="preserve">
-      <c r="A47" t="str">
-        <v>安卓</v>
-      </c>
-      <c r="B47" t="str">
-        <v>4-7K</v>
-      </c>
-      <c r="C47" t="str">
-        <v>哲硕网络科技有限公司</v>
-      </c>
-      <c r="D47" t="str">
-        <v>郑州·管城回族区·郑州东站</v>
-      </c>
-      <c r="E47" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="F47" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="G47" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-                                                    移动端
-                                                    管理系统
-                                                    机器人
-                                                    物联网</v>
-      </c>
-    </row>
     <row r="48" xml:space="preserve">
       <c r="A48" t="str">
-        <v>Android</v>
+        <v>安卓</v>
       </c>
       <c r="B48" t="str">
-        <v>7-12K</v>
+        <v>7-9K</v>
       </c>
       <c r="C48" t="str">
-        <v>河南塔姆</v>
+        <v>大觉慧海网络科技</v>
       </c>
       <c r="D48" t="str">
-        <v>郑州·金水区·CBD</v>
+        <v>郑州·二七区·淮河路</v>
       </c>
       <c r="E48" t="str">
         <v>3-5年大专</v>
@@ -1663,33 +1663,6 @@
         <v>3-5年大专</v>
       </c>
       <c r="G48" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-                                                    移动端
-                                                    android开发技术
-                                                    Flutter
-                                                    精通android</v>
-      </c>
-    </row>
-    <row r="49" xml:space="preserve">
-      <c r="A49" t="str">
-        <v>安卓</v>
-      </c>
-      <c r="B49" t="str">
-        <v>7-9K</v>
-      </c>
-      <c r="C49" t="str">
-        <v>大觉慧海网络科技</v>
-      </c>
-      <c r="D49" t="str">
-        <v>郑州·二七区·淮河路</v>
-      </c>
-      <c r="E49" t="str">
-        <v>3-5年大专</v>
-      </c>
-      <c r="F49" t="str">
-        <v>3-5年大专</v>
-      </c>
-      <c r="G49" t="str" xml:space="preserve">
         <v xml:space="preserve">移动端
                                                     Android
                                                     前端开发
@@ -1697,31 +1670,58 @@
                                                     独立开发者</v>
       </c>
     </row>
-    <row r="50" xml:space="preserve">
-      <c r="A50" t="str">
+    <row r="49" xml:space="preserve">
+      <c r="A49" t="str">
         <v>安卓开发工程师</v>
       </c>
-      <c r="B50" t="str">
+      <c r="B49" t="str">
         <v>8-12K</v>
       </c>
-      <c r="C50" t="str">
+      <c r="C49" t="str">
         <v>河南天华教育</v>
       </c>
-      <c r="D50" t="str">
+      <c r="D49" t="str">
         <v>郑州·中原区·五龙口</v>
       </c>
-      <c r="E50" t="str">
-        <v>3-5年大专</v>
-      </c>
-      <c r="F50" t="str">
-        <v>3-5年大专</v>
-      </c>
-      <c r="G50" t="str" xml:space="preserve">
+      <c r="E49" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="F49" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="G49" t="str" xml:space="preserve">
         <v xml:space="preserve">Socket
                                                     android客户端开发
                                                     IJKplayer
                                                     FFmpeg
                                                     安卓开发工程师</v>
+      </c>
+    </row>
+    <row r="50" xml:space="preserve">
+      <c r="A50" t="str">
+        <v>Android</v>
+      </c>
+      <c r="B50" t="str">
+        <v>7-12K</v>
+      </c>
+      <c r="C50" t="str">
+        <v>河南塔姆</v>
+      </c>
+      <c r="D50" t="str">
+        <v>郑州·金水区·CBD</v>
+      </c>
+      <c r="E50" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="F50" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="G50" t="str" xml:space="preserve">
+        <v xml:space="preserve">Android
+                                                    移动端
+                                                    android开发技术
+                                                    Flutter
+                                                    精通android</v>
       </c>
     </row>
     <row r="51" xml:space="preserve">
@@ -2102,29 +2102,29 @@
     </row>
     <row r="65" xml:space="preserve">
       <c r="A65" t="str">
-        <v>Android</v>
+        <v>Android中级开发工程师</v>
       </c>
       <c r="B65" t="str">
-        <v>7-8K</v>
+        <v>5-8K</v>
       </c>
       <c r="C65" t="str">
-        <v>野石头科技</v>
+        <v>厚普科技</v>
       </c>
       <c r="D65" t="str">
-        <v>郑州·管城回族区·二里岗</v>
+        <v>郑州·金水区·龙子湖校区</v>
       </c>
       <c r="E65" t="str">
-        <v>1-3年本科</v>
+        <v>3-5年大专</v>
       </c>
       <c r="F65" t="str">
-        <v>1-3年本科</v>
+        <v>3-5年大专</v>
       </c>
       <c r="G65" t="str" xml:space="preserve">
-        <v xml:space="preserve">Socket
-                                                    Android SDK
-                                                    Socket通信
-                                                    支付宝支付
-                                                    SDK</v>
+        <v xml:space="preserve">Android
+                                                    IOS
+                                                    android框架
+                                                    android项目
+                                                    熟悉设计模式</v>
       </c>
     </row>
     <row r="66" xml:space="preserve">
@@ -2183,56 +2183,56 @@
     </row>
     <row r="68" xml:space="preserve">
       <c r="A68" t="str">
+        <v>Android</v>
+      </c>
+      <c r="B68" t="str">
+        <v>6-10K</v>
+      </c>
+      <c r="C68" t="str">
+        <v>旭扬网络</v>
+      </c>
+      <c r="D68" t="str">
+        <v>郑州·中原区·高新区</v>
+      </c>
+      <c r="E68" t="str">
+        <v>经验不限学历不限</v>
+      </c>
+      <c r="F68" t="str">
+        <v>经验不限学历不限</v>
+      </c>
+      <c r="G68" t="str" xml:space="preserve">
+        <v xml:space="preserve">Java
+                                                    Socket
+                                                    Android
+                                                    需求分析
+                                                    团队协作</v>
+      </c>
+    </row>
+    <row r="69" xml:space="preserve">
+      <c r="A69" t="str">
         <v>Android工程师</v>
       </c>
-      <c r="B68" t="str">
+      <c r="B69" t="str">
         <v>6-8K</v>
       </c>
-      <c r="C68" t="str">
+      <c r="C69" t="str">
         <v>云企汇网络科技</v>
       </c>
-      <c r="D68" t="str">
+      <c r="D69" t="str">
         <v>郑州·金水区·未来路</v>
       </c>
-      <c r="E68" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="F68" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="G68" t="str" xml:space="preserve">
+      <c r="E69" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="F69" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="G69" t="str" xml:space="preserve">
         <v xml:space="preserve">HTML5
                                                     javascript
                                                     技术文档
                                                     android开发工程师
                                                     手机app软件</v>
-      </c>
-    </row>
-    <row r="69" xml:space="preserve">
-      <c r="A69" t="str">
-        <v>Android</v>
-      </c>
-      <c r="B69" t="str">
-        <v>6-10K</v>
-      </c>
-      <c r="C69" t="str">
-        <v>旭扬网络</v>
-      </c>
-      <c r="D69" t="str">
-        <v>郑州·中原区·高新区</v>
-      </c>
-      <c r="E69" t="str">
-        <v>经验不限学历不限</v>
-      </c>
-      <c r="F69" t="str">
-        <v>经验不限学历不限</v>
-      </c>
-      <c r="G69" t="str" xml:space="preserve">
-        <v xml:space="preserve">Java
-                                                    Socket
-                                                    Android
-                                                    需求分析
-                                                    团队协作</v>
       </c>
     </row>
     <row r="70" xml:space="preserve">
@@ -2291,24 +2291,105 @@
     </row>
     <row r="72" xml:space="preserve">
       <c r="A72" t="str">
+        <v>Android</v>
+      </c>
+      <c r="B72" t="str">
+        <v>9-14K</v>
+      </c>
+      <c r="C72" t="str">
+        <v>中州智惠物流</v>
+      </c>
+      <c r="D72" t="str">
+        <v>郑州·管城回族区·第三大街</v>
+      </c>
+      <c r="E72" t="str">
+        <v>5-10年本科</v>
+      </c>
+      <c r="F72" t="str">
+        <v>5-10年本科</v>
+      </c>
+      <c r="G72" t="str" xml:space="preserve">
+        <v xml:space="preserve">服务端
+                                                    技术文档
+                                                    android开发工程师
+                                                    Framework
+                                                    Android</v>
+      </c>
+    </row>
+    <row r="73" xml:space="preserve">
+      <c r="A73" t="str">
+        <v>Android</v>
+      </c>
+      <c r="B73" t="str">
+        <v>5-10K</v>
+      </c>
+      <c r="C73" t="str">
+        <v>迅众科技</v>
+      </c>
+      <c r="D73" t="str">
+        <v>郑州·金水区·汽配大世界</v>
+      </c>
+      <c r="E73" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="F73" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="G73" t="str" xml:space="preserve">
+        <v xml:space="preserve">Android
+                                                    代码结构
+                                                    自定义view
+                                                    android四大组件
+                                                    handler机制</v>
+      </c>
+    </row>
+    <row r="74" xml:space="preserve">
+      <c r="A74" t="str">
+        <v>android安卓开发工程师</v>
+      </c>
+      <c r="B74" t="str">
+        <v>7-9K</v>
+      </c>
+      <c r="C74" t="str">
+        <v>卓瑞姆</v>
+      </c>
+      <c r="D74" t="str">
+        <v>郑州·金水区·CBD</v>
+      </c>
+      <c r="E74" t="str">
+        <v>3-5年学历不限</v>
+      </c>
+      <c r="F74" t="str">
+        <v>3-5年学历不限</v>
+      </c>
+      <c r="G74" t="str" xml:space="preserve">
+        <v xml:space="preserve">SDK
+                                                    Android
+                                                    第三方sdk
+                                                    精通android
+                                                    android平台开发</v>
+      </c>
+    </row>
+    <row r="75" xml:space="preserve">
+      <c r="A75" t="str">
         <v>Android（安卓）开发工程师</v>
       </c>
-      <c r="B72" t="str">
+      <c r="B75" t="str">
         <v>6-10K</v>
       </c>
-      <c r="C72" t="str">
+      <c r="C75" t="str">
         <v>闪创科技</v>
       </c>
-      <c r="D72" t="str">
+      <c r="D75" t="str">
         <v>郑州·中原区·高新区</v>
       </c>
-      <c r="E72" t="str">
-        <v>3-5年大专</v>
-      </c>
-      <c r="F72" t="str">
-        <v>3-5年大专</v>
-      </c>
-      <c r="G72" t="str" xml:space="preserve">
+      <c r="E75" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="F75" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="G75" t="str" xml:space="preserve">
         <v xml:space="preserve">NDK
                                                     精通android
                                                     框架原理
@@ -2316,80 +2397,26 @@
                                                     android平台开发</v>
       </c>
     </row>
-    <row r="73" xml:space="preserve">
-      <c r="A73" t="str">
-        <v>Android</v>
-      </c>
-      <c r="B73" t="str">
-        <v>9-14K</v>
-      </c>
-      <c r="C73" t="str">
-        <v>中州智惠物流</v>
-      </c>
-      <c r="D73" t="str">
-        <v>郑州·管城回族区·第三大街</v>
-      </c>
-      <c r="E73" t="str">
-        <v>5-10年本科</v>
-      </c>
-      <c r="F73" t="str">
-        <v>5-10年本科</v>
-      </c>
-      <c r="G73" t="str" xml:space="preserve">
-        <v xml:space="preserve">服务端
-                                                    技术文档
-                                                    android开发工程师
-                                                    Framework
-                                                    Android</v>
-      </c>
-    </row>
-    <row r="74" xml:space="preserve">
-      <c r="A74" t="str">
-        <v>Android</v>
-      </c>
-      <c r="B74" t="str">
-        <v>5-10K</v>
-      </c>
-      <c r="C74" t="str">
-        <v>迅众科技</v>
-      </c>
-      <c r="D74" t="str">
-        <v>郑州·金水区·汽配大世界</v>
-      </c>
-      <c r="E74" t="str">
-        <v>3-5年大专</v>
-      </c>
-      <c r="F74" t="str">
-        <v>3-5年大专</v>
-      </c>
-      <c r="G74" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-                                                    代码结构
-                                                    自定义view
-                                                    android四大组件
-                                                    handler机制</v>
-      </c>
-    </row>
-    <row r="75" xml:space="preserve">
-      <c r="A75" t="str">
+    <row r="76" xml:space="preserve">
+      <c r="A76" t="str">
         <v>安卓开发工程师</v>
       </c>
-      <c r="B75" t="str">
+      <c r="B76" t="str">
         <v>4-6K</v>
       </c>
-      <c r="C75" t="str">
+      <c r="C76" t="str">
         <v>郑州竹叶网络公司</v>
       </c>
-      <c r="D75" t="str">
+      <c r="D76" t="str">
         <v>郑州·中原区·西环路</v>
       </c>
-      <c r="E75" t="str">
+      <c r="E76" t="str">
         <v>经验不限学历不限</v>
       </c>
-      <c r="F75" t="str">
+      <c r="F76" t="str">
         <v>经验不限学历不限</v>
       </c>
-      <c r="G75" t="str" xml:space="preserve">
+      <c r="G76" t="str" xml:space="preserve">
         <v xml:space="preserve">Android SDK
                                                     内存性能
                                                     http网络
@@ -2397,26 +2424,53 @@
                                                     安卓开发工程师</v>
       </c>
     </row>
-    <row r="76" xml:space="preserve">
-      <c r="A76" t="str">
+    <row r="77" xml:space="preserve">
+      <c r="A77" t="str">
+        <v>Android</v>
+      </c>
+      <c r="B77" t="str">
+        <v>7-8K</v>
+      </c>
+      <c r="C77" t="str">
+        <v>野石头科技</v>
+      </c>
+      <c r="D77" t="str">
+        <v>郑州·管城回族区·二里岗</v>
+      </c>
+      <c r="E77" t="str">
+        <v>1-3年本科</v>
+      </c>
+      <c r="F77" t="str">
+        <v>1-3年本科</v>
+      </c>
+      <c r="G77" t="str" xml:space="preserve">
+        <v xml:space="preserve">Socket
+                                                    Android SDK
+                                                    Socket通信
+                                                    支付宝支付
+                                                    SDK</v>
+      </c>
+    </row>
+    <row r="78" xml:space="preserve">
+      <c r="A78" t="str">
         <v>android</v>
       </c>
-      <c r="B76" t="str">
+      <c r="B78" t="str">
         <v>6-8K</v>
       </c>
-      <c r="C76" t="str">
+      <c r="C78" t="str">
         <v>商联供应链</v>
       </c>
-      <c r="D76" t="str">
+      <c r="D78" t="str">
         <v>郑州·管城回族区·郑州东站</v>
       </c>
-      <c r="E76" t="str">
-        <v>3-5年本科</v>
-      </c>
-      <c r="F76" t="str">
-        <v>3-5年本科</v>
-      </c>
-      <c r="G76" t="str" xml:space="preserve">
+      <c r="E78" t="str">
+        <v>3-5年本科</v>
+      </c>
+      <c r="F78" t="str">
+        <v>3-5年本科</v>
+      </c>
+      <c r="G78" t="str" xml:space="preserve">
         <v xml:space="preserve">常用布局
                                                     编程技术
                                                     通信机制
@@ -2424,26 +2478,26 @@
                                                     安卓开发</v>
       </c>
     </row>
-    <row r="77" xml:space="preserve">
-      <c r="A77" t="str">
+    <row r="79" xml:space="preserve">
+      <c r="A79" t="str">
         <v>Android工程师</v>
       </c>
-      <c r="B77" t="str">
+      <c r="B79" t="str">
         <v>8-12K</v>
       </c>
-      <c r="C77" t="str">
+      <c r="C79" t="str">
         <v>集优科技</v>
       </c>
-      <c r="D77" t="str">
+      <c r="D79" t="str">
         <v>郑州·金水区·龙子湖</v>
       </c>
-      <c r="E77" t="str">
-        <v>3-5年本科</v>
-      </c>
-      <c r="F77" t="str">
-        <v>3-5年本科</v>
-      </c>
-      <c r="G77" t="str" xml:space="preserve">
+      <c r="E79" t="str">
+        <v>3-5年本科</v>
+      </c>
+      <c r="F79" t="str">
+        <v>3-5年本科</v>
+      </c>
+      <c r="G79" t="str" xml:space="preserve">
         <v xml:space="preserve">Android
                                                     RxJava
                                                     开发质量
@@ -2451,26 +2505,53 @@
                                                     android应用开发</v>
       </c>
     </row>
-    <row r="78" xml:space="preserve">
-      <c r="A78" t="str">
-        <v>Android</v>
-      </c>
-      <c r="B78" t="str">
+    <row r="80" xml:space="preserve">
+      <c r="A80" t="str">
+        <v>Android</v>
+      </c>
+      <c r="B80" t="str">
+        <v>4-6K</v>
+      </c>
+      <c r="C80" t="str">
+        <v>万众邦</v>
+      </c>
+      <c r="D80" t="str">
+        <v>郑州·金水区·郑东新区东建材</v>
+      </c>
+      <c r="E80" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="F80" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="G80" t="str" xml:space="preserve">
+        <v xml:space="preserve">Android
+                                                    软件工程师
+                                                    前端开发
+                                                    计算机软件
+                                                    开发软件</v>
+      </c>
+    </row>
+    <row r="81" xml:space="preserve">
+      <c r="A81" t="str">
+        <v>Android</v>
+      </c>
+      <c r="B81" t="str">
         <v>4-5K</v>
       </c>
-      <c r="C78" t="str">
+      <c r="C81" t="str">
         <v>聚时</v>
       </c>
-      <c r="D78" t="str">
+      <c r="D81" t="str">
         <v>郑州·管城回族区·橄榄城</v>
       </c>
-      <c r="E78" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="F78" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="G78" t="str" xml:space="preserve">
+      <c r="E81" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="F81" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="G81" t="str" xml:space="preserve">
         <v xml:space="preserve">安卓app
                                                     Android
                                                     能独立
@@ -2478,53 +2559,53 @@
                                                     Studio</v>
       </c>
     </row>
-    <row r="79" xml:space="preserve">
-      <c r="A79" t="str">
-        <v>Android</v>
-      </c>
-      <c r="B79" t="str">
-        <v>4-6K</v>
-      </c>
-      <c r="C79" t="str">
-        <v>万众邦</v>
-      </c>
-      <c r="D79" t="str">
-        <v>郑州·金水区·郑东新区东建材</v>
-      </c>
-      <c r="E79" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="F79" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="G79" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-                                                    软件工程师
-                                                    前端开发
-                                                    计算机软件
-                                                    开发软件</v>
-      </c>
-    </row>
-    <row r="80" xml:space="preserve">
-      <c r="A80" t="str">
+    <row r="82" xml:space="preserve">
+      <c r="A82" t="str">
+        <v>Android</v>
+      </c>
+      <c r="B82" t="str">
+        <v>7-12K</v>
+      </c>
+      <c r="C82" t="str">
+        <v>奥创百科集团</v>
+      </c>
+      <c r="D82" t="str">
+        <v>郑州·金水区·CBD</v>
+      </c>
+      <c r="E82" t="str">
+        <v>3-5年本科</v>
+      </c>
+      <c r="F82" t="str">
+        <v>3-5年本科</v>
+      </c>
+      <c r="G82" t="str" xml:space="preserve">
+        <v xml:space="preserve">Android
+                                                    移动端
+                                                    视频
+                                                    app项目
+                                                    经验丰富</v>
+      </c>
+    </row>
+    <row r="83" xml:space="preserve">
+      <c r="A83" t="str">
         <v>Android程序员</v>
       </c>
-      <c r="B80" t="str">
+      <c r="B83" t="str">
         <v>10-11K</v>
       </c>
-      <c r="C80" t="str">
+      <c r="C83" t="str">
         <v>天问网络</v>
       </c>
-      <c r="D80" t="str">
+      <c r="D83" t="str">
         <v>郑州·中原区·新郑大</v>
       </c>
-      <c r="E80" t="str">
+      <c r="E83" t="str">
         <v>经验不限本科</v>
       </c>
-      <c r="F80" t="str">
+      <c r="F83" t="str">
         <v>经验不限本科</v>
       </c>
-      <c r="G80" t="str" xml:space="preserve">
+      <c r="G83" t="str" xml:space="preserve">
         <v xml:space="preserve">Android程序
                                                     Framework
                                                     保证产品
@@ -2532,26 +2613,26 @@
                                                     Android</v>
       </c>
     </row>
-    <row r="81" xml:space="preserve">
-      <c r="A81" t="str">
-        <v>Android</v>
-      </c>
-      <c r="B81" t="str">
+    <row r="84" xml:space="preserve">
+      <c r="A84" t="str">
+        <v>Android</v>
+      </c>
+      <c r="B84" t="str">
         <v>10-20K</v>
       </c>
-      <c r="C81" t="str">
+      <c r="C84" t="str">
         <v>深蓝汽贸</v>
       </c>
-      <c r="D81" t="str">
+      <c r="D84" t="str">
         <v>郑州·管城回族区·郑州东站</v>
       </c>
-      <c r="E81" t="str">
-        <v>3-5年本科</v>
-      </c>
-      <c r="F81" t="str">
-        <v>3-5年本科</v>
-      </c>
-      <c r="G81" t="str" xml:space="preserve">
+      <c r="E84" t="str">
+        <v>3-5年本科</v>
+      </c>
+      <c r="F84" t="str">
+        <v>3-5年本科</v>
+      </c>
+      <c r="G84" t="str" xml:space="preserve">
         <v xml:space="preserve">AndroidStudio
                                                     自定义控件
                                                     Framework
@@ -2559,26 +2640,26 @@
                                                     Android</v>
       </c>
     </row>
-    <row r="82" xml:space="preserve">
-      <c r="A82" t="str">
+    <row r="85" xml:space="preserve">
+      <c r="A85" t="str">
         <v>Android 研发人员</v>
       </c>
-      <c r="B82" t="str">
+      <c r="B85" t="str">
         <v>6-11K</v>
       </c>
-      <c r="C82" t="str">
+      <c r="C85" t="str">
         <v>智联时空</v>
       </c>
-      <c r="D82" t="str">
+      <c r="D85" t="str">
         <v>郑州·金水区·省人民医院</v>
       </c>
-      <c r="E82" t="str">
-        <v>1-3年本科</v>
-      </c>
-      <c r="F82" t="str">
-        <v>1-3年本科</v>
-      </c>
-      <c r="G82" t="str" xml:space="preserve">
+      <c r="E85" t="str">
+        <v>1-3年本科</v>
+      </c>
+      <c r="F85" t="str">
+        <v>1-3年本科</v>
+      </c>
+      <c r="G85" t="str" xml:space="preserve">
         <v xml:space="preserve">软件工程师
                                                     android平台开发
                                                     应用框架
@@ -2586,52 +2667,26 @@
                                                     研发人员</v>
       </c>
     </row>
-    <row r="83" xml:space="preserve">
-      <c r="A83" t="str">
-        <v>Android</v>
-      </c>
-      <c r="B83" t="str">
-        <v>7-12K</v>
-      </c>
-      <c r="C83" t="str">
-        <v>奥创百科集团</v>
-      </c>
-      <c r="D83" t="str">
-        <v>郑州·金水区·CBD</v>
-      </c>
-      <c r="E83" t="str">
-        <v>3-5年本科</v>
-      </c>
-      <c r="F83" t="str">
-        <v>3-5年本科</v>
-      </c>
-      <c r="G83" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-                                                    移动端
-                                                    app项目
-                                                    经验丰富</v>
-      </c>
-    </row>
-    <row r="84" xml:space="preserve">
-      <c r="A84" t="str">
-        <v>Android</v>
-      </c>
-      <c r="B84" t="str">
+    <row r="86" xml:space="preserve">
+      <c r="A86" t="str">
+        <v>Android</v>
+      </c>
+      <c r="B86" t="str">
         <v>8-9K</v>
       </c>
-      <c r="C84" t="str">
+      <c r="C86" t="str">
         <v>正鑫小飞侠</v>
       </c>
-      <c r="D84" t="str">
+      <c r="D86" t="str">
         <v>郑州·金水区·月季公园</v>
       </c>
-      <c r="E84" t="str">
+      <c r="E86" t="str">
         <v>5-10年本科</v>
       </c>
-      <c r="F84" t="str">
+      <c r="F86" t="str">
         <v>5-10年本科</v>
       </c>
-      <c r="G84" t="str" xml:space="preserve">
+      <c r="G86" t="str" xml:space="preserve">
         <v xml:space="preserve">移动端
                                                     Android
                                                     根据产品需求
@@ -2639,26 +2694,26 @@
                                                     测试</v>
       </c>
     </row>
-    <row r="85" xml:space="preserve">
-      <c r="A85" t="str">
+    <row r="87" xml:space="preserve">
+      <c r="A87" t="str">
         <v>安卓</v>
       </c>
-      <c r="B85" t="str">
+      <c r="B87" t="str">
         <v>7-8K</v>
       </c>
-      <c r="C85" t="str">
+      <c r="C87" t="str">
         <v>中荆投资</v>
       </c>
-      <c r="D85" t="str">
+      <c r="D87" t="str">
         <v>郑州·金水区·CBD</v>
       </c>
-      <c r="E85" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="F85" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="G85" t="str" xml:space="preserve">
+      <c r="E87" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="F87" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="G87" t="str" xml:space="preserve">
         <v xml:space="preserve">Android
                                                     android四大组件
                                                     常用控件
@@ -2666,53 +2721,26 @@
                                                     android开发经验</v>
       </c>
     </row>
-    <row r="86" xml:space="preserve">
-      <c r="A86" t="str">
-        <v>Android中级开发工程师</v>
-      </c>
-      <c r="B86" t="str">
-        <v>5-8K</v>
-      </c>
-      <c r="C86" t="str">
-        <v>厚普科技</v>
-      </c>
-      <c r="D86" t="str">
-        <v>郑州·金水区·龙子湖校区</v>
-      </c>
-      <c r="E86" t="str">
-        <v>3-5年大专</v>
-      </c>
-      <c r="F86" t="str">
-        <v>3-5年大专</v>
-      </c>
-      <c r="G86" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-                                                    IOS
-                                                    android框架
-                                                    android项目
-                                                    熟悉设计模式</v>
-      </c>
-    </row>
-    <row r="87" xml:space="preserve">
-      <c r="A87" t="str">
+    <row r="88" xml:space="preserve">
+      <c r="A88" t="str">
         <v>Android jni开发工程师</v>
       </c>
-      <c r="B87" t="str">
+      <c r="B88" t="str">
         <v>8-13K</v>
       </c>
-      <c r="C87" t="str">
+      <c r="C88" t="str">
         <v>芯盾网安</v>
       </c>
-      <c r="D87" t="str">
+      <c r="D88" t="str">
         <v>郑州·中原区·新郑大</v>
       </c>
-      <c r="E87" t="str">
+      <c r="E88" t="str">
         <v>经验不限大专</v>
       </c>
-      <c r="F87" t="str">
+      <c r="F88" t="str">
         <v>经验不限大专</v>
       </c>
-      <c r="G87" t="str" xml:space="preserve">
+      <c r="G88" t="str" xml:space="preserve">
         <v xml:space="preserve">Android
                                                     C++
                                                     密码算法
@@ -2720,51 +2748,51 @@
                                                     jni开发</v>
       </c>
     </row>
-    <row r="88" xml:space="preserve">
-      <c r="A88" t="str">
+    <row r="89" xml:space="preserve">
+      <c r="A89" t="str">
         <v>安卓开发工程师</v>
       </c>
-      <c r="B88" t="str">
+      <c r="B89" t="str">
         <v>5-7K</v>
       </c>
-      <c r="C88" t="str">
+      <c r="C89" t="str">
         <v>指针软件</v>
       </c>
-      <c r="D88" t="str">
+      <c r="D89" t="str">
         <v>郑州·金水区·曼哈顿广场</v>
       </c>
-      <c r="E88" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="F88" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="G88" t="str" xml:space="preserve">
+      <c r="E89" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="F89" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="G89" t="str" xml:space="preserve">
         <v xml:space="preserve">Android
                                                     安卓技术
                                                     安卓开发工程师</v>
       </c>
     </row>
-    <row r="89" xml:space="preserve">
-      <c r="A89" t="str">
-        <v>Android</v>
-      </c>
-      <c r="B89" t="str">
+    <row r="90" xml:space="preserve">
+      <c r="A90" t="str">
+        <v>Android</v>
+      </c>
+      <c r="B90" t="str">
         <v>9-13K</v>
       </c>
-      <c r="C89" t="str">
+      <c r="C90" t="str">
         <v>大梦</v>
       </c>
-      <c r="D89" t="str">
+      <c r="D90" t="str">
         <v>郑州·金水区·郑州东站</v>
       </c>
-      <c r="E89" t="str">
+      <c r="E90" t="str">
         <v>5-10年本科</v>
       </c>
-      <c r="F89" t="str">
+      <c r="F90" t="str">
         <v>5-10年本科</v>
       </c>
-      <c r="G89" t="str" xml:space="preserve">
+      <c r="G90" t="str" xml:space="preserve">
         <v xml:space="preserve">Android
                                                     网络协议
                                                     软件工程师
@@ -2772,26 +2800,26 @@
                                                     socket技术</v>
       </c>
     </row>
-    <row r="90" xml:space="preserve">
-      <c r="A90" t="str">
-        <v>Android</v>
-      </c>
-      <c r="B90" t="str">
+    <row r="91" xml:space="preserve">
+      <c r="A91" t="str">
+        <v>Android</v>
+      </c>
+      <c r="B91" t="str">
         <v>8-12K</v>
       </c>
-      <c r="C90" t="str">
+      <c r="C91" t="str">
         <v>万杰科技</v>
       </c>
-      <c r="D90" t="str">
+      <c r="D91" t="str">
         <v>郑州·管城回族区·郑州东站</v>
       </c>
-      <c r="E90" t="str">
+      <c r="E91" t="str">
         <v>5-10年本科</v>
       </c>
-      <c r="F90" t="str">
+      <c r="F91" t="str">
         <v>5-10年本科</v>
       </c>
-      <c r="G90" t="str" xml:space="preserve">
+      <c r="G91" t="str" xml:space="preserve">
         <v xml:space="preserve">代码结构
                                                     开发质量
                                                     JNI
@@ -2799,26 +2827,53 @@
                                                     精通android</v>
       </c>
     </row>
-    <row r="91" xml:space="preserve">
-      <c r="A91" t="str">
+    <row r="92" xml:space="preserve">
+      <c r="A92" t="str">
+        <v>移动开发工程师（Android方向）</v>
+      </c>
+      <c r="B92" t="str">
+        <v>11-19K</v>
+      </c>
+      <c r="C92" t="str">
+        <v>富士康</v>
+      </c>
+      <c r="D92" t="str">
+        <v>郑州·管城回族区·经开区</v>
+      </c>
+      <c r="E92" t="str">
+        <v>5-10年本科</v>
+      </c>
+      <c r="F92" t="str">
+        <v>5-10年本科</v>
+      </c>
+      <c r="G92" t="str" xml:space="preserve">
+        <v xml:space="preserve">SQLite
+                                                    Eclipse
+                                                    SVN
+                                                    移动端
+                                                    Java</v>
+      </c>
+    </row>
+    <row r="93" xml:space="preserve">
+      <c r="A93" t="str">
         <v>Android工程师</v>
       </c>
-      <c r="B91" t="str">
+      <c r="B93" t="str">
         <v>8-13K·14薪</v>
       </c>
-      <c r="C91" t="str">
+      <c r="C93" t="str">
         <v>蓝信科技</v>
       </c>
-      <c r="D91" t="str">
+      <c r="D93" t="str">
         <v>郑州·中原区·新郑大</v>
       </c>
-      <c r="E91" t="str">
+      <c r="E93" t="str">
         <v>5-10年本科</v>
       </c>
-      <c r="F91" t="str">
+      <c r="F93" t="str">
         <v>5-10年本科</v>
       </c>
-      <c r="G91" t="str" xml:space="preserve">
+      <c r="G93" t="str" xml:space="preserve">
         <v xml:space="preserve">SQLite
                                                     Eclipse
                                                     HBuilder
@@ -2826,26 +2881,26 @@
                                                     移动端</v>
       </c>
     </row>
-    <row r="92" xml:space="preserve">
-      <c r="A92" t="str">
+    <row r="94" xml:space="preserve">
+      <c r="A94" t="str">
         <v>安卓开发工程师</v>
       </c>
-      <c r="B92" t="str">
+      <c r="B94" t="str">
         <v>7-12K</v>
       </c>
-      <c r="C92" t="str">
+      <c r="C94" t="str">
         <v>大觉慧海</v>
       </c>
-      <c r="D92" t="str">
+      <c r="D94" t="str">
         <v>郑州·二七区·兴华南街</v>
       </c>
-      <c r="E92" t="str">
-        <v>3-5年大专</v>
-      </c>
-      <c r="F92" t="str">
-        <v>3-5年大专</v>
-      </c>
-      <c r="G92" t="str" xml:space="preserve">
+      <c r="E94" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="F94" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="G94" t="str" xml:space="preserve">
         <v xml:space="preserve">Flutter
                                                     移动端
                                                     Android
@@ -2853,26 +2908,26 @@
                                                     后端开发</v>
       </c>
     </row>
-    <row r="93" xml:space="preserve">
-      <c r="A93" t="str">
+    <row r="95" xml:space="preserve">
+      <c r="A95" t="str">
         <v>安卓开发</v>
       </c>
-      <c r="B93" t="str">
+      <c r="B95" t="str">
         <v>5-6K</v>
       </c>
-      <c r="C93" t="str">
+      <c r="C95" t="str">
         <v>应之运</v>
       </c>
-      <c r="D93" t="str">
+      <c r="D95" t="str">
         <v>郑州·金水区·龙子湖校区</v>
       </c>
-      <c r="E93" t="str">
-        <v>1-3年本科</v>
-      </c>
-      <c r="F93" t="str">
-        <v>1-3年本科</v>
-      </c>
-      <c r="G93" t="str" xml:space="preserve">
+      <c r="E95" t="str">
+        <v>1-3年本科</v>
+      </c>
+      <c r="F95" t="str">
+        <v>1-3年本科</v>
+      </c>
+      <c r="G95" t="str" xml:space="preserve">
         <v xml:space="preserve">Android
                                                     android软件开发
                                                     常用设计模式
@@ -2880,79 +2935,79 @@
                                                     计算机相关</v>
       </c>
     </row>
-    <row r="94" xml:space="preserve">
-      <c r="A94" t="str">
-        <v>移动开发工程师（Android方向）</v>
-      </c>
-      <c r="B94" t="str">
+    <row r="96" xml:space="preserve">
+      <c r="A96" t="str">
+        <v>Android 安卓开发人员</v>
+      </c>
+      <c r="B96" t="str">
         <v>8-12K</v>
       </c>
-      <c r="C94" t="str">
-        <v>富士康</v>
-      </c>
-      <c r="D94" t="str">
-        <v>郑州·管城回族区·经开区</v>
-      </c>
-      <c r="E94" t="str">
-        <v>3-5年本科</v>
-      </c>
-      <c r="F94" t="str">
-        <v>3-5年本科</v>
-      </c>
-      <c r="G94" t="str" xml:space="preserve">
-        <v xml:space="preserve">SQLite
-                                                    Eclipse
-                                                    SVN
-                                                    移动端
-                                                    Java</v>
-      </c>
-    </row>
-    <row r="95" xml:space="preserve">
-      <c r="A95" t="str">
-        <v>Android</v>
-      </c>
-      <c r="B95" t="str">
+      <c r="C96" t="str">
+        <v>博聪教育</v>
+      </c>
+      <c r="D96" t="str">
+        <v>郑州·金水区·郑东新区东建材</v>
+      </c>
+      <c r="E96" t="str">
+        <v>1-3年本科</v>
+      </c>
+      <c r="F96" t="str">
+        <v>1-3年本科</v>
+      </c>
+      <c r="G96" t="str" xml:space="preserve">
+        <v xml:space="preserve">Android
+                                                    高性能
+                                                    Android SDK
+                                                    精通android
+                                                    通信机制</v>
+      </c>
+    </row>
+    <row r="97" xml:space="preserve">
+      <c r="A97" t="str">
+        <v>Android</v>
+      </c>
+      <c r="B97" t="str">
         <v>2-5K</v>
       </c>
-      <c r="C95" t="str">
+      <c r="C97" t="str">
         <v>三业达</v>
       </c>
-      <c r="D95" t="str">
+      <c r="D97" t="str">
         <v>郑州·新郑市·华南城</v>
       </c>
-      <c r="E95" t="str">
-        <v>1-3年本科</v>
-      </c>
-      <c r="F95" t="str">
-        <v>1-3年本科</v>
-      </c>
-      <c r="G95" t="str" xml:space="preserve">
+      <c r="E97" t="str">
+        <v>1-3年本科</v>
+      </c>
+      <c r="F97" t="str">
+        <v>1-3年本科</v>
+      </c>
+      <c r="G97" t="str" xml:space="preserve">
         <v xml:space="preserve">Android
                                                     移动端
                                                     Java
                                                     开发项目</v>
       </c>
     </row>
-    <row r="96" xml:space="preserve">
-      <c r="A96" t="str">
+    <row r="98" xml:space="preserve">
+      <c r="A98" t="str">
         <v>安卓</v>
       </c>
-      <c r="B96" t="str">
+      <c r="B98" t="str">
         <v>6-9K</v>
       </c>
-      <c r="C96" t="str">
+      <c r="C98" t="str">
         <v>晨泽电子科技</v>
       </c>
-      <c r="D96" t="str">
+      <c r="D98" t="str">
         <v>郑州·管城回族区·航海东路</v>
       </c>
-      <c r="E96" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="F96" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="G96" t="str" xml:space="preserve">
+      <c r="E98" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="F98" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="G98" t="str" xml:space="preserve">
         <v xml:space="preserve">Java
                                                     AndroidStudio
                                                     自定义view
@@ -2960,26 +3015,26 @@
                                                     SDK</v>
       </c>
     </row>
-    <row r="97" xml:space="preserve">
-      <c r="A97" t="str">
+    <row r="99" xml:space="preserve">
+      <c r="A99" t="str">
         <v>安卓开发工程师</v>
       </c>
-      <c r="B97" t="str">
+      <c r="B99" t="str">
         <v>7-9K</v>
       </c>
-      <c r="C97" t="str">
+      <c r="C99" t="str">
         <v>郑州蓝元科技</v>
       </c>
-      <c r="D97" t="str">
+      <c r="D99" t="str">
         <v>郑州·金水区·省电视台</v>
       </c>
-      <c r="E97" t="str">
-        <v>3-5年大专</v>
-      </c>
-      <c r="F97" t="str">
-        <v>3-5年大专</v>
-      </c>
-      <c r="G97" t="str" xml:space="preserve">
+      <c r="E99" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="F99" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="G99" t="str" xml:space="preserve">
         <v xml:space="preserve">计算机软件
                                                     android应用开发
                                                     android开发工具
@@ -2987,26 +3042,26 @@
                                                     android开发经验</v>
       </c>
     </row>
-    <row r="98" xml:space="preserve">
-      <c r="A98" t="str">
+    <row r="100" xml:space="preserve">
+      <c r="A100" t="str">
         <v>安卓/Android开发工程师</v>
       </c>
-      <c r="B98" t="str">
+      <c r="B100" t="str">
         <v>5-8K</v>
       </c>
-      <c r="C98" t="str">
+      <c r="C100" t="str">
         <v>五二科技</v>
       </c>
-      <c r="D98" t="str">
+      <c r="D100" t="str">
         <v>郑州·金水区·CBD</v>
       </c>
-      <c r="E98" t="str">
-        <v>1-3年本科</v>
-      </c>
-      <c r="F98" t="str">
-        <v>1-3年本科</v>
-      </c>
-      <c r="G98" t="str" xml:space="preserve">
+      <c r="E100" t="str">
+        <v>1-3年本科</v>
+      </c>
+      <c r="F100" t="str">
+        <v>1-3年本科</v>
+      </c>
+      <c r="G100" t="str" xml:space="preserve">
         <v xml:space="preserve">Android
                                                     技术文档
                                                     android应用程序开发
@@ -3014,26 +3069,53 @@
                                                     文档书写</v>
       </c>
     </row>
-    <row r="99" xml:space="preserve">
-      <c r="A99" t="str">
+    <row r="101" xml:space="preserve">
+      <c r="A101" t="str">
+        <v>Android</v>
+      </c>
+      <c r="B101" t="str">
+        <v>8-9K</v>
+      </c>
+      <c r="C101" t="str">
+        <v>微镖</v>
+      </c>
+      <c r="D101" t="str">
+        <v>郑州·金水区·月季公园</v>
+      </c>
+      <c r="E101" t="str">
+        <v>3-5年本科</v>
+      </c>
+      <c r="F101" t="str">
+        <v>3-5年本科</v>
+      </c>
+      <c r="G101" t="str" xml:space="preserve">
+        <v xml:space="preserve">移动端
+                                                    Android
+                                                    根据产品需求
+                                                    移动产品
+                                                    测试</v>
+      </c>
+    </row>
+    <row r="102" xml:space="preserve">
+      <c r="A102" t="str">
         <v>安卓开发工程师</v>
       </c>
-      <c r="B99" t="str">
+      <c r="B102" t="str">
         <v>6-10K</v>
       </c>
-      <c r="C99" t="str">
+      <c r="C102" t="str">
         <v>河南鑫安利</v>
       </c>
-      <c r="D99" t="str">
+      <c r="D102" t="str">
         <v>郑州·中原区·高新区</v>
       </c>
-      <c r="E99" t="str">
-        <v>3-5年本科</v>
-      </c>
-      <c r="F99" t="str">
-        <v>3-5年本科</v>
-      </c>
-      <c r="G99" t="str" xml:space="preserve">
+      <c r="E102" t="str">
+        <v>3-5年本科</v>
+      </c>
+      <c r="F102" t="str">
+        <v>3-5年本科</v>
+      </c>
+      <c r="G102" t="str" xml:space="preserve">
         <v xml:space="preserve">HTML5
                                                     Android
                                                     移动开发
@@ -3041,26 +3123,26 @@
                                                     android框架</v>
       </c>
     </row>
-    <row r="100" xml:space="preserve">
-      <c r="A100" t="str">
+    <row r="103" xml:space="preserve">
+      <c r="A103" t="str">
         <v>安卓</v>
       </c>
-      <c r="B100" t="str">
+      <c r="B103" t="str">
         <v>5-10K</v>
       </c>
-      <c r="C100" t="str">
+      <c r="C103" t="str">
         <v>河南帮枭</v>
       </c>
-      <c r="D100" t="str">
+      <c r="D103" t="str">
         <v>郑州·管城回族区·紫荆山</v>
       </c>
-      <c r="E100" t="str">
+      <c r="E103" t="str">
         <v>经验不限本科</v>
       </c>
-      <c r="F100" t="str">
+      <c r="F103" t="str">
         <v>经验不限本科</v>
       </c>
-      <c r="G100" t="str" xml:space="preserve">
+      <c r="G103" t="str" xml:space="preserve">
         <v xml:space="preserve">Android
                                                     移动端
                                                     JNI
@@ -3068,26 +3150,26 @@
                                                     抓包</v>
       </c>
     </row>
-    <row r="101" xml:space="preserve">
-      <c r="A101" t="str">
+    <row r="104" xml:space="preserve">
+      <c r="A104" t="str">
         <v>安卓工程师</v>
       </c>
-      <c r="B101" t="str">
+      <c r="B104" t="str">
         <v>6-8K</v>
       </c>
-      <c r="C101" t="str">
+      <c r="C104" t="str">
         <v>迪迪贷</v>
       </c>
-      <c r="D101" t="str">
+      <c r="D104" t="str">
         <v>郑州·金水区·祭城</v>
       </c>
-      <c r="E101" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="F101" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="G101" t="str" xml:space="preserve">
+      <c r="E104" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="F104" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="G104" t="str" xml:space="preserve">
         <v xml:space="preserve">RxJava
                                                     Glide
                                                     OKhttp
@@ -3095,26 +3177,26 @@
                                                     安卓开发工程师</v>
       </c>
     </row>
-    <row r="102" xml:space="preserve">
-      <c r="A102" t="str">
+    <row r="105" xml:space="preserve">
+      <c r="A105" t="str">
         <v>安卓开发工程师</v>
       </c>
-      <c r="B102" t="str">
+      <c r="B105" t="str">
         <v>8-9K</v>
       </c>
-      <c r="C102" t="str">
+      <c r="C105" t="str">
         <v>比比西</v>
       </c>
-      <c r="D102" t="str">
+      <c r="D105" t="str">
         <v>郑州·金水区·燕庄</v>
       </c>
-      <c r="E102" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="F102" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="G102" t="str" xml:space="preserve">
+      <c r="E105" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="F105" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="G105" t="str" xml:space="preserve">
         <v xml:space="preserve">ASP
                                                     Android
                                                     android项目
@@ -3122,26 +3204,26 @@
                                                     安卓开发工程师</v>
       </c>
     </row>
-    <row r="103" xml:space="preserve">
-      <c r="A103" t="str">
+    <row r="106" xml:space="preserve">
+      <c r="A106" t="str">
         <v>安卓开发工程师</v>
       </c>
-      <c r="B103" t="str">
+      <c r="B106" t="str">
         <v>8-12K</v>
       </c>
-      <c r="C103" t="str">
+      <c r="C106" t="str">
         <v>骏龙数据</v>
       </c>
-      <c r="D103" t="str">
+      <c r="D106" t="str">
         <v>郑州·金水区·丰产路</v>
       </c>
-      <c r="E103" t="str">
-        <v>3-5年本科</v>
-      </c>
-      <c r="F103" t="str">
-        <v>3-5年本科</v>
-      </c>
-      <c r="G103" t="str" xml:space="preserve">
+      <c r="E106" t="str">
+        <v>3-5年本科</v>
+      </c>
+      <c r="F106" t="str">
+        <v>3-5年本科</v>
+      </c>
+      <c r="G106" t="str" xml:space="preserve">
         <v xml:space="preserve">产品讨论
                                                     市场发布
                                                     安卓开发工程师
@@ -3149,80 +3231,26 @@
                                                     项目计划</v>
       </c>
     </row>
-    <row r="104" xml:space="preserve">
-      <c r="A104" t="str">
-        <v>安卓工程师</v>
-      </c>
-      <c r="B104" t="str">
-        <v>6-12K</v>
-      </c>
-      <c r="C104" t="str">
-        <v>云企汇网络科技</v>
-      </c>
-      <c r="D104" t="str">
-        <v>郑州·管城回族区·未来路</v>
-      </c>
-      <c r="E104" t="str">
-        <v>3-5年学历不限</v>
-      </c>
-      <c r="F104" t="str">
-        <v>3-5年学历不限</v>
-      </c>
-      <c r="G104" t="str" xml:space="preserve">
-        <v xml:space="preserve">AndroidStudio
-                                                    Java
-                                                    程序单元
-                                                    HTML5
-                                                    服务端</v>
-      </c>
-    </row>
-    <row r="105" xml:space="preserve">
-      <c r="A105" t="str">
-        <v>安卓工程师</v>
-      </c>
-      <c r="B105" t="str">
-        <v>5-6K</v>
-      </c>
-      <c r="C105" t="str">
-        <v>郑州盛联易网络科技</v>
-      </c>
-      <c r="D105" t="str">
-        <v>郑州·金水区·祭城</v>
-      </c>
-      <c r="E105" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="F105" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="G105" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-                                                    安卓开发工程师
-                                                    安卓
-                                                    客户端软件
-                                                    软件</v>
-      </c>
-    </row>
-    <row r="106" xml:space="preserve">
-      <c r="A106" t="str">
+    <row r="107" xml:space="preserve">
+      <c r="A107" t="str">
         <v>安卓前端工程师</v>
       </c>
-      <c r="B106" t="str">
+      <c r="B107" t="str">
         <v>5-7K</v>
       </c>
-      <c r="C106" t="str">
+      <c r="C107" t="str">
         <v>嘎纳时代</v>
       </c>
-      <c r="D106" t="str">
+      <c r="D107" t="str">
         <v>郑州·中原区·儿童公园</v>
       </c>
-      <c r="E106" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="F106" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="G106" t="str" xml:space="preserve">
+      <c r="E107" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="F107" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="G107" t="str" xml:space="preserve">
         <v xml:space="preserve">SDK
                                                     安卓
                                                     前端工程师
@@ -3230,26 +3258,53 @@
                                                     Android</v>
       </c>
     </row>
-    <row r="107" xml:space="preserve">
-      <c r="A107" t="str">
+    <row r="108" xml:space="preserve">
+      <c r="A108" t="str">
+        <v>安卓工程师</v>
+      </c>
+      <c r="B108" t="str">
+        <v>5-6K</v>
+      </c>
+      <c r="C108" t="str">
+        <v>郑州盛联易网络科技</v>
+      </c>
+      <c r="D108" t="str">
+        <v>郑州·金水区·祭城</v>
+      </c>
+      <c r="E108" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="F108" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="G108" t="str" xml:space="preserve">
+        <v xml:space="preserve">Android
+                                                    安卓开发工程师
+                                                    安卓
+                                                    客户端软件
+                                                    软件</v>
+      </c>
+    </row>
+    <row r="109" xml:space="preserve">
+      <c r="A109" t="str">
         <v>安卓开发工程师</v>
       </c>
-      <c r="B107" t="str">
+      <c r="B109" t="str">
         <v>4-6K</v>
       </c>
-      <c r="C107" t="str">
+      <c r="C109" t="str">
         <v>河南债无债互联网科技</v>
       </c>
-      <c r="D107" t="str">
+      <c r="D109" t="str">
         <v>郑州·金水区·燕庄</v>
       </c>
-      <c r="E107" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="F107" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="G107" t="str" xml:space="preserve">
+      <c r="E109" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="F109" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="G109" t="str" xml:space="preserve">
         <v xml:space="preserve">HTML5
                                                     安卓开发工程师
                                                     安卓开发
@@ -3257,53 +3312,26 @@
                                                     XML</v>
       </c>
     </row>
-    <row r="108" xml:space="preserve">
-      <c r="A108" t="str">
-        <v>Android</v>
-      </c>
-      <c r="B108" t="str">
-        <v>8-9K</v>
-      </c>
-      <c r="C108" t="str">
-        <v>微镖</v>
-      </c>
-      <c r="D108" t="str">
-        <v>郑州·金水区·月季公园</v>
-      </c>
-      <c r="E108" t="str">
-        <v>3-5年本科</v>
-      </c>
-      <c r="F108" t="str">
-        <v>3-5年本科</v>
-      </c>
-      <c r="G108" t="str" xml:space="preserve">
-        <v xml:space="preserve">移动端
-                                                    Android
-                                                    根据产品需求
-                                                    移动产品
-                                                    测试</v>
-      </c>
-    </row>
-    <row r="109" xml:space="preserve">
-      <c r="A109" t="str">
+    <row r="110" xml:space="preserve">
+      <c r="A110" t="str">
         <v>Andriod安卓高级工程师</v>
       </c>
-      <c r="B109" t="str">
+      <c r="B110" t="str">
         <v>9-14K</v>
       </c>
-      <c r="C109" t="str">
+      <c r="C110" t="str">
         <v>神灯网络</v>
       </c>
-      <c r="D109" t="str">
+      <c r="D110" t="str">
         <v>郑州·管城回族区·经开区</v>
       </c>
-      <c r="E109" t="str">
-        <v>3-5年大专</v>
-      </c>
-      <c r="F109" t="str">
-        <v>3-5年大专</v>
-      </c>
-      <c r="G109" t="str" xml:space="preserve">
+      <c r="E110" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="F110" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="G110" t="str" xml:space="preserve">
         <v xml:space="preserve">NDK
                                                     android系统架构
                                                     熟悉http
@@ -3311,26 +3339,26 @@
                                                     SDK</v>
       </c>
     </row>
-    <row r="110" xml:space="preserve">
-      <c r="A110" t="str">
+    <row r="111" xml:space="preserve">
+      <c r="A111" t="str">
         <v>安卓开发（全国出差）</v>
       </c>
-      <c r="B110" t="str">
+      <c r="B111" t="str">
         <v>8-12K</v>
       </c>
-      <c r="C110" t="str">
+      <c r="C111" t="str">
         <v>屹通信息科技</v>
       </c>
-      <c r="D110" t="str">
+      <c r="D111" t="str">
         <v>郑州·金水区·CBD</v>
       </c>
-      <c r="E110" t="str">
-        <v>3-5年本科</v>
-      </c>
-      <c r="F110" t="str">
-        <v>3-5年本科</v>
-      </c>
-      <c r="G110" t="str" xml:space="preserve">
+      <c r="E111" t="str">
+        <v>3-5年本科</v>
+      </c>
+      <c r="F111" t="str">
+        <v>3-5年本科</v>
+      </c>
+      <c r="G111" t="str" xml:space="preserve">
         <v xml:space="preserve">Android
                                                     发布流程
                                                     Android SDK
@@ -3338,26 +3366,26 @@
                                                     安卓开发</v>
       </c>
     </row>
-    <row r="111" xml:space="preserve">
-      <c r="A111" t="str">
+    <row r="112" xml:space="preserve">
+      <c r="A112" t="str">
         <v>安卓程序员</v>
       </c>
-      <c r="B111" t="str">
+      <c r="B112" t="str">
         <v>5-8K</v>
       </c>
-      <c r="C111" t="str">
+      <c r="C112" t="str">
         <v>郑州梅地亚</v>
       </c>
-      <c r="D111" t="str">
+      <c r="D112" t="str">
         <v>郑州·金水区·东建材</v>
       </c>
-      <c r="E111" t="str">
-        <v>1-3年本科</v>
-      </c>
-      <c r="F111" t="str">
-        <v>1-3年本科</v>
-      </c>
-      <c r="G111" t="str" xml:space="preserve">
+      <c r="E112" t="str">
+        <v>1-3年本科</v>
+      </c>
+      <c r="F112" t="str">
+        <v>1-3年本科</v>
+      </c>
+      <c r="G112" t="str" xml:space="preserve">
         <v xml:space="preserve">HTML5
                                                     技术文档
                                                     Android端
@@ -3365,26 +3393,26 @@
                                                     SDK</v>
       </c>
     </row>
-    <row r="112" xml:space="preserve">
-      <c r="A112" t="str">
-        <v>Android</v>
-      </c>
-      <c r="B112" t="str">
+    <row r="113" xml:space="preserve">
+      <c r="A113" t="str">
+        <v>Android</v>
+      </c>
+      <c r="B113" t="str">
         <v>6-7K</v>
       </c>
-      <c r="C112" t="str">
+      <c r="C113" t="str">
         <v>睿云趣</v>
       </c>
-      <c r="D112" t="str">
+      <c r="D113" t="str">
         <v>郑州·金水区·龙子湖校区</v>
       </c>
-      <c r="E112" t="str">
-        <v>1-3年本科</v>
-      </c>
-      <c r="F112" t="str">
-        <v>1-3年本科</v>
-      </c>
-      <c r="G112" t="str" xml:space="preserve">
+      <c r="E113" t="str">
+        <v>1-3年本科</v>
+      </c>
+      <c r="F113" t="str">
+        <v>1-3年本科</v>
+      </c>
+      <c r="G113" t="str" xml:space="preserve">
         <v xml:space="preserve">Android
                                                     android软件开发
                                                     常用设计模式
@@ -3392,53 +3420,107 @@
                                                     大学本科学历</v>
       </c>
     </row>
-    <row r="113" xml:space="preserve">
-      <c r="A113" t="str">
-        <v>Android工程师</v>
-      </c>
-      <c r="B113" t="str">
-        <v>8-12K</v>
-      </c>
-      <c r="C113" t="str">
-        <v>软通合力</v>
-      </c>
-      <c r="D113" t="str">
-        <v>郑州·金水区·省人民医院</v>
-      </c>
-      <c r="E113" t="str">
-        <v>1-3年本科</v>
-      </c>
-      <c r="F113" t="str">
-        <v>1-3年本科</v>
-      </c>
-      <c r="G113" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-                                                    java内存
-                                                    自定义view
-                                                    精通android
-                                                    第三方框架</v>
-      </c>
-    </row>
     <row r="114" xml:space="preserve">
       <c r="A114" t="str">
         <v>Android</v>
       </c>
       <c r="B114" t="str">
+        <v>4-9K·13薪</v>
+      </c>
+      <c r="C114" t="str">
+        <v>欣宜嘉</v>
+      </c>
+      <c r="D114" t="str">
+        <v>郑州·金水区·龙子湖校区</v>
+      </c>
+      <c r="E114" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="F114" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="G114" t="str" xml:space="preserve">
+        <v xml:space="preserve">Android
+                                                    Java
+                                                    android底层
+                                                    android平台开发
+                                                    性能调优</v>
+      </c>
+    </row>
+    <row r="115" xml:space="preserve">
+      <c r="A115" t="str">
+        <v>Android</v>
+      </c>
+      <c r="B115" t="str">
+        <v>5-10K·13薪</v>
+      </c>
+      <c r="C115" t="str">
+        <v>立信科技</v>
+      </c>
+      <c r="D115" t="str">
+        <v>郑州·金水区·郑东新区东建材</v>
+      </c>
+      <c r="E115" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="F115" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="G115" t="str" xml:space="preserve">
+        <v xml:space="preserve">Android
+                                                    Java
+                                                    移动开发
+                                                    设计实践
+                                                    高性能</v>
+      </c>
+    </row>
+    <row r="116" xml:space="preserve">
+      <c r="A116" t="str">
+        <v>Android</v>
+      </c>
+      <c r="B116" t="str">
+        <v>6-10K</v>
+      </c>
+      <c r="C116" t="str">
+        <v>买萌</v>
+      </c>
+      <c r="D116" t="str">
+        <v>郑州·中原区·五龙口</v>
+      </c>
+      <c r="E116" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="F116" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="G116" t="str" xml:space="preserve">
+        <v xml:space="preserve">Android
+                                                    精通android
+                                                    框架原理
+                                                    android平台开发
+                                                    android系统</v>
+      </c>
+    </row>
+    <row r="117" xml:space="preserve">
+      <c r="A117" t="str">
+        <v>Android</v>
+      </c>
+      <c r="B117" t="str">
         <v>10-15K</v>
       </c>
-      <c r="C114" t="str">
+      <c r="C117" t="str">
         <v>中原申威</v>
       </c>
-      <c r="D114" t="str">
+      <c r="D117" t="str">
         <v>郑州·管城回族区·郑州东站</v>
       </c>
-      <c r="E114" t="str">
-        <v>3-5年本科</v>
-      </c>
-      <c r="F114" t="str">
-        <v>3-5年本科</v>
-      </c>
-      <c r="G114" t="str" xml:space="preserve">
+      <c r="E117" t="str">
+        <v>3-5年本科</v>
+      </c>
+      <c r="F117" t="str">
+        <v>3-5年本科</v>
+      </c>
+      <c r="G117" t="str" xml:space="preserve">
         <v xml:space="preserve">Android
                                                     人脸识别
                                                     app开发
@@ -3446,112 +3528,31 @@
                                                     ui布局</v>
       </c>
     </row>
-    <row r="115" xml:space="preserve">
-      <c r="A115" t="str">
+    <row r="118" xml:space="preserve">
+      <c r="A118" t="str">
         <v>Android C/C++开发工程师</v>
       </c>
-      <c r="B115" t="str">
+      <c r="B118" t="str">
         <v>10-15K</v>
       </c>
-      <c r="C115" t="str">
+      <c r="C118" t="str">
         <v>天迈科技</v>
       </c>
-      <c r="D115" t="str">
+      <c r="D118" t="str">
         <v>郑州·中原区·高新区</v>
       </c>
-      <c r="E115" t="str">
-        <v>3-5年本科</v>
-      </c>
-      <c r="F115" t="str">
-        <v>3-5年本科</v>
-      </c>
-      <c r="G115" t="str" xml:space="preserve">
+      <c r="E118" t="str">
+        <v>3-5年本科</v>
+      </c>
+      <c r="F118" t="str">
+        <v>3-5年本科</v>
+      </c>
+      <c r="G118" t="str" xml:space="preserve">
         <v xml:space="preserve">Android
                                                     Framework层
                                                     HAL层
                                                     音视频编解码
                                                     Framework</v>
-      </c>
-    </row>
-    <row r="116" xml:space="preserve">
-      <c r="A116" t="str">
-        <v>Android</v>
-      </c>
-      <c r="B116" t="str">
-        <v>3-6K</v>
-      </c>
-      <c r="C116" t="str">
-        <v>南软科技</v>
-      </c>
-      <c r="D116" t="str">
-        <v>郑州·金水区·文化路</v>
-      </c>
-      <c r="E116" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="F116" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="G116" t="str" xml:space="preserve">
-        <v xml:space="preserve">NDK
-                                                    高可用
-                                                    android应用开发
-                                                    技术文档
-                                                    android相关</v>
-      </c>
-    </row>
-    <row r="117" xml:space="preserve">
-      <c r="A117" t="str">
-        <v>Android</v>
-      </c>
-      <c r="B117" t="str">
-        <v>5-10K·13薪</v>
-      </c>
-      <c r="C117" t="str">
-        <v>立信科技</v>
-      </c>
-      <c r="D117" t="str">
-        <v>郑州·金水区·郑东新区东建材</v>
-      </c>
-      <c r="E117" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="F117" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="G117" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-                                                    Java
-                                                    移动开发
-                                                    设计实践
-                                                    高性能</v>
-      </c>
-    </row>
-    <row r="118" xml:space="preserve">
-      <c r="A118" t="str">
-        <v>安卓前端研发工程师</v>
-      </c>
-      <c r="B118" t="str">
-        <v>6-10K</v>
-      </c>
-      <c r="C118" t="str">
-        <v>陀螺</v>
-      </c>
-      <c r="D118" t="str">
-        <v>郑州·管城回族区·郑州东站</v>
-      </c>
-      <c r="E118" t="str">
-        <v>3-5年学历不限</v>
-      </c>
-      <c r="F118" t="str">
-        <v>3-5年学历不限</v>
-      </c>
-      <c r="G118" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-                                                    RxJava
-                                                    Retrofit
-                                                    OKhttp
-                                                    android应用开发</v>
       </c>
     </row>
     <row r="119" xml:space="preserve">
@@ -3610,24 +3611,51 @@
     </row>
     <row r="121" xml:space="preserve">
       <c r="A121" t="str">
+        <v>Android</v>
+      </c>
+      <c r="B121" t="str">
+        <v>8-12K</v>
+      </c>
+      <c r="C121" t="str">
+        <v>Dynadot</v>
+      </c>
+      <c r="D121" t="str">
+        <v>郑州·二七区·长江中路沿线</v>
+      </c>
+      <c r="E121" t="str">
+        <v>1-3年本科</v>
+      </c>
+      <c r="F121" t="str">
+        <v>1-3年本科</v>
+      </c>
+      <c r="G121" t="str" xml:space="preserve">
+        <v xml:space="preserve">Android
+                                                    移动端
+                                                    Java
+                                                    手机软件
+                                                    应用研发</v>
+      </c>
+    </row>
+    <row r="122" xml:space="preserve">
+      <c r="A122" t="str">
         <v>安卓开发工程师</v>
       </c>
-      <c r="B121" t="str">
+      <c r="B122" t="str">
         <v>5-8K</v>
       </c>
-      <c r="C121" t="str">
+      <c r="C122" t="str">
         <v>云控物联网</v>
       </c>
-      <c r="D121" t="str">
+      <c r="D122" t="str">
         <v>郑州·中原区·高新区</v>
       </c>
-      <c r="E121" t="str">
-        <v>3-5年本科</v>
-      </c>
-      <c r="F121" t="str">
-        <v>3-5年本科</v>
-      </c>
-      <c r="G121" t="str" xml:space="preserve">
+      <c r="E122" t="str">
+        <v>3-5年本科</v>
+      </c>
+      <c r="F122" t="str">
+        <v>3-5年本科</v>
+      </c>
+      <c r="G122" t="str" xml:space="preserve">
         <v xml:space="preserve">Socket
                                                     系统软件设计
                                                     安卓开发工程师
@@ -3635,53 +3663,53 @@
                                                     Android</v>
       </c>
     </row>
-    <row r="122" xml:space="preserve">
-      <c r="A122" t="str">
-        <v>高薪安卓开发工程师</v>
-      </c>
-      <c r="B122" t="str">
-        <v>4-9K</v>
-      </c>
-      <c r="C122" t="str">
-        <v>懂体验</v>
-      </c>
-      <c r="D122" t="str">
-        <v>郑州·二七区·长途客运总站</v>
-      </c>
-      <c r="E122" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="F122" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="G122" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-                                                    移动端
-                                                    架构师
-                                                    计算机软件
-                                                    android框架</v>
-      </c>
-    </row>
     <row r="123" xml:space="preserve">
       <c r="A123" t="str">
+        <v>安卓前端研发工程师</v>
+      </c>
+      <c r="B123" t="str">
+        <v>6-10K</v>
+      </c>
+      <c r="C123" t="str">
+        <v>陀螺</v>
+      </c>
+      <c r="D123" t="str">
+        <v>郑州·管城回族区·郑州东站</v>
+      </c>
+      <c r="E123" t="str">
+        <v>3-5年学历不限</v>
+      </c>
+      <c r="F123" t="str">
+        <v>3-5年学历不限</v>
+      </c>
+      <c r="G123" t="str" xml:space="preserve">
+        <v xml:space="preserve">Android
+                                                    RxJava
+                                                    Retrofit
+                                                    OKhttp
+                                                    android应用开发</v>
+      </c>
+    </row>
+    <row r="124" xml:space="preserve">
+      <c r="A124" t="str">
         <v>安卓开发工程师</v>
       </c>
-      <c r="B123" t="str">
+      <c r="B124" t="str">
         <v>5-10K</v>
       </c>
-      <c r="C123" t="str">
+      <c r="C124" t="str">
         <v>报国梦电子商务</v>
       </c>
-      <c r="D123" t="str">
+      <c r="D124" t="str">
         <v>郑州·管城回族区·新世界百货</v>
       </c>
-      <c r="E123" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="F123" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="G123" t="str" xml:space="preserve">
+      <c r="E124" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="F124" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="G124" t="str" xml:space="preserve">
         <v xml:space="preserve">NDK
                                                     安卓开发工程师
                                                     Android程序
@@ -3689,26 +3717,323 @@
                                                     Framework</v>
       </c>
     </row>
-    <row r="124" xml:space="preserve">
-      <c r="A124" t="str">
+    <row r="125" xml:space="preserve">
+      <c r="A125" t="str">
+        <v>Android</v>
+      </c>
+      <c r="B125" t="str">
+        <v>6-7K</v>
+      </c>
+      <c r="C125" t="str">
+        <v>车服科技</v>
+      </c>
+      <c r="D125" t="str">
+        <v>郑州·中原区·高新区</v>
+      </c>
+      <c r="E125" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="F125" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="G125" t="str" xml:space="preserve">
+        <v xml:space="preserve">android开发
+                                                    Framework
+                                                    SDK
+                                                    Android
+                                                    理解需求</v>
+      </c>
+    </row>
+    <row r="126" xml:space="preserve">
+      <c r="A126" t="str">
+        <v>安卓工程师</v>
+      </c>
+      <c r="B126" t="str">
+        <v>9-14K</v>
+      </c>
+      <c r="C126" t="str">
+        <v>七七网络科技</v>
+      </c>
+      <c r="D126" t="str">
+        <v>郑州·金水区·枣庄</v>
+      </c>
+      <c r="E126" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="F126" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="G126" t="str" xml:space="preserve">
+        <v xml:space="preserve">NDK
+                                                    安卓ui
+                                                    android项目
+                                                    安卓开发工程师
+                                                    手机开发</v>
+      </c>
+    </row>
+    <row r="127" xml:space="preserve">
+      <c r="A127" t="str">
+        <v>Android实习生</v>
+      </c>
+      <c r="B127" t="str">
+        <v>200-210元/天</v>
+      </c>
+      <c r="C127" t="str">
+        <v>郑州卓见软件科技</v>
+      </c>
+      <c r="D127" t="str">
+        <v>郑州·金水区·省人民医院</v>
+      </c>
+      <c r="E127" t="str">
+        <v>5天/周6个月本科</v>
+      </c>
+      <c r="F127" t="str">
+        <v>5天/周6个月本科</v>
+      </c>
+      <c r="G127" t="str" xml:space="preserve">
+        <v xml:space="preserve">Kotlin
+                                                    android开发
+                                                    Android
+                                                    实习生
+                                                    应届实习生</v>
+      </c>
+    </row>
+    <row r="128" xml:space="preserve">
+      <c r="A128" t="str">
+        <v>安卓Xposed开发工程师</v>
+      </c>
+      <c r="B128" t="str">
+        <v>7-12K·13薪</v>
+      </c>
+      <c r="C128" t="str">
+        <v>喜付网络</v>
+      </c>
+      <c r="D128" t="str">
+        <v>郑州·二七区·兴华南街</v>
+      </c>
+      <c r="E128" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="F128" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="G128" t="str" xml:space="preserve">
+        <v xml:space="preserve">Android
+                                                    抓包
+                                                    xposed框架
+                                                    android开发工具
+                                                    安卓APP开发</v>
+      </c>
+    </row>
+    <row r="129" xml:space="preserve">
+      <c r="A129" t="str">
+        <v>Android（IOS）程序员</v>
+      </c>
+      <c r="B129" t="str">
+        <v>4-9K</v>
+      </c>
+      <c r="C129" t="str">
+        <v>爱怡家</v>
+      </c>
+      <c r="D129" t="str">
+        <v>郑州·金水区·经五路</v>
+      </c>
+      <c r="E129" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="F129" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="G129" t="str" xml:space="preserve">
+        <v xml:space="preserve">反编译apk
+                                                    android系统
+                                                    SDK
+                                                    Android
+                                                    IOS</v>
+      </c>
+    </row>
+    <row r="130" xml:space="preserve">
+      <c r="A130" t="str">
+        <v>安卓</v>
+      </c>
+      <c r="B130" t="str">
+        <v>8-10K</v>
+      </c>
+      <c r="C130" t="str">
+        <v>河南没问题</v>
+      </c>
+      <c r="D130" t="str">
+        <v>郑州·管城回族区·福都生活广场</v>
+      </c>
+      <c r="E130" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="F130" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="G130" t="str" xml:space="preserve">
+        <v xml:space="preserve">Android
+                                                    移动端
+                                                    JNI
+                                                    NDK
+                                                    抓包</v>
+      </c>
+    </row>
+    <row r="131" xml:space="preserve">
+      <c r="A131" t="str">
+        <v>安卓工程师</v>
+      </c>
+      <c r="B131" t="str">
+        <v>5-8K</v>
+      </c>
+      <c r="C131" t="str">
+        <v>格乐电子</v>
+      </c>
+      <c r="D131" t="str">
+        <v>郑州·中原区·高新区</v>
+      </c>
+      <c r="E131" t="str">
+        <v>1-3年学历不限</v>
+      </c>
+      <c r="F131" t="str">
+        <v>1-3年学历不限</v>
+      </c>
+      <c r="G131" t="str" xml:space="preserve">
+        <v xml:space="preserve">Android
+                                                    常用布局
+                                                    服务端
+                                                    图片压缩
+                                                    android应用开发</v>
+      </c>
+    </row>
+    <row r="132" xml:space="preserve">
+      <c r="A132" t="str">
         <v>安卓开发工程师</v>
       </c>
-      <c r="B124" t="str">
+      <c r="B132" t="str">
+        <v>6-8K</v>
+      </c>
+      <c r="C132" t="str">
+        <v>河南安信科技</v>
+      </c>
+      <c r="D132" t="str">
+        <v>郑州·管城回族区·二里岗</v>
+      </c>
+      <c r="E132" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="F132" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="G132" t="str" xml:space="preserve">
+        <v xml:space="preserve">蓝牙开发
+                                                    安卓开发工程师
+                                                    逻辑思维能力
+                                                    项目开发
+                                                    功能开发</v>
+      </c>
+    </row>
+    <row r="133" xml:space="preserve">
+      <c r="A133" t="str">
+        <v>安卓开发工程师</v>
+      </c>
+      <c r="B133" t="str">
+        <v>6-9K</v>
+      </c>
+      <c r="C133" t="str">
+        <v>欣联科技</v>
+      </c>
+      <c r="D133" t="str">
+        <v>郑州·金水区·郑州东站</v>
+      </c>
+      <c r="E133" t="str">
+        <v>1年以内学历不限</v>
+      </c>
+      <c r="F133" t="str">
+        <v>1年以内学历不限</v>
+      </c>
+      <c r="G133" t="str" xml:space="preserve">
+        <v xml:space="preserve">手机应用产品
+                                                    SDK开发
+                                                    android平台开发
+                                                    安卓开发工程师
+                                                    SDK</v>
+      </c>
+    </row>
+    <row r="134" xml:space="preserve">
+      <c r="A134" t="str">
+        <v>Android</v>
+      </c>
+      <c r="B134" t="str">
+        <v>10-15K</v>
+      </c>
+      <c r="C134" t="str">
+        <v>咱的店</v>
+      </c>
+      <c r="D134" t="str">
+        <v>郑州·金水区·北环</v>
+      </c>
+      <c r="E134" t="str">
+        <v>经验不限大专</v>
+      </c>
+      <c r="F134" t="str">
+        <v>经验不限大专</v>
+      </c>
+      <c r="G134" t="str" xml:space="preserve">
+        <v xml:space="preserve">Android
+                                                    移动端
+                                                    小程序
+                                                    IOS
+                                                    Java</v>
+      </c>
+    </row>
+    <row r="135" xml:space="preserve">
+      <c r="A135" t="str">
+        <v>高薪安卓开发工程师</v>
+      </c>
+      <c r="B135" t="str">
+        <v>4-9K</v>
+      </c>
+      <c r="C135" t="str">
+        <v>懂体验</v>
+      </c>
+      <c r="D135" t="str">
+        <v>郑州·二七区·长途客运总站</v>
+      </c>
+      <c r="E135" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="F135" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="G135" t="str" xml:space="preserve">
+        <v xml:space="preserve">Android
+                                                    移动端
+                                                    架构师
+                                                    计算机软件
+                                                    android框架</v>
+      </c>
+    </row>
+    <row r="136" xml:space="preserve">
+      <c r="A136" t="str">
+        <v>安卓开发工程师</v>
+      </c>
+      <c r="B136" t="str">
         <v>5-9K</v>
       </c>
-      <c r="C124" t="str">
+      <c r="C136" t="str">
         <v>中冠网科</v>
       </c>
-      <c r="D124" t="str">
+      <c r="D136" t="str">
         <v>郑州·金水区·科技市场</v>
       </c>
-      <c r="E124" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="F124" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="G124" t="str" xml:space="preserve">
+      <c r="E136" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="F136" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="G136" t="str" xml:space="preserve">
         <v xml:space="preserve">Java
                                                     Android
                                                     移动端
@@ -3716,188 +4041,53 @@
                                                     计算机软件</v>
       </c>
     </row>
-    <row r="125" xml:space="preserve">
-      <c r="A125" t="str">
-        <v>Android</v>
-      </c>
-      <c r="B125" t="str">
-        <v>3-5K</v>
-      </c>
-      <c r="C125" t="str">
-        <v>佳新奇</v>
-      </c>
-      <c r="D125" t="str">
-        <v>郑州·登封市·嵩阳</v>
-      </c>
-      <c r="E125" t="str">
-        <v>经验不限中专/中技</v>
-      </c>
-      <c r="F125" t="str">
-        <v>经验不限中专/中技</v>
-      </c>
-      <c r="G125" t="str" xml:space="preserve">
-        <v xml:space="preserve">移动端
-                                                    Android
-                                                    工作功能
-                                                    猪八戒
-                                                    APP</v>
-      </c>
-    </row>
-    <row r="126" xml:space="preserve">
-      <c r="A126" t="str">
-        <v>Android</v>
-      </c>
-      <c r="B126" t="str">
-        <v>6-7K</v>
-      </c>
-      <c r="C126" t="str">
-        <v>车服科技</v>
-      </c>
-      <c r="D126" t="str">
-        <v>郑州·中原区·高新区</v>
-      </c>
-      <c r="E126" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="F126" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="G126" t="str" xml:space="preserve">
-        <v xml:space="preserve">android开发
-                                                    Framework
-                                                    SDK
-                                                    Android
-                                                    理解需求</v>
-      </c>
-    </row>
-    <row r="127" xml:space="preserve">
-      <c r="A127" t="str">
-        <v>安卓工程师</v>
-      </c>
-      <c r="B127" t="str">
-        <v>9-14K</v>
-      </c>
-      <c r="C127" t="str">
-        <v>七七网络科技</v>
-      </c>
-      <c r="D127" t="str">
-        <v>郑州·金水区·枣庄</v>
-      </c>
-      <c r="E127" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="F127" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="G127" t="str" xml:space="preserve">
-        <v xml:space="preserve">NDK
-                                                    安卓ui
+    <row r="137" xml:space="preserve">
+      <c r="A137" t="str">
+        <v>安卓开发工程师</v>
+      </c>
+      <c r="B137" t="str">
+        <v>8-13K</v>
+      </c>
+      <c r="C137" t="str">
+        <v>天纵科技</v>
+      </c>
+      <c r="D137" t="str">
+        <v>郑州·中原区·石佛</v>
+      </c>
+      <c r="E137" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="F137" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="G137" t="str" xml:space="preserve">
+        <v xml:space="preserve">常用布局
                                                     android项目
-                                                    安卓开发工程师
-                                                    手机开发</v>
-      </c>
-    </row>
-    <row r="128" xml:space="preserve">
-      <c r="A128" t="str">
-        <v>Android实习生</v>
-      </c>
-      <c r="B128" t="str">
-        <v>200-210元/天</v>
-      </c>
-      <c r="C128" t="str">
-        <v>郑州卓见软件科技</v>
-      </c>
-      <c r="D128" t="str">
-        <v>郑州·金水区·省人民医院</v>
-      </c>
-      <c r="E128" t="str">
-        <v>5天/周6个月本科</v>
-      </c>
-      <c r="F128" t="str">
-        <v>5天/周6个月本科</v>
-      </c>
-      <c r="G128" t="str" xml:space="preserve">
-        <v xml:space="preserve">Kotlin
-                                                    android开发
-                                                    Android
-                                                    实习生
-                                                    应届实习生</v>
-      </c>
-    </row>
-    <row r="129" xml:space="preserve">
-      <c r="A129" t="str">
-        <v>Android</v>
-      </c>
-      <c r="B129" t="str">
-        <v>7-9K</v>
-      </c>
-      <c r="C129" t="str">
-        <v>卓瑞姆</v>
-      </c>
-      <c r="D129" t="str">
-        <v>郑州·金水区·CBD</v>
-      </c>
-      <c r="E129" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="F129" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="G129" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-                                                    android底层
-                                                    性能调优
-                                                    应用框架
-                                                    android开发经验</v>
-      </c>
-    </row>
-    <row r="130" xml:space="preserve">
-      <c r="A130" t="str">
-        <v>安卓Xposed开发工程师</v>
-      </c>
-      <c r="B130" t="str">
-        <v>7-12K·13薪</v>
-      </c>
-      <c r="C130" t="str">
-        <v>喜付网络</v>
-      </c>
-      <c r="D130" t="str">
-        <v>郑州·二七区·兴华南街</v>
-      </c>
-      <c r="E130" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="F130" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="G130" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-                                                    抓包
-                                                    xposed框架
-                                                    android开发工具
-                                                    安卓APP开发</v>
-      </c>
-    </row>
-    <row r="131" xml:space="preserve">
-      <c r="A131" t="str">
+                                                    精通android
+                                                    通信机制
+                                                    框架原理</v>
+      </c>
+    </row>
+    <row r="138" xml:space="preserve">
+      <c r="A138" t="str">
         <v>安卓开发工程师</v>
       </c>
-      <c r="B131" t="str">
+      <c r="B138" t="str">
         <v>8-13K</v>
       </c>
-      <c r="C131" t="str">
+      <c r="C138" t="str">
         <v>中冠网科</v>
       </c>
-      <c r="D131" t="str">
+      <c r="D138" t="str">
         <v>郑州·管城回族区·郑州东站</v>
       </c>
-      <c r="E131" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="F131" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="G131" t="str" xml:space="preserve">
+      <c r="E138" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="F138" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="G138" t="str" xml:space="preserve">
         <v xml:space="preserve">Android
                                                     JNI
                                                     xposed框架
@@ -3905,195 +4095,6 @@
                                                     框架原理</v>
       </c>
     </row>
-    <row r="132" xml:space="preserve">
-      <c r="A132" t="str">
-        <v>Android</v>
-      </c>
-      <c r="B132" t="str">
-        <v>10-15K</v>
-      </c>
-      <c r="C132" t="str">
-        <v>咱的店</v>
-      </c>
-      <c r="D132" t="str">
-        <v>郑州·金水区·北环</v>
-      </c>
-      <c r="E132" t="str">
-        <v>经验不限大专</v>
-      </c>
-      <c r="F132" t="str">
-        <v>经验不限大专</v>
-      </c>
-      <c r="G132" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-                                                    移动端
-                                                    小程序
-                                                    IOS
-                                                    Java</v>
-      </c>
-    </row>
-    <row r="133" xml:space="preserve">
-      <c r="A133" t="str">
-        <v>Android（IOS）程序员</v>
-      </c>
-      <c r="B133" t="str">
-        <v>4-9K</v>
-      </c>
-      <c r="C133" t="str">
-        <v>爱怡家</v>
-      </c>
-      <c r="D133" t="str">
-        <v>郑州·金水区·经五路</v>
-      </c>
-      <c r="E133" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="F133" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="G133" t="str" xml:space="preserve">
-        <v xml:space="preserve">反编译apk
-                                                    android系统
-                                                    SDK
-                                                    Android
-                                                    IOS</v>
-      </c>
-    </row>
-    <row r="134" xml:space="preserve">
-      <c r="A134" t="str">
-        <v>安卓</v>
-      </c>
-      <c r="B134" t="str">
-        <v>8-10K</v>
-      </c>
-      <c r="C134" t="str">
-        <v>河南没问题</v>
-      </c>
-      <c r="D134" t="str">
-        <v>郑州·管城回族区·福都生活广场</v>
-      </c>
-      <c r="E134" t="str">
-        <v>3-5年大专</v>
-      </c>
-      <c r="F134" t="str">
-        <v>3-5年大专</v>
-      </c>
-      <c r="G134" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-                                                    移动端
-                                                    JNI
-                                                    NDK
-                                                    抓包</v>
-      </c>
-    </row>
-    <row r="135" xml:space="preserve">
-      <c r="A135" t="str">
-        <v>安卓开发工程师</v>
-      </c>
-      <c r="B135" t="str">
-        <v>6-8K</v>
-      </c>
-      <c r="C135" t="str">
-        <v>河南安信科技</v>
-      </c>
-      <c r="D135" t="str">
-        <v>郑州·管城回族区·二里岗</v>
-      </c>
-      <c r="E135" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="F135" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="G135" t="str" xml:space="preserve">
-        <v xml:space="preserve">蓝牙开发
-                                                    安卓开发工程师
-                                                    逻辑思维能力
-                                                    项目开发
-                                                    功能开发</v>
-      </c>
-    </row>
-    <row r="136" xml:space="preserve">
-      <c r="A136" t="str">
-        <v>安卓工程师</v>
-      </c>
-      <c r="B136" t="str">
-        <v>5-8K</v>
-      </c>
-      <c r="C136" t="str">
-        <v>格乐电子</v>
-      </c>
-      <c r="D136" t="str">
-        <v>郑州·中原区·高新区</v>
-      </c>
-      <c r="E136" t="str">
-        <v>1-3年学历不限</v>
-      </c>
-      <c r="F136" t="str">
-        <v>1-3年学历不限</v>
-      </c>
-      <c r="G136" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-                                                    常用布局
-                                                    服务端
-                                                    图片压缩
-                                                    android应用开发</v>
-      </c>
-    </row>
-    <row r="137" xml:space="preserve">
-      <c r="A137" t="str">
-        <v>安卓开发工程师</v>
-      </c>
-      <c r="B137" t="str">
-        <v>6-9K</v>
-      </c>
-      <c r="C137" t="str">
-        <v>欣联科技</v>
-      </c>
-      <c r="D137" t="str">
-        <v>郑州·金水区·郑州东站</v>
-      </c>
-      <c r="E137" t="str">
-        <v>1年以内学历不限</v>
-      </c>
-      <c r="F137" t="str">
-        <v>1年以内学历不限</v>
-      </c>
-      <c r="G137" t="str" xml:space="preserve">
-        <v xml:space="preserve">手机应用产品
-                                                    SDK开发
-                                                    android平台开发
-                                                    安卓开发工程师
-                                                    SDK</v>
-      </c>
-    </row>
-    <row r="138" xml:space="preserve">
-      <c r="A138" t="str">
-        <v>安卓工程师（高级）</v>
-      </c>
-      <c r="B138" t="str">
-        <v>12-16K</v>
-      </c>
-      <c r="C138" t="str">
-        <v>乐之富科技公司</v>
-      </c>
-      <c r="D138" t="str">
-        <v>郑州·金水区·熙地港</v>
-      </c>
-      <c r="E138" t="str">
-        <v>3-5年大专</v>
-      </c>
-      <c r="F138" t="str">
-        <v>3-5年大专</v>
-      </c>
-      <c r="G138" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-                                                    移动端
-                                                    设计实践
-                                                    Framework层
-                                                    HTML5</v>
-      </c>
-    </row>
     <row r="139" xml:space="preserve">
       <c r="A139" t="str">
         <v>安卓android开发工程师</v>
@@ -4123,24 +4124,78 @@
     </row>
     <row r="140" xml:space="preserve">
       <c r="A140" t="str">
+        <v>安卓开发</v>
+      </c>
+      <c r="B140" t="str">
+        <v>7-10K</v>
+      </c>
+      <c r="C140" t="str">
+        <v>郑州点都公司</v>
+      </c>
+      <c r="D140" t="str">
+        <v>郑州·金水区·祭城</v>
+      </c>
+      <c r="E140" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="F140" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="G140" t="str" xml:space="preserve">
+        <v xml:space="preserve">Android
+                                                    网络协议
+                                                    计算机软件
+                                                    android应用开发
+                                                    技术文档</v>
+      </c>
+    </row>
+    <row r="141" xml:space="preserve">
+      <c r="A141" t="str">
+        <v>Android工程师</v>
+      </c>
+      <c r="B141" t="str">
+        <v>4-9K</v>
+      </c>
+      <c r="C141" t="str">
+        <v>开元创启</v>
+      </c>
+      <c r="D141" t="str">
+        <v>郑州·中原区·碧沙岗</v>
+      </c>
+      <c r="E141" t="str">
+        <v>1-3年学历不限</v>
+      </c>
+      <c r="F141" t="str">
+        <v>1-3年学历不限</v>
+      </c>
+      <c r="G141" t="str" xml:space="preserve">
+        <v xml:space="preserve">Android
+                                                    移动端
+                                                    架构师
+                                                    计算机软件
+                                                    android开发工程师</v>
+      </c>
+    </row>
+    <row r="142" xml:space="preserve">
+      <c r="A142" t="str">
         <v>安卓逆向开发</v>
       </c>
-      <c r="B140" t="str">
+      <c r="B142" t="str">
         <v>12-18K</v>
       </c>
-      <c r="C140" t="str">
+      <c r="C142" t="str">
         <v>牧客科技</v>
       </c>
-      <c r="D140" t="str">
+      <c r="D142" t="str">
         <v>郑州·中原区·高新区</v>
       </c>
-      <c r="E140" t="str">
-        <v>3-5年大专</v>
-      </c>
-      <c r="F140" t="str">
-        <v>3-5年大专</v>
-      </c>
-      <c r="G140" t="str" xml:space="preserve">
+      <c r="E142" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="F142" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="G142" t="str" xml:space="preserve">
         <v xml:space="preserve">Android
                                                     移动端
                                                     xposed框架
@@ -4148,85 +4203,31 @@
                                                     android逆向</v>
       </c>
     </row>
-    <row r="141" xml:space="preserve">
-      <c r="A141" t="str">
-        <v>安卓开发</v>
-      </c>
-      <c r="B141" t="str">
-        <v>7-10K</v>
-      </c>
-      <c r="C141" t="str">
-        <v>郑州点都公司</v>
-      </c>
-      <c r="D141" t="str">
-        <v>郑州·金水区·祭城</v>
-      </c>
-      <c r="E141" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="F141" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="G141" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-                                                    网络协议
-                                                    计算机软件
-                                                    android应用开发
-                                                    技术文档</v>
-      </c>
-    </row>
-    <row r="142" xml:space="preserve">
-      <c r="A142" t="str">
+    <row r="143" xml:space="preserve">
+      <c r="A143" t="str">
         <v>安卓</v>
       </c>
-      <c r="B142" t="str">
+      <c r="B143" t="str">
         <v>6-8K</v>
       </c>
-      <c r="C142" t="str">
+      <c r="C143" t="str">
         <v>万企</v>
       </c>
-      <c r="D142" t="str">
+      <c r="D143" t="str">
         <v>郑州·中原区·五龙口</v>
       </c>
-      <c r="E142" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="F142" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="G142" t="str" xml:space="preserve">
+      <c r="E143" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="F143" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="G143" t="str" xml:space="preserve">
         <v xml:space="preserve">Android
                                                     移动端
                                                     小程序
                                                     im通讯
                                                     安卓</v>
-      </c>
-    </row>
-    <row r="143" xml:space="preserve">
-      <c r="A143" t="str">
-        <v>Android工程师</v>
-      </c>
-      <c r="B143" t="str">
-        <v>4-9K</v>
-      </c>
-      <c r="C143" t="str">
-        <v>开元创启</v>
-      </c>
-      <c r="D143" t="str">
-        <v>郑州·中原区·碧沙岗</v>
-      </c>
-      <c r="E143" t="str">
-        <v>1-3年学历不限</v>
-      </c>
-      <c r="F143" t="str">
-        <v>1-3年学历不限</v>
-      </c>
-      <c r="G143" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-                                                    移动端
-                                                    架构师
-                                                    计算机软件
-                                                    android开发工程师</v>
       </c>
     </row>
     <row r="144" xml:space="preserve">
@@ -4342,75 +4343,21 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B148" t="str">
-        <v>8-13K</v>
+        <v>6-11K</v>
       </c>
       <c r="C148" t="str">
-        <v>天纵科技</v>
+        <v>德一集团</v>
       </c>
       <c r="D148" t="str">
-        <v>郑州·中原区·石佛</v>
+        <v>郑州·金水区·熙地港</v>
       </c>
       <c r="E148" t="str">
-        <v>3-5年大专</v>
+        <v>1-3年本科</v>
       </c>
       <c r="F148" t="str">
-        <v>3-5年大专</v>
+        <v>1-3年本科</v>
       </c>
       <c r="G148" t="str" xml:space="preserve">
-        <v xml:space="preserve">常用布局
-                                                    android项目
-                                                    精通android
-                                                    通信机制
-                                                    框架原理</v>
-      </c>
-    </row>
-    <row r="149" xml:space="preserve">
-      <c r="A149" t="str">
-        <v>Android</v>
-      </c>
-      <c r="B149" t="str">
-        <v>6-11K</v>
-      </c>
-      <c r="C149" t="str">
-        <v>杭州云榭科技有限...</v>
-      </c>
-      <c r="D149" t="str">
-        <v>郑州·管城回族区·五洲公园</v>
-      </c>
-      <c r="E149" t="str">
-        <v>1年以内本科</v>
-      </c>
-      <c r="F149" t="str">
-        <v>1年以内本科</v>
-      </c>
-      <c r="G149" t="str" xml:space="preserve">
-        <v xml:space="preserve">SDK
-                                                    Socket
-                                                    Android
-                                                    咨询行业
-                                                    网络科技</v>
-      </c>
-    </row>
-    <row r="150" xml:space="preserve">
-      <c r="A150" t="str">
-        <v>安卓开发工程师</v>
-      </c>
-      <c r="B150" t="str">
-        <v>6-11K</v>
-      </c>
-      <c r="C150" t="str">
-        <v>德一集团</v>
-      </c>
-      <c r="D150" t="str">
-        <v>郑州·金水区·熙地港</v>
-      </c>
-      <c r="E150" t="str">
-        <v>1-3年本科</v>
-      </c>
-      <c r="F150" t="str">
-        <v>1-3年本科</v>
-      </c>
-      <c r="G150" t="str" xml:space="preserve">
         <v xml:space="preserve">Android
                                                     SQL
                                                     Java
@@ -4418,31 +4365,85 @@
                                                     activity生命周期</v>
       </c>
     </row>
-    <row r="151" xml:space="preserve">
-      <c r="A151" t="str">
+    <row r="149" xml:space="preserve">
+      <c r="A149" t="str">
+        <v>Android实习生</v>
+      </c>
+      <c r="B149" t="str">
+        <v>150-200元/天</v>
+      </c>
+      <c r="C149" t="str">
+        <v>华韩软件</v>
+      </c>
+      <c r="D149" t="str">
+        <v>郑州·管城回族区·北下街</v>
+      </c>
+      <c r="E149" t="str">
+        <v>6天/周3个月本科</v>
+      </c>
+      <c r="F149" t="str">
+        <v>6天/周3个月本科</v>
+      </c>
+      <c r="G149" t="str" xml:space="preserve">
+        <v xml:space="preserve">JNI
+                                                    NDK
+                                                    精通android
+                                                    android底层
+                                                    设计原理</v>
+      </c>
+    </row>
+    <row r="150" xml:space="preserve">
+      <c r="A150" t="str">
         <v>安卓开发</v>
       </c>
-      <c r="B151" t="str">
+      <c r="B150" t="str">
         <v>6-10K</v>
       </c>
-      <c r="C151" t="str">
+      <c r="C150" t="str">
         <v>医美圈</v>
       </c>
-      <c r="D151" t="str">
+      <c r="D150" t="str">
         <v>郑州·管城回族区·郑州东站</v>
       </c>
-      <c r="E151" t="str">
-        <v>3-5年大专</v>
-      </c>
-      <c r="F151" t="str">
-        <v>3-5年大专</v>
-      </c>
-      <c r="G151" t="str" xml:space="preserve">
+      <c r="E150" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="F150" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="G150" t="str" xml:space="preserve">
         <v xml:space="preserve">Kotlin
                                                     屏幕适配
                                                     精通android
                                                     通信机制
                                                     Socket通信</v>
+      </c>
+    </row>
+    <row r="151" xml:space="preserve">
+      <c r="A151" t="str">
+        <v>安卓开发工程师</v>
+      </c>
+      <c r="B151" t="str">
+        <v>7-12K</v>
+      </c>
+      <c r="C151" t="str">
+        <v>光合</v>
+      </c>
+      <c r="D151" t="str">
+        <v>郑州·中原区·高新区</v>
+      </c>
+      <c r="E151" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="F151" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="G151" t="str" xml:space="preserve">
+        <v xml:space="preserve">Android
+                                                    android框架
+                                                    安卓ui
+                                                    android项目
+                                                    安卓开发工程师</v>
       </c>
     </row>
     <row r="152" xml:space="preserve">
@@ -4474,24 +4475,321 @@
     </row>
     <row r="153" xml:space="preserve">
       <c r="A153" t="str">
+        <v>中级Android研发工程师（中级）</v>
+      </c>
+      <c r="B153" t="str">
+        <v>8-10K</v>
+      </c>
+      <c r="C153" t="str">
+        <v>国源科技</v>
+      </c>
+      <c r="D153" t="str">
+        <v>郑州·金水区·祭城</v>
+      </c>
+      <c r="E153" t="str">
+        <v>3-5年本科</v>
+      </c>
+      <c r="F153" t="str">
+        <v>3-5年本科</v>
+      </c>
+      <c r="G153" t="str" xml:space="preserve">
+        <v xml:space="preserve">编程技术
+                                                    精通android
+                                                    框架原理
+                                                    android研发
+                                                    平台移动</v>
+      </c>
+    </row>
+    <row r="154" xml:space="preserve">
+      <c r="A154" t="str">
+        <v>Android</v>
+      </c>
+      <c r="B154" t="str">
+        <v>6-11K</v>
+      </c>
+      <c r="C154" t="str">
+        <v>杭州云榭科技有限...</v>
+      </c>
+      <c r="D154" t="str">
+        <v>郑州·管城回族区·五洲公园</v>
+      </c>
+      <c r="E154" t="str">
+        <v>1年以内本科</v>
+      </c>
+      <c r="F154" t="str">
+        <v>1年以内本科</v>
+      </c>
+      <c r="G154" t="str" xml:space="preserve">
+        <v xml:space="preserve">SDK
+                                                    Socket
+                                                    Android
+                                                    咨询行业
+                                                    网络科技</v>
+      </c>
+    </row>
+    <row r="155" xml:space="preserve">
+      <c r="A155" t="str">
+        <v>阿里巴巴天猫海外技术部高级Android工程师</v>
+      </c>
+      <c r="B155" t="str">
+        <v>20-40K·16薪</v>
+      </c>
+      <c r="C155" t="str">
+        <v>阿里巴巴集团</v>
+      </c>
+      <c r="D155" t="str">
+        <v>郑州·中原区·新郑大</v>
+      </c>
+      <c r="E155" t="str">
+        <v>3-5年本科</v>
+      </c>
+      <c r="F155" t="str">
+        <v>3-5年本科</v>
+      </c>
+      <c r="G155" t="str" xml:space="preserve">
+        <v xml:space="preserve">Kotlin
+                                                    Java
+                                                    Android
+                                                    移动端
+                                                    Framework层</v>
+      </c>
+    </row>
+    <row r="156" xml:space="preserve">
+      <c r="A156" t="str">
+        <v>Android</v>
+      </c>
+      <c r="B156" t="str">
+        <v>5-10K</v>
+      </c>
+      <c r="C156" t="str">
+        <v>易豪电子商务</v>
+      </c>
+      <c r="D156" t="str">
+        <v>郑州·金水区·东建材</v>
+      </c>
+      <c r="E156" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="F156" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="G156" t="str" xml:space="preserve">
+        <v xml:space="preserve">代码结构
+                                                    Retrofit
+                                                    NDK
+                                                    第三方开源库
+                                                    android系统架构</v>
+      </c>
+    </row>
+    <row r="157" xml:space="preserve">
+      <c r="A157" t="str">
+        <v>Android/Linux驱动工程师（实习）</v>
+      </c>
+      <c r="B157" t="str">
+        <v>3-7K·13薪</v>
+      </c>
+      <c r="C157" t="str">
+        <v>释码云识别技术研究院</v>
+      </c>
+      <c r="D157" t="str">
+        <v>郑州·金水区·龙子湖校区</v>
+      </c>
+      <c r="E157" t="str">
+        <v>1-3年本科</v>
+      </c>
+      <c r="F157" t="str">
+        <v>1-3年本科</v>
+      </c>
+      <c r="G157" t="str" xml:space="preserve">
+        <v xml:space="preserve">ARM开发
+                                                    Android
+                                                    Linux
+                                                    linux内核驱动
+                                                    linux驱动</v>
+      </c>
+    </row>
+    <row r="158" xml:space="preserve">
+      <c r="A158" t="str">
+        <v>Android</v>
+      </c>
+      <c r="B158" t="str">
+        <v>5-8K</v>
+      </c>
+      <c r="C158" t="str">
+        <v>名门电子商务</v>
+      </c>
+      <c r="D158" t="str">
+        <v>郑州·管城回族区</v>
+      </c>
+      <c r="E158" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="F158" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="G158" t="str" xml:space="preserve">
+        <v xml:space="preserve">React Native
+                                                    Socket
+                                                    Android
+                                                    app应用程序
+                                                    UI</v>
+      </c>
+    </row>
+    <row r="159" xml:space="preserve">
+      <c r="A159" t="str">
+        <v>Android工程师</v>
+      </c>
+      <c r="B159" t="str">
+        <v>6-10K</v>
+      </c>
+      <c r="C159" t="str">
+        <v>火爆网</v>
+      </c>
+      <c r="D159" t="str">
+        <v>郑州·中原区·西环路</v>
+      </c>
+      <c r="E159" t="str">
+        <v>1-3年本科</v>
+      </c>
+      <c r="F159" t="str">
+        <v>1-3年本科</v>
+      </c>
+      <c r="G159" t="str" xml:space="preserve">
+        <v xml:space="preserve">Android SDK
+                                                    android开发工程师
+                                                    分享技术
+                                                    常用设计模式
+                                                    编码风格</v>
+      </c>
+    </row>
+    <row r="160" xml:space="preserve">
+      <c r="A160" t="str">
+        <v>安卓开发工程师</v>
+      </c>
+      <c r="B160" t="str">
+        <v>5-6K</v>
+      </c>
+      <c r="C160" t="str">
+        <v>因特嘉</v>
+      </c>
+      <c r="D160" t="str">
+        <v>郑州·金水区·龙子湖</v>
+      </c>
+      <c r="E160" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="F160" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="G160" t="str" xml:space="preserve">
+        <v xml:space="preserve">Android
+                                                    安卓开发工程师
+                                                    服务端开发
+                                                    根据需求文档
+                                                    能独立</v>
+      </c>
+    </row>
+    <row r="161" xml:space="preserve">
+      <c r="A161" t="str">
+        <v>Android 混合开发工程师</v>
+      </c>
+      <c r="B161" t="str">
+        <v>10-15K</v>
+      </c>
+      <c r="C161" t="str">
+        <v>河南双汇投资发展...</v>
+      </c>
+      <c r="D161" t="str">
+        <v>郑州·金水区·国贸360</v>
+      </c>
+      <c r="E161" t="str">
+        <v>3-5年本科</v>
+      </c>
+      <c r="F161" t="str">
+        <v>3-5年本科</v>
+      </c>
+      <c r="G161" t="str" xml:space="preserve">
+        <v xml:space="preserve">互联网新技术
+                                                    Kotlin
+                                                    高性能
+                                                    UI控件
+                                                    SQLite数据库</v>
+      </c>
+    </row>
+    <row r="162" xml:space="preserve">
+      <c r="A162" t="str">
+        <v>安卓</v>
+      </c>
+      <c r="B162" t="str">
+        <v>6-8K</v>
+      </c>
+      <c r="C162" t="str">
+        <v>河南众聚电子商务</v>
+      </c>
+      <c r="D162" t="str">
+        <v>郑州·管城回族区·商城路</v>
+      </c>
+      <c r="E162" t="str">
+        <v>1年以内大专</v>
+      </c>
+      <c r="F162" t="str">
+        <v>1年以内大专</v>
+      </c>
+      <c r="G162" t="str" xml:space="preserve">
+        <v xml:space="preserve">JNI
+                                                    NDK
+                                                    抓包
+                                                    android进程
+                                                    MVVM</v>
+      </c>
+    </row>
+    <row r="163" xml:space="preserve">
+      <c r="A163" t="str">
+        <v>Android</v>
+      </c>
+      <c r="B163" t="str">
+        <v>6-12K</v>
+      </c>
+      <c r="C163" t="str">
+        <v>亚瑞材料</v>
+      </c>
+      <c r="D163" t="str">
+        <v>郑州·金水区·北环</v>
+      </c>
+      <c r="E163" t="str">
+        <v>经验不限大专</v>
+      </c>
+      <c r="F163" t="str">
+        <v>经验不限大专</v>
+      </c>
+      <c r="G163" t="str" xml:space="preserve">
+        <v xml:space="preserve">android相关
+                                                    UI控件
+                                                    ui布局
+                                                    通讯机制
+                                                    完成设计</v>
+      </c>
+    </row>
+    <row r="164" xml:space="preserve">
+      <c r="A164" t="str">
         <v>安卓应用开发工程师</v>
       </c>
-      <c r="B153" t="str">
+      <c r="B164" t="str">
         <v>4-8K</v>
       </c>
-      <c r="C153" t="str">
+      <c r="C164" t="str">
         <v>趣思得网络</v>
       </c>
-      <c r="D153" t="str">
+      <c r="D164" t="str">
         <v>郑州·金水区·经三路沿线</v>
       </c>
-      <c r="E153" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="F153" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="G153" t="str" xml:space="preserve">
+      <c r="E164" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="F164" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="G164" t="str" xml:space="preserve">
         <v xml:space="preserve">安卓
                                                     应用开发工程师
                                                     技术文档
@@ -4499,328 +4797,31 @@
                                                     android开发经验</v>
       </c>
     </row>
-    <row r="154" xml:space="preserve">
-      <c r="A154" t="str">
-        <v>中级Android研发工程师（中级）</v>
-      </c>
-      <c r="B154" t="str">
-        <v>8-10K</v>
-      </c>
-      <c r="C154" t="str">
-        <v>国源科技</v>
-      </c>
-      <c r="D154" t="str">
-        <v>郑州·金水区·祭城</v>
-      </c>
-      <c r="E154" t="str">
-        <v>3-5年本科</v>
-      </c>
-      <c r="F154" t="str">
-        <v>3-5年本科</v>
-      </c>
-      <c r="G154" t="str" xml:space="preserve">
-        <v xml:space="preserve">编程技术
-                                                    精通android
-                                                    框架原理
-                                                    android研发
-                                                    平台移动</v>
-      </c>
-    </row>
-    <row r="155" xml:space="preserve">
-      <c r="A155" t="str">
-        <v>Android工程师</v>
-      </c>
-      <c r="B155" t="str">
-        <v>6-10K</v>
-      </c>
-      <c r="C155" t="str">
-        <v>火爆网</v>
-      </c>
-      <c r="D155" t="str">
-        <v>郑州·中原区·西环路</v>
-      </c>
-      <c r="E155" t="str">
-        <v>1-3年本科</v>
-      </c>
-      <c r="F155" t="str">
-        <v>1-3年本科</v>
-      </c>
-      <c r="G155" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android SDK
-                                                    android开发工程师
-                                                    分享技术
-                                                    常用设计模式
-                                                    编码风格</v>
-      </c>
-    </row>
-    <row r="156" xml:space="preserve">
-      <c r="A156" t="str">
-        <v>阿里巴巴天猫海外技术部高级Android工程师</v>
-      </c>
-      <c r="B156" t="str">
-        <v>20-40K·16薪</v>
-      </c>
-      <c r="C156" t="str">
-        <v>阿里巴巴集团</v>
-      </c>
-      <c r="D156" t="str">
-        <v>郑州·中原区·新郑大</v>
-      </c>
-      <c r="E156" t="str">
-        <v>3-5年本科</v>
-      </c>
-      <c r="F156" t="str">
-        <v>3-5年本科</v>
-      </c>
-      <c r="G156" t="str" xml:space="preserve">
-        <v xml:space="preserve">Kotlin
-                                                    Java
-                                                    Android
-                                                    移动端
-                                                    Framework层</v>
-      </c>
-    </row>
-    <row r="157" xml:space="preserve">
-      <c r="A157" t="str">
-        <v>安卓开发工程师</v>
-      </c>
-      <c r="B157" t="str">
-        <v>7-12K</v>
-      </c>
-      <c r="C157" t="str">
-        <v>光合</v>
-      </c>
-      <c r="D157" t="str">
-        <v>郑州·中原区·高新区</v>
-      </c>
-      <c r="E157" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="F157" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="G157" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-                                                    android框架
-                                                    安卓ui
-                                                    android项目
-                                                    安卓开发工程师</v>
-      </c>
-    </row>
-    <row r="158" xml:space="preserve">
-      <c r="A158" t="str">
-        <v>Android全栈工程师</v>
-      </c>
-      <c r="B158" t="str">
-        <v>6-10K</v>
-      </c>
-      <c r="C158" t="str">
-        <v>晟壁科技郑分</v>
-      </c>
-      <c r="D158" t="str">
-        <v>郑州·金水区·农科路酒吧街</v>
-      </c>
-      <c r="E158" t="str">
-        <v>3-5年本科</v>
-      </c>
-      <c r="F158" t="str">
-        <v>3-5年本科</v>
-      </c>
-      <c r="G158" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-                                                    Java
-                                                    Flutter
-                                                    dart语言
-                                                    Hybrid</v>
-      </c>
-    </row>
-    <row r="159" xml:space="preserve">
-      <c r="A159" t="str">
-        <v>Android</v>
-      </c>
-      <c r="B159" t="str">
-        <v>5-10K</v>
-      </c>
-      <c r="C159" t="str">
-        <v>易豪电子商务</v>
-      </c>
-      <c r="D159" t="str">
-        <v>郑州·金水区·东建材</v>
-      </c>
-      <c r="E159" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="F159" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="G159" t="str" xml:space="preserve">
-        <v xml:space="preserve">代码结构
-                                                    Retrofit
-                                                    NDK
-                                                    第三方开源库
-                                                    android系统架构</v>
-      </c>
-    </row>
-    <row r="160" xml:space="preserve">
-      <c r="A160" t="str">
-        <v>Android/Linux驱动工程师（实习）</v>
-      </c>
-      <c r="B160" t="str">
-        <v>3-7K·13薪</v>
-      </c>
-      <c r="C160" t="str">
-        <v>释码云识别技术研究院</v>
-      </c>
-      <c r="D160" t="str">
-        <v>郑州·金水区·龙子湖校区</v>
-      </c>
-      <c r="E160" t="str">
-        <v>1-3年本科</v>
-      </c>
-      <c r="F160" t="str">
-        <v>1-3年本科</v>
-      </c>
-      <c r="G160" t="str" xml:space="preserve">
-        <v xml:space="preserve">ARM开发
-                                                    Android
-                                                    Linux
-                                                    linux内核驱动
-                                                    linux驱动</v>
-      </c>
-    </row>
-    <row r="161" xml:space="preserve">
-      <c r="A161" t="str">
-        <v>Android</v>
-      </c>
-      <c r="B161" t="str">
-        <v>5-8K</v>
-      </c>
-      <c r="C161" t="str">
-        <v>名门电子商务</v>
-      </c>
-      <c r="D161" t="str">
-        <v>郑州·管城回族区</v>
-      </c>
-      <c r="E161" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="F161" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="G161" t="str" xml:space="preserve">
-        <v xml:space="preserve">React Native
-                                                    Socket
-                                                    Android
-                                                    app应用程序
-                                                    UI</v>
-      </c>
-    </row>
-    <row r="162" xml:space="preserve">
-      <c r="A162" t="str">
-        <v>安卓开发工程师</v>
-      </c>
-      <c r="B162" t="str">
-        <v>5-6K</v>
-      </c>
-      <c r="C162" t="str">
-        <v>因特嘉</v>
-      </c>
-      <c r="D162" t="str">
-        <v>郑州·金水区·龙子湖</v>
-      </c>
-      <c r="E162" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="F162" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="G162" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-                                                    安卓开发工程师
-                                                    服务端开发
-                                                    根据需求文档
-                                                    能独立</v>
-      </c>
-    </row>
-    <row r="163" xml:space="preserve">
-      <c r="A163" t="str">
-        <v>Android 混合开发工程师</v>
-      </c>
-      <c r="B163" t="str">
-        <v>10-15K</v>
-      </c>
-      <c r="C163" t="str">
-        <v>河南双汇投资发展...</v>
-      </c>
-      <c r="D163" t="str">
-        <v>郑州·金水区·国贸360</v>
-      </c>
-      <c r="E163" t="str">
-        <v>3-5年本科</v>
-      </c>
-      <c r="F163" t="str">
-        <v>3-5年本科</v>
-      </c>
-      <c r="G163" t="str" xml:space="preserve">
-        <v xml:space="preserve">互联网新技术
-                                                    Kotlin
-                                                    高性能
-                                                    UI控件
-                                                    SQLite数据库</v>
-      </c>
-    </row>
-    <row r="164" xml:space="preserve">
-      <c r="A164" t="str">
-        <v>Android</v>
-      </c>
-      <c r="B164" t="str">
-        <v>6-12K</v>
-      </c>
-      <c r="C164" t="str">
-        <v>亚瑞材料</v>
-      </c>
-      <c r="D164" t="str">
-        <v>郑州·金水区·北环</v>
-      </c>
-      <c r="E164" t="str">
-        <v>经验不限大专</v>
-      </c>
-      <c r="F164" t="str">
-        <v>经验不限大专</v>
-      </c>
-      <c r="G164" t="str" xml:space="preserve">
-        <v xml:space="preserve">android相关
-                                                    UI控件
-                                                    ui布局
-                                                    通讯机制
-                                                    完成设计</v>
-      </c>
-    </row>
     <row r="165" xml:space="preserve">
       <c r="A165" t="str">
-        <v>安卓</v>
+        <v>安卓开发工程师</v>
       </c>
       <c r="B165" t="str">
-        <v>6-8K</v>
+        <v>7-9K</v>
       </c>
       <c r="C165" t="str">
-        <v>河南众聚电子商务</v>
+        <v>艺蜘蛛</v>
       </c>
       <c r="D165" t="str">
-        <v>郑州·管城回族区·商城路</v>
+        <v>郑州·金水区·祭城</v>
       </c>
       <c r="E165" t="str">
-        <v>1年以内大专</v>
+        <v>3-5年大专</v>
       </c>
       <c r="F165" t="str">
-        <v>1年以内大专</v>
+        <v>3-5年大专</v>
       </c>
       <c r="G165" t="str" xml:space="preserve">
-        <v xml:space="preserve">JNI
-                                                    NDK
-                                                    抓包
-                                                    android进程
-                                                    MVVM</v>
+        <v xml:space="preserve">Android
+                                                    移动端
+                                                    Java
+                                                    后端开发
+                                                    软件工程师</v>
       </c>
     </row>
     <row r="166" xml:space="preserve">
@@ -4855,48 +4856,21 @@
         <v>安卓开发工程师</v>
       </c>
       <c r="B167" t="str">
-        <v>5-8K</v>
+        <v>6-9K</v>
       </c>
       <c r="C167" t="str">
-        <v>林迪科技</v>
+        <v>百恩特科技</v>
       </c>
       <c r="D167" t="str">
         <v>郑州·中原区·高新区</v>
       </c>
       <c r="E167" t="str">
-        <v>3-5年学历不限</v>
+        <v>1-3年大专</v>
       </c>
       <c r="F167" t="str">
-        <v>3-5年学历不限</v>
+        <v>1-3年大专</v>
       </c>
       <c r="G167" t="str" xml:space="preserve">
-        <v xml:space="preserve">Java
-                                                    移动端
-                                                    Android
-                                                    计算机软件
-                                                    支付</v>
-      </c>
-    </row>
-    <row r="168" xml:space="preserve">
-      <c r="A168" t="str">
-        <v>安卓开发工程师</v>
-      </c>
-      <c r="B168" t="str">
-        <v>6-9K</v>
-      </c>
-      <c r="C168" t="str">
-        <v>百恩特科技</v>
-      </c>
-      <c r="D168" t="str">
-        <v>郑州·中原区·高新区</v>
-      </c>
-      <c r="E168" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="F168" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="G168" t="str" xml:space="preserve">
         <v xml:space="preserve">Framework
                                                     Android
                                                     Java
@@ -4904,80 +4878,26 @@
                                                     物联网</v>
       </c>
     </row>
-    <row r="169" xml:space="preserve">
-      <c r="A169" t="str">
+    <row r="168" xml:space="preserve">
+      <c r="A168" t="str">
         <v>安卓开发工程师</v>
       </c>
-      <c r="B169" t="str">
-        <v>7-9K</v>
-      </c>
-      <c r="C169" t="str">
-        <v>艺蜘蛛</v>
-      </c>
-      <c r="D169" t="str">
-        <v>郑州·金水区·祭城</v>
-      </c>
-      <c r="E169" t="str">
-        <v>3-5年大专</v>
-      </c>
-      <c r="F169" t="str">
-        <v>3-5年大专</v>
-      </c>
-      <c r="G169" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-                                                    移动端
-                                                    Java
-                                                    后端开发
-                                                    软件工程师</v>
-      </c>
-    </row>
-    <row r="170" xml:space="preserve">
-      <c r="A170" t="str">
-        <v>安卓开发工程师</v>
-      </c>
-      <c r="B170" t="str">
-        <v>5-8K</v>
-      </c>
-      <c r="C170" t="str">
-        <v>华韩软件</v>
-      </c>
-      <c r="D170" t="str">
+      <c r="B168" t="str">
+        <v>7-12K</v>
+      </c>
+      <c r="C168" t="str">
+        <v>启正</v>
+      </c>
+      <c r="D168" t="str">
         <v>郑州·管城回族区·紫荆山</v>
       </c>
-      <c r="E170" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="F170" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="G170" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-                                                    移动端
-                                                    JNI
-                                                    NDK
-                                                    精通android</v>
-      </c>
-    </row>
-    <row r="171" xml:space="preserve">
-      <c r="A171" t="str">
-        <v>安卓开发工程师</v>
-      </c>
-      <c r="B171" t="str">
-        <v>7-12K</v>
-      </c>
-      <c r="C171" t="str">
-        <v>启正</v>
-      </c>
-      <c r="D171" t="str">
-        <v>郑州·管城回族区·紫荆山</v>
-      </c>
-      <c r="E171" t="str">
-        <v>3-5年大专</v>
-      </c>
-      <c r="F171" t="str">
-        <v>3-5年大专</v>
-      </c>
-      <c r="G171" t="str" xml:space="preserve">
+      <c r="E168" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="F168" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="G168" t="str" xml:space="preserve">
         <v xml:space="preserve">Framework
                                                     Android
                                                     小程序
@@ -4985,53 +4905,26 @@
                                                     网络协议</v>
       </c>
     </row>
-    <row r="172" xml:space="preserve">
-      <c r="A172" t="str">
-        <v>Flutter APP开发工程师</v>
-      </c>
-      <c r="B172" t="str">
-        <v>10-15K·13薪</v>
-      </c>
-      <c r="C172" t="str">
-        <v>钜亿科技</v>
-      </c>
-      <c r="D172" t="str">
-        <v>郑州·新郑市·航空港区</v>
-      </c>
-      <c r="E172" t="str">
-        <v>3-5年本科</v>
-      </c>
-      <c r="F172" t="str">
-        <v>3-5年本科</v>
-      </c>
-      <c r="G172" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-                                                    IOS
-                                                    小程序
-                                                    ios或android
-                                                    android应用开发</v>
-      </c>
-    </row>
-    <row r="173" xml:space="preserve">
-      <c r="A173" t="str">
+    <row r="169" xml:space="preserve">
+      <c r="A169" t="str">
         <v>安卓开发</v>
       </c>
-      <c r="B173" t="str">
+      <c r="B169" t="str">
         <v>3-5K</v>
       </c>
-      <c r="C173" t="str">
+      <c r="C169" t="str">
         <v>海克企业管理</v>
       </c>
-      <c r="D173" t="str">
+      <c r="D169" t="str">
         <v>郑州·二七区·万客来</v>
       </c>
-      <c r="E173" t="str">
-        <v>1-3年本科</v>
-      </c>
-      <c r="F173" t="str">
-        <v>1-3年本科</v>
-      </c>
-      <c r="G173" t="str" xml:space="preserve">
+      <c r="E169" t="str">
+        <v>1-3年本科</v>
+      </c>
+      <c r="F169" t="str">
+        <v>1-3年本科</v>
+      </c>
+      <c r="G169" t="str" xml:space="preserve">
         <v xml:space="preserve">android系统
                                                     Framework
                                                     安卓开发
@@ -5039,26 +4932,53 @@
                                                     客户端软件</v>
       </c>
     </row>
-    <row r="174" xml:space="preserve">
-      <c r="A174" t="str">
+    <row r="170" xml:space="preserve">
+      <c r="A170" t="str">
+        <v>Android开发</v>
+      </c>
+      <c r="B170" t="str">
+        <v>8-12K</v>
+      </c>
+      <c r="C170" t="str">
+        <v>易停充</v>
+      </c>
+      <c r="D170" t="str">
+        <v>郑州·中原区·科学大道</v>
+      </c>
+      <c r="E170" t="str">
+        <v>1-3年本科</v>
+      </c>
+      <c r="F170" t="str">
+        <v>1-3年本科</v>
+      </c>
+      <c r="G170" t="str" xml:space="preserve">
+        <v xml:space="preserve">PC端
+                                                    小程序
+                                                    Android
+                                                    移动端
+                                                    地图导航</v>
+      </c>
+    </row>
+    <row r="171" xml:space="preserve">
+      <c r="A171" t="str">
         <v>安卓开发工程师</v>
       </c>
-      <c r="B174" t="str">
+      <c r="B171" t="str">
         <v>6-7K</v>
       </c>
-      <c r="C174" t="str">
+      <c r="C171" t="str">
         <v>郑州佰谷信息</v>
       </c>
-      <c r="D174" t="str">
+      <c r="D171" t="str">
         <v>郑州·中原区·高新区</v>
       </c>
-      <c r="E174" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="F174" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="G174" t="str" xml:space="preserve">
+      <c r="E171" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="F171" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="G171" t="str" xml:space="preserve">
         <v xml:space="preserve">Socket
                                                     技术文档
                                                     通信机制
@@ -5066,26 +4986,53 @@
                                                     android平台开发</v>
       </c>
     </row>
-    <row r="175" xml:space="preserve">
-      <c r="A175" t="str">
+    <row r="172" xml:space="preserve">
+      <c r="A172" t="str">
+        <v>安卓工程师（高级）</v>
+      </c>
+      <c r="B172" t="str">
+        <v>12-16K</v>
+      </c>
+      <c r="C172" t="str">
+        <v>乐之富科技公司</v>
+      </c>
+      <c r="D172" t="str">
+        <v>郑州·金水区·熙地港</v>
+      </c>
+      <c r="E172" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="F172" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="G172" t="str" xml:space="preserve">
+        <v xml:space="preserve">Android
+                                                    移动端
+                                                    设计实践
+                                                    Framework层
+                                                    HTML5</v>
+      </c>
+    </row>
+    <row r="173" xml:space="preserve">
+      <c r="A173" t="str">
         <v>Android开发</v>
       </c>
-      <c r="B175" t="str">
+      <c r="B173" t="str">
         <v>12-24K</v>
       </c>
-      <c r="C175" t="str">
+      <c r="C173" t="str">
         <v>易宝软件</v>
       </c>
-      <c r="D175" t="str">
+      <c r="D173" t="str">
         <v>郑州·中原区·高新区</v>
       </c>
-      <c r="E175" t="str">
-        <v>1-3年本科</v>
-      </c>
-      <c r="F175" t="str">
-        <v>1-3年本科</v>
-      </c>
-      <c r="G175" t="str" xml:space="preserve">
+      <c r="E173" t="str">
+        <v>1-3年本科</v>
+      </c>
+      <c r="F173" t="str">
+        <v>1-3年本科</v>
+      </c>
+      <c r="G173" t="str" xml:space="preserve">
         <v xml:space="preserve">Android
                                                     计算机软件
                                                     ui开发
@@ -5093,26 +5040,26 @@
                                                     SDK</v>
       </c>
     </row>
-    <row r="176" xml:space="preserve">
-      <c r="A176" t="str">
+    <row r="174" xml:space="preserve">
+      <c r="A174" t="str">
         <v>IOS、安卓前端研发工程师</v>
       </c>
-      <c r="B176" t="str">
+      <c r="B174" t="str">
         <v>6-11K</v>
       </c>
-      <c r="C176" t="str">
+      <c r="C174" t="str">
         <v>河南万邦</v>
       </c>
-      <c r="D176" t="str">
+      <c r="D174" t="str">
         <v>郑州·中牟县·广惠街</v>
       </c>
-      <c r="E176" t="str">
-        <v>3-5年本科</v>
-      </c>
-      <c r="F176" t="str">
-        <v>3-5年本科</v>
-      </c>
-      <c r="G176" t="str" xml:space="preserve">
+      <c r="E174" t="str">
+        <v>3-5年本科</v>
+      </c>
+      <c r="F174" t="str">
+        <v>3-5年本科</v>
+      </c>
+      <c r="G174" t="str" xml:space="preserve">
         <v xml:space="preserve">IOS
                                                     Android
                                                     RxJava
@@ -5120,26 +5067,26 @@
                                                     OKhttp</v>
       </c>
     </row>
-    <row r="177" xml:space="preserve">
-      <c r="A177" t="str">
+    <row r="175" xml:space="preserve">
+      <c r="A175" t="str">
         <v>安卓工程师</v>
       </c>
-      <c r="B177" t="str">
+      <c r="B175" t="str">
         <v>6-10K</v>
       </c>
-      <c r="C177" t="str">
+      <c r="C175" t="str">
         <v>诚毅物联网</v>
       </c>
-      <c r="D177" t="str">
+      <c r="D175" t="str">
         <v>郑州·中原区·五龙口</v>
       </c>
-      <c r="E177" t="str">
+      <c r="E175" t="str">
         <v>经验不限大专</v>
       </c>
-      <c r="F177" t="str">
+      <c r="F175" t="str">
         <v>经验不限大专</v>
       </c>
-      <c r="G177" t="str" xml:space="preserve">
+      <c r="G175" t="str" xml:space="preserve">
         <v xml:space="preserve">Socket
                                                     蓝牙
                                                     App性能优化
@@ -5147,26 +5094,26 @@
                                                     绘图机</v>
       </c>
     </row>
-    <row r="178" xml:space="preserve">
-      <c r="A178" t="str">
+    <row r="176" xml:space="preserve">
+      <c r="A176" t="str">
         <v>安卓开发工程师</v>
       </c>
-      <c r="B178" t="str">
+      <c r="B176" t="str">
         <v>5-8K</v>
       </c>
-      <c r="C178" t="str">
+      <c r="C176" t="str">
         <v>唐赢科技</v>
       </c>
-      <c r="D178" t="str">
+      <c r="D176" t="str">
         <v>郑州·二七区·淮河路</v>
       </c>
-      <c r="E178" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="F178" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="G178" t="str" xml:space="preserve">
+      <c r="E176" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="F176" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="G176" t="str" xml:space="preserve">
         <v xml:space="preserve">常用布局
                                                     RxJava
                                                     Glide
@@ -5174,6 +5121,60 @@
                                                     mvp模式</v>
       </c>
     </row>
+    <row r="177" xml:space="preserve">
+      <c r="A177" t="str">
+        <v>安卓开发</v>
+      </c>
+      <c r="B177" t="str">
+        <v>6-9K</v>
+      </c>
+      <c r="C177" t="str">
+        <v>盈北科技</v>
+      </c>
+      <c r="D177" t="str">
+        <v>郑州·金水区·曼哈顿广场</v>
+      </c>
+      <c r="E177" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="F177" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="G177" t="str" xml:space="preserve">
+        <v xml:space="preserve">Android
+                                                    前端开发
+                                                    Retrofit
+                                                    OKhttp
+                                                    Kotlin</v>
+      </c>
+    </row>
+    <row r="178" xml:space="preserve">
+      <c r="A178" t="str">
+        <v>安卓工程师</v>
+      </c>
+      <c r="B178" t="str">
+        <v>6-9K</v>
+      </c>
+      <c r="C178" t="str">
+        <v>郑州动态网络科技</v>
+      </c>
+      <c r="D178" t="str">
+        <v>郑州·管城回族区·经开区</v>
+      </c>
+      <c r="E178" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="F178" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="G178" t="str" xml:space="preserve">
+        <v xml:space="preserve">Android
+                                                    不同分辨率
+                                                    技术文档
+                                                    ui布局
+                                                    WebView</v>
+      </c>
+    </row>
     <row r="179" xml:space="preserve">
       <c r="A179" t="str">
         <v>高薪安卓开发</v>
@@ -5196,31 +5197,166 @@
       <c r="G179" t="str" xml:space="preserve">
         <v xml:space="preserve">Android
                                                     移动端
+                                                    软件工程师
                                                     第三方库
-                                                    安卓开发
-                                                    高薪</v>
+                                                    安卓开发</v>
       </c>
     </row>
     <row r="180" xml:space="preserve">
       <c r="A180" t="str">
+        <v>安卓软件工程师</v>
+      </c>
+      <c r="B180" t="str">
+        <v>7-12K</v>
+      </c>
+      <c r="C180" t="str">
+        <v>臻尚网络</v>
+      </c>
+      <c r="D180" t="str">
+        <v>郑州·管城回族区·经开区</v>
+      </c>
+      <c r="E180" t="str">
+        <v>经验不限学历不限</v>
+      </c>
+      <c r="F180" t="str">
+        <v>经验不限学历不限</v>
+      </c>
+      <c r="G180" t="str" xml:space="preserve">
+        <v xml:space="preserve">技术积累
+                                                    android开发经验
+                                                    安卓
+                                                    软件工程师
+                                                    移动终端产品</v>
+      </c>
+    </row>
+    <row r="181" xml:space="preserve">
+      <c r="A181" t="str">
         <v>安卓开发工程师</v>
       </c>
-      <c r="B180" t="str">
+      <c r="B181" t="str">
+        <v>4-9K</v>
+      </c>
+      <c r="C181" t="str">
+        <v>郑州指南星</v>
+      </c>
+      <c r="D181" t="str">
+        <v>郑州·金水区·北环</v>
+      </c>
+      <c r="E181" t="str">
+        <v>1-3年学历不限</v>
+      </c>
+      <c r="F181" t="str">
+        <v>1-3年学历不限</v>
+      </c>
+      <c r="G181" t="str" xml:space="preserve">
+        <v xml:space="preserve">Android
+                                                    React
+                                                    技术文档
+                                                    通信机制
+                                                    android技术</v>
+      </c>
+    </row>
+    <row r="182" xml:space="preserve">
+      <c r="A182" t="str">
+        <v>安卓开发工程师</v>
+      </c>
+      <c r="B182" t="str">
+        <v>7-10K</v>
+      </c>
+      <c r="C182" t="str">
+        <v>飞渡</v>
+      </c>
+      <c r="D182" t="str">
+        <v>郑州·二七区·二七万达</v>
+      </c>
+      <c r="E182" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="F182" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="G182" t="str" xml:space="preserve">
+        <v xml:space="preserve">Android
+                                                    移动端
+                                                    计算机软件
+                                                    软件工程师
+                                                    前端开发</v>
+      </c>
+    </row>
+    <row r="183" xml:space="preserve">
+      <c r="A183" t="str">
+        <v>安卓开发工程师</v>
+      </c>
+      <c r="B183" t="str">
         <v>8-13K</v>
       </c>
-      <c r="C180" t="str">
+      <c r="C183" t="str">
+        <v>聚购网络科技</v>
+      </c>
+      <c r="D183" t="str">
+        <v>郑州·金水区·农业路沿线</v>
+      </c>
+      <c r="E183" t="str">
+        <v>1年以内本科</v>
+      </c>
+      <c r="F183" t="str">
+        <v>1年以内本科</v>
+      </c>
+      <c r="G183" t="str" xml:space="preserve">
+        <v xml:space="preserve">h5开发
+                                                    内存优化
+                                                    系统级
+                                                    安卓开发工程师
+                                                    安卓app</v>
+      </c>
+    </row>
+    <row r="184" xml:space="preserve">
+      <c r="A184" t="str">
+        <v>安卓开发工程师</v>
+      </c>
+      <c r="B184" t="str">
+        <v>8-13K</v>
+      </c>
+      <c r="C184" t="str">
+        <v>河南高校</v>
+      </c>
+      <c r="D184" t="str">
+        <v>郑州·金水区·丰产路</v>
+      </c>
+      <c r="E184" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="F184" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="G184" t="str" xml:space="preserve">
+        <v xml:space="preserve">Android
+                                                    人脸识别
+                                                    安卓应用开发
+                                                    安卓开发工程师
+                                                    安卓</v>
+      </c>
+    </row>
+    <row r="185" xml:space="preserve">
+      <c r="A185" t="str">
+        <v>安卓开发工程师</v>
+      </c>
+      <c r="B185" t="str">
+        <v>8-13K</v>
+      </c>
+      <c r="C185" t="str">
         <v>河南星火燎原</v>
       </c>
-      <c r="D180" t="str">
+      <c r="D185" t="str">
         <v>郑州·金水区·龙子湖校区</v>
       </c>
-      <c r="E180" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="F180" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="G180" t="str" xml:space="preserve">
+      <c r="E185" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="F185" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="G185" t="str" xml:space="preserve">
         <v xml:space="preserve">常用布局
                                                     RxJava
                                                     Kotlin
@@ -5228,134 +5364,26 @@
                                                     android平台开发</v>
       </c>
     </row>
-    <row r="181" xml:space="preserve">
-      <c r="A181" t="str">
+    <row r="186" xml:space="preserve">
+      <c r="A186" t="str">
         <v>安卓开发工程师</v>
       </c>
-      <c r="B181" t="str">
+      <c r="B186" t="str">
         <v>8-13K</v>
       </c>
-      <c r="C181" t="str">
-        <v>聚购网络科技</v>
-      </c>
-      <c r="D181" t="str">
-        <v>郑州·金水区·农业路沿线</v>
-      </c>
-      <c r="E181" t="str">
-        <v>1年以内本科</v>
-      </c>
-      <c r="F181" t="str">
-        <v>1年以内本科</v>
-      </c>
-      <c r="G181" t="str" xml:space="preserve">
-        <v xml:space="preserve">h5开发
-                                                    内存优化
-                                                    系统级
-                                                    安卓开发工程师
-                                                    安卓app</v>
-      </c>
-    </row>
-    <row r="182" xml:space="preserve">
-      <c r="A182" t="str">
-        <v>安卓软件工程师</v>
-      </c>
-      <c r="B182" t="str">
-        <v>7-12K</v>
-      </c>
-      <c r="C182" t="str">
-        <v>臻尚网络</v>
-      </c>
-      <c r="D182" t="str">
-        <v>郑州·管城回族区·经开区</v>
-      </c>
-      <c r="E182" t="str">
-        <v>经验不限学历不限</v>
-      </c>
-      <c r="F182" t="str">
-        <v>经验不限学历不限</v>
-      </c>
-      <c r="G182" t="str" xml:space="preserve">
-        <v xml:space="preserve">技术积累
-                                                    android开发经验
-                                                    安卓
-                                                    软件工程师
-                                                    移动终端产品</v>
-      </c>
-    </row>
-    <row r="183" xml:space="preserve">
-      <c r="A183" t="str">
-        <v>安卓开发工程师</v>
-      </c>
-      <c r="B183" t="str">
-        <v>7-10K</v>
-      </c>
-      <c r="C183" t="str">
-        <v>飞渡</v>
-      </c>
-      <c r="D183" t="str">
-        <v>郑州·二七区·二七万达</v>
-      </c>
-      <c r="E183" t="str">
-        <v>3-5年大专</v>
-      </c>
-      <c r="F183" t="str">
-        <v>3-5年大专</v>
-      </c>
-      <c r="G183" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-                                                    移动端
-                                                    计算机软件
-                                                    软件工程师
-                                                    前端开发</v>
-      </c>
-    </row>
-    <row r="184" xml:space="preserve">
-      <c r="A184" t="str">
-        <v>安卓工程师</v>
-      </c>
-      <c r="B184" t="str">
-        <v>6-9K</v>
-      </c>
-      <c r="C184" t="str">
-        <v>郑州动态网络科技</v>
-      </c>
-      <c r="D184" t="str">
-        <v>郑州·管城回族区·经开区</v>
-      </c>
-      <c r="E184" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="F184" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="G184" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-                                                    不同分辨率
-                                                    技术文档
-                                                    ui布局
-                                                    WebView</v>
-      </c>
-    </row>
-    <row r="185" xml:space="preserve">
-      <c r="A185" t="str">
-        <v>安卓开发工程师</v>
-      </c>
-      <c r="B185" t="str">
-        <v>8-13K</v>
-      </c>
-      <c r="C185" t="str">
+      <c r="C186" t="str">
         <v>UIOT超级智慧家</v>
       </c>
-      <c r="D185" t="str">
+      <c r="D186" t="str">
         <v>郑州·中原区·新郑大</v>
       </c>
-      <c r="E185" t="str">
-        <v>3-5年大专</v>
-      </c>
-      <c r="F185" t="str">
-        <v>3-5年大专</v>
-      </c>
-      <c r="G185" t="str" xml:space="preserve">
+      <c r="E186" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="F186" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="G186" t="str" xml:space="preserve">
         <v xml:space="preserve">Android
                                                     常用布局
                                                     Flutter
@@ -5363,26 +5391,26 @@
                                                     Socket通信</v>
       </c>
     </row>
-    <row r="186" xml:space="preserve">
-      <c r="A186" t="str">
+    <row r="187" xml:space="preserve">
+      <c r="A187" t="str">
         <v>Android开发工程师</v>
       </c>
-      <c r="B186" t="str">
+      <c r="B187" t="str">
         <v>5-10K</v>
       </c>
-      <c r="C186" t="str">
+      <c r="C187" t="str">
         <v>新天科技</v>
       </c>
-      <c r="D186" t="str">
+      <c r="D187" t="str">
         <v>郑州·中原区·新郑大</v>
       </c>
-      <c r="E186" t="str">
-        <v>1-3年本科</v>
-      </c>
-      <c r="F186" t="str">
-        <v>1-3年本科</v>
-      </c>
-      <c r="G186" t="str" xml:space="preserve">
+      <c r="E187" t="str">
+        <v>1-3年本科</v>
+      </c>
+      <c r="F187" t="str">
+        <v>1-3年本科</v>
+      </c>
+      <c r="G187" t="str" xml:space="preserve">
         <v xml:space="preserve">Java
                                                     Android
                                                     网络协议
@@ -5390,26 +5418,26 @@
                                                     Android SDK</v>
       </c>
     </row>
-    <row r="187" xml:space="preserve">
-      <c r="A187" t="str">
+    <row r="188" xml:space="preserve">
+      <c r="A188" t="str">
         <v>安卓开发</v>
       </c>
-      <c r="B187" t="str">
+      <c r="B188" t="str">
         <v>6-10K</v>
       </c>
-      <c r="C187" t="str">
+      <c r="C188" t="str">
         <v>河南知行进化网络公司</v>
       </c>
-      <c r="D187" t="str">
+      <c r="D188" t="str">
         <v>郑州·二七区·长途客运总站</v>
       </c>
-      <c r="E187" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="F187" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="G187" t="str" xml:space="preserve">
+      <c r="E188" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="F188" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="G188" t="str" xml:space="preserve">
         <v xml:space="preserve">Android
                                                     移动端
                                                     Framework层
@@ -5417,58 +5445,31 @@
                                                     协同测试</v>
       </c>
     </row>
-    <row r="188" xml:space="preserve">
-      <c r="A188" t="str">
+    <row r="189" xml:space="preserve">
+      <c r="A189" t="str">
         <v>Android开发工程师</v>
       </c>
-      <c r="B188" t="str">
+      <c r="B189" t="str">
         <v>4-8K</v>
       </c>
-      <c r="C188" t="str">
+      <c r="C189" t="str">
         <v>视博电子</v>
       </c>
-      <c r="D188" t="str">
+      <c r="D189" t="str">
         <v>郑州·金水区·经三路</v>
       </c>
-      <c r="E188" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="F188" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="G188" t="str" xml:space="preserve">
+      <c r="E189" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="F189" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="G189" t="str" xml:space="preserve">
         <v xml:space="preserve">Android
                                                     OKhttp
                                                     HTML5
                                                     自定义控件
                                                     android四大组件</v>
-      </c>
-    </row>
-    <row r="189" xml:space="preserve">
-      <c r="A189" t="str">
-        <v>Android开发</v>
-      </c>
-      <c r="B189" t="str">
-        <v>5-9K</v>
-      </c>
-      <c r="C189" t="str">
-        <v>耶鲁教育</v>
-      </c>
-      <c r="D189" t="str">
-        <v>郑州·金水区·科技市场</v>
-      </c>
-      <c r="E189" t="str">
-        <v>1-3年学历不限</v>
-      </c>
-      <c r="F189" t="str">
-        <v>1-3年学历不限</v>
-      </c>
-      <c r="G189" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-                                                    计算机软件
-                                                    JNI
-                                                    xposed框架
-                                                    通信机制</v>
       </c>
     </row>
     <row r="190" xml:space="preserve">
@@ -5527,24 +5528,51 @@
     </row>
     <row r="192" xml:space="preserve">
       <c r="A192" t="str">
+        <v>Android开发</v>
+      </c>
+      <c r="B192" t="str">
+        <v>5-9K</v>
+      </c>
+      <c r="C192" t="str">
+        <v>耶鲁教育</v>
+      </c>
+      <c r="D192" t="str">
+        <v>郑州·金水区·科技市场</v>
+      </c>
+      <c r="E192" t="str">
+        <v>1-3年学历不限</v>
+      </c>
+      <c r="F192" t="str">
+        <v>1-3年学历不限</v>
+      </c>
+      <c r="G192" t="str" xml:space="preserve">
+        <v xml:space="preserve">Android
+                                                    计算机软件
+                                                    JNI
+                                                    xposed框架
+                                                    通信机制</v>
+      </c>
+    </row>
+    <row r="193" xml:space="preserve">
+      <c r="A193" t="str">
         <v>安卓Android开发工程师</v>
       </c>
-      <c r="B192" t="str">
+      <c r="B193" t="str">
         <v>8-15K</v>
       </c>
-      <c r="C192" t="str">
+      <c r="C193" t="str">
         <v>优租</v>
       </c>
-      <c r="D192" t="str">
+      <c r="D193" t="str">
         <v>郑州·金水区·农业路沿线</v>
       </c>
-      <c r="E192" t="str">
-        <v>3-5年大专</v>
-      </c>
-      <c r="F192" t="str">
-        <v>3-5年大专</v>
-      </c>
-      <c r="G192" t="str" xml:space="preserve">
+      <c r="E193" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="F193" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="G193" t="str" xml:space="preserve">
         <v xml:space="preserve">Android
                                                     android开发工程师
                                                     安卓开发
@@ -5552,26 +5580,53 @@
                                                     安卓</v>
       </c>
     </row>
-    <row r="193" xml:space="preserve">
-      <c r="A193" t="str">
+    <row r="194" xml:space="preserve">
+      <c r="A194" t="str">
         <v>Android开发工程师</v>
       </c>
-      <c r="B193" t="str">
+      <c r="B194" t="str">
+        <v>7-12K</v>
+      </c>
+      <c r="C194" t="str">
+        <v>河南中钢网</v>
+      </c>
+      <c r="D194" t="str">
+        <v>郑州·管城回族区·郑州东站</v>
+      </c>
+      <c r="E194" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="F194" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="G194" t="str" xml:space="preserve">
+        <v xml:space="preserve">AndroidStudio
+                                                    精通android
+                                                    android开发工程师
+                                                    界面绘制
+                                                    Socket编程</v>
+      </c>
+    </row>
+    <row r="195" xml:space="preserve">
+      <c r="A195" t="str">
+        <v>Android开发工程师</v>
+      </c>
+      <c r="B195" t="str">
         <v>5-10K</v>
       </c>
-      <c r="C193" t="str">
+      <c r="C195" t="str">
         <v>很快科技</v>
       </c>
-      <c r="D193" t="str">
+      <c r="D195" t="str">
         <v>郑州·金水区·曼哈顿广场</v>
       </c>
-      <c r="E193" t="str">
+      <c r="E195" t="str">
         <v>1-3年学历不限</v>
       </c>
-      <c r="F193" t="str">
+      <c r="F195" t="str">
         <v>1-3年学历不限</v>
       </c>
-      <c r="G193" t="str" xml:space="preserve">
+      <c r="G195" t="str" xml:space="preserve">
         <v xml:space="preserve">Flutter
                                                     Android
                                                     移动端
@@ -5579,26 +5634,26 @@
                                                     android应用开发</v>
       </c>
     </row>
-    <row r="194" xml:space="preserve">
-      <c r="A194" t="str">
+    <row r="196" xml:space="preserve">
+      <c r="A196" t="str">
         <v>资深android开发</v>
       </c>
-      <c r="B194" t="str">
+      <c r="B196" t="str">
         <v>16-25K</v>
       </c>
-      <c r="C194" t="str">
+      <c r="C196" t="str">
         <v>郑州珑凌科技</v>
       </c>
-      <c r="D194" t="str">
+      <c r="D196" t="str">
         <v>郑州·金水区·科技市场</v>
       </c>
-      <c r="E194" t="str">
-        <v>3-5年本科</v>
-      </c>
-      <c r="F194" t="str">
-        <v>3-5年本科</v>
-      </c>
-      <c r="G194" t="str" xml:space="preserve">
+      <c r="E196" t="str">
+        <v>3-5年本科</v>
+      </c>
+      <c r="F196" t="str">
+        <v>3-5年本科</v>
+      </c>
+      <c r="G196" t="str" xml:space="preserve">
         <v xml:space="preserve">Socket
                                                     Socket通信
                                                     android系统开发
@@ -5606,26 +5661,26 @@
                                                     SDK</v>
       </c>
     </row>
-    <row r="195" xml:space="preserve">
-      <c r="A195" t="str">
+    <row r="197" xml:space="preserve">
+      <c r="A197" t="str">
         <v>Android开发工程师周末双休</v>
       </c>
-      <c r="B195" t="str">
+      <c r="B197" t="str">
         <v>7-9K</v>
       </c>
-      <c r="C195" t="str">
+      <c r="C197" t="str">
         <v>郑州中原现代外语学校</v>
       </c>
-      <c r="D195" t="str">
+      <c r="D197" t="str">
         <v>郑州·中原区·中原万达</v>
       </c>
-      <c r="E195" t="str">
-        <v>3-5年本科</v>
-      </c>
-      <c r="F195" t="str">
-        <v>3-5年本科</v>
-      </c>
-      <c r="G195" t="str" xml:space="preserve">
+      <c r="E197" t="str">
+        <v>3-5年本科</v>
+      </c>
+      <c r="F197" t="str">
+        <v>3-5年本科</v>
+      </c>
+      <c r="G197" t="str" xml:space="preserve">
         <v xml:space="preserve">Android
                                                     移动端
                                                     框架原理
@@ -5633,80 +5688,80 @@
                                                     android开发工程师</v>
       </c>
     </row>
-    <row r="196" xml:space="preserve">
-      <c r="A196" t="str">
-        <v>Android开发工程师</v>
-      </c>
-      <c r="B196" t="str">
-        <v>7-12K</v>
-      </c>
-      <c r="C196" t="str">
-        <v>琥珀天气</v>
-      </c>
-      <c r="D196" t="str">
-        <v>郑州·金水区·紫荆山</v>
-      </c>
-      <c r="E196" t="str">
-        <v>1-3年本科</v>
-      </c>
-      <c r="F196" t="str">
-        <v>1-3年本科</v>
-      </c>
-      <c r="G196" t="str" xml:space="preserve">
-        <v xml:space="preserve">Kotlin
-                                                    Flutter
-                                                    Android
-                                                    移动端
-                                                    全栈开发</v>
-      </c>
-    </row>
-    <row r="197" xml:space="preserve">
-      <c r="A197" t="str">
-        <v>Android软件开发工程师</v>
-      </c>
-      <c r="B197" t="str">
-        <v>6-10K</v>
-      </c>
-      <c r="C197" t="str">
-        <v>爱德泰克</v>
-      </c>
-      <c r="D197" t="str">
-        <v>郑州·金水区·农业路沿线</v>
-      </c>
-      <c r="E197" t="str">
-        <v>1-3年本科</v>
-      </c>
-      <c r="F197" t="str">
-        <v>1-3年本科</v>
-      </c>
-      <c r="G197" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-                                                    移动端
-                                                    熟悉网络协议
-                                                    通讯机制
-                                                    布局控件</v>
-      </c>
-    </row>
     <row r="198" xml:space="preserve">
       <c r="A198" t="str">
+        <v>Android开发工程师</v>
+      </c>
+      <c r="B198" t="str">
+        <v>9-12K</v>
+      </c>
+      <c r="C198" t="str">
+        <v>沃轩信息技术</v>
+      </c>
+      <c r="D198" t="str">
+        <v>郑州·金水区·汽配大世界</v>
+      </c>
+      <c r="E198" t="str">
+        <v>3-5年本科</v>
+      </c>
+      <c r="F198" t="str">
+        <v>3-5年本科</v>
+      </c>
+      <c r="G198" t="str" xml:space="preserve">
+        <v xml:space="preserve">Android
+                                                    编程技术
+                                                    第三方sdk
+                                                    自定义组件
+                                                    框架原理</v>
+      </c>
+    </row>
+    <row r="199" xml:space="preserve">
+      <c r="A199" t="str">
+        <v>Android开发工程师</v>
+      </c>
+      <c r="B199" t="str">
+        <v>5-8K</v>
+      </c>
+      <c r="C199" t="str">
+        <v>云赞信息技术</v>
+      </c>
+      <c r="D199" t="str">
+        <v>郑州·金水区·汽配大世界</v>
+      </c>
+      <c r="E199" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="F199" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="G199" t="str" xml:space="preserve">
+        <v xml:space="preserve">Android
+                                                    android应用开发
+                                                    开发机制
+                                                    android开发工程师
+                                                    内存管理</v>
+      </c>
+    </row>
+    <row r="200" xml:space="preserve">
+      <c r="A200" t="str">
         <v>android开发工程师</v>
       </c>
-      <c r="B198" t="str">
+      <c r="B200" t="str">
         <v>4-8K</v>
       </c>
-      <c r="C198" t="str">
+      <c r="C200" t="str">
         <v>欣木科技</v>
       </c>
-      <c r="D198" t="str">
+      <c r="D200" t="str">
         <v>郑州·中原区·西环路</v>
       </c>
-      <c r="E198" t="str">
+      <c r="E200" t="str">
         <v>1-3年学历不限</v>
       </c>
-      <c r="F198" t="str">
+      <c r="F200" t="str">
         <v>1-3年学历不限</v>
       </c>
-      <c r="G198" t="str" xml:space="preserve">
+      <c r="G200" t="str" xml:space="preserve">
         <v xml:space="preserve">Java
                                                     android开发工程师
                                                     SDK
@@ -5714,26 +5769,53 @@
                                                     制定项目计划</v>
       </c>
     </row>
-    <row r="199" xml:space="preserve">
-      <c r="A199" t="str">
+    <row r="201" xml:space="preserve">
+      <c r="A201" t="str">
+        <v>Android软件开发工程师</v>
+      </c>
+      <c r="B201" t="str">
+        <v>6-10K</v>
+      </c>
+      <c r="C201" t="str">
+        <v>爱德泰克</v>
+      </c>
+      <c r="D201" t="str">
+        <v>郑州·金水区·农业路沿线</v>
+      </c>
+      <c r="E201" t="str">
+        <v>1-3年本科</v>
+      </c>
+      <c r="F201" t="str">
+        <v>1-3年本科</v>
+      </c>
+      <c r="G201" t="str" xml:space="preserve">
+        <v xml:space="preserve">Android
+                                                    移动端
+                                                    熟悉网络协议
+                                                    通讯机制
+                                                    布局控件</v>
+      </c>
+    </row>
+    <row r="202" xml:space="preserve">
+      <c r="A202" t="str">
         <v>Android底层驱动</v>
       </c>
-      <c r="B199" t="str">
+      <c r="B202" t="str">
         <v>6-10K·13薪</v>
       </c>
-      <c r="C199" t="str">
+      <c r="C202" t="str">
         <v>新开普</v>
       </c>
-      <c r="D199" t="str">
+      <c r="D202" t="str">
         <v>郑州·中原区·高新区</v>
       </c>
-      <c r="E199" t="str">
-        <v>3-5年本科</v>
-      </c>
-      <c r="F199" t="str">
-        <v>3-5年本科</v>
-      </c>
-      <c r="G199" t="str" xml:space="preserve">
+      <c r="E202" t="str">
+        <v>3-5年本科</v>
+      </c>
+      <c r="F202" t="str">
+        <v>3-5年本科</v>
+      </c>
+      <c r="G202" t="str" xml:space="preserve">
         <v xml:space="preserve">Framework
                                                     软件工程师
                                                     架构师
@@ -5741,26 +5823,26 @@
                                                     开发案例</v>
       </c>
     </row>
-    <row r="200" xml:space="preserve">
-      <c r="A200" t="str">
+    <row r="203" xml:space="preserve">
+      <c r="A203" t="str">
         <v>安卓软件开发专员</v>
       </c>
-      <c r="B200" t="str">
+      <c r="B203" t="str">
         <v>5-8K</v>
       </c>
-      <c r="C200" t="str">
+      <c r="C203" t="str">
         <v>品多文化</v>
       </c>
-      <c r="D200" t="str">
+      <c r="D203" t="str">
         <v>郑州·金水区·经三路沿线</v>
       </c>
-      <c r="E200" t="str">
+      <c r="E203" t="str">
         <v>1-3年学历不限</v>
       </c>
-      <c r="F200" t="str">
+      <c r="F203" t="str">
         <v>1-3年学历不限</v>
       </c>
-      <c r="G200" t="str" xml:space="preserve">
+      <c r="G203" t="str" xml:space="preserve">
         <v xml:space="preserve">Android
                                                     移动端
                                                     Kotlin
@@ -5768,26 +5850,26 @@
                                                     软件用户</v>
       </c>
     </row>
-    <row r="201" xml:space="preserve">
-      <c r="A201" t="str">
+    <row r="204" xml:space="preserve">
+      <c r="A204" t="str">
         <v>Android研发工程师</v>
       </c>
-      <c r="B201" t="str">
+      <c r="B204" t="str">
         <v>8-12K·13薪</v>
       </c>
-      <c r="C201" t="str">
+      <c r="C204" t="str">
         <v>新开普</v>
       </c>
-      <c r="D201" t="str">
+      <c r="D204" t="str">
         <v>郑州·中原区·高新区</v>
       </c>
-      <c r="E201" t="str">
-        <v>3-5年本科</v>
-      </c>
-      <c r="F201" t="str">
-        <v>3-5年本科</v>
-      </c>
-      <c r="G201" t="str" xml:space="preserve">
+      <c r="E204" t="str">
+        <v>3-5年本科</v>
+      </c>
+      <c r="F204" t="str">
+        <v>3-5年本科</v>
+      </c>
+      <c r="G204" t="str" xml:space="preserve">
         <v xml:space="preserve">Android
                                                     React
                                                     移动端
@@ -5795,26 +5877,26 @@
                                                     软件工程师</v>
       </c>
     </row>
-    <row r="202" xml:space="preserve">
-      <c r="A202" t="str">
+    <row r="205" xml:space="preserve">
+      <c r="A205" t="str">
         <v>高级Android开发工程师</v>
       </c>
-      <c r="B202" t="str">
+      <c r="B205" t="str">
         <v>5-8K</v>
       </c>
-      <c r="C202" t="str">
+      <c r="C205" t="str">
         <v>常春藤软件</v>
       </c>
-      <c r="D202" t="str">
+      <c r="D205" t="str">
         <v>郑州·金水区·北林路</v>
       </c>
-      <c r="E202" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="F202" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="G202" t="str" xml:space="preserve">
+      <c r="E205" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="F205" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="G205" t="str" xml:space="preserve">
         <v xml:space="preserve">高性能
                                                     精通android
                                                     android开发工程师
@@ -5822,26 +5904,53 @@
                                                     多线程开发</v>
       </c>
     </row>
-    <row r="203" xml:space="preserve">
-      <c r="A203" t="str">
+    <row r="206" xml:space="preserve">
+      <c r="A206" t="str">
+        <v>APP开发工程师</v>
+      </c>
+      <c r="B206" t="str">
+        <v>7-9K</v>
+      </c>
+      <c r="C206" t="str">
+        <v>航天长峰</v>
+      </c>
+      <c r="D206" t="str">
+        <v>郑州·金水区·杜岭</v>
+      </c>
+      <c r="E206" t="str">
+        <v>1-3年本科</v>
+      </c>
+      <c r="F206" t="str">
+        <v>1-3年本科</v>
+      </c>
+      <c r="G206" t="str" xml:space="preserve">
+        <v xml:space="preserve">Android
+                                                    常用布局
+                                                    Flutter
+                                                    通信机制
+                                                    Socket通信</v>
+      </c>
+    </row>
+    <row r="207" xml:space="preserve">
+      <c r="A207" t="str">
         <v>移动端开发</v>
       </c>
-      <c r="B203" t="str">
+      <c r="B207" t="str">
         <v>16-20K·15薪</v>
       </c>
-      <c r="C203" t="str">
+      <c r="C207" t="str">
         <v>中原银行</v>
       </c>
-      <c r="D203" t="str">
+      <c r="D207" t="str">
         <v>郑州·金水区·郑东新区CBD</v>
       </c>
-      <c r="E203" t="str">
-        <v>3-5年本科</v>
-      </c>
-      <c r="F203" t="str">
-        <v>3-5年本科</v>
-      </c>
-      <c r="G203" t="str" xml:space="preserve">
+      <c r="E207" t="str">
+        <v>3-5年本科</v>
+      </c>
+      <c r="F207" t="str">
+        <v>3-5年本科</v>
+      </c>
+      <c r="G207" t="str" xml:space="preserve">
         <v xml:space="preserve">Android
                                                     移动端
                                                     互联网新技术
@@ -5849,26 +5958,26 @@
                                                     NDK</v>
       </c>
     </row>
-    <row r="204" xml:space="preserve">
-      <c r="A204" t="str">
+    <row r="208" xml:space="preserve">
+      <c r="A208" t="str">
         <v>Android（安卓）开发工程师</v>
       </c>
-      <c r="B204" t="str">
+      <c r="B208" t="str">
         <v>6-11K</v>
       </c>
-      <c r="C204" t="str">
+      <c r="C208" t="str">
         <v>红星机器</v>
       </c>
-      <c r="D204" t="str">
+      <c r="D208" t="str">
         <v>郑州·中原区·新郑大</v>
       </c>
-      <c r="E204" t="str">
-        <v>3-5年大专</v>
-      </c>
-      <c r="F204" t="str">
-        <v>3-5年大专</v>
-      </c>
-      <c r="G204" t="str" xml:space="preserve">
+      <c r="E208" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="F208" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="G208" t="str" xml:space="preserve">
         <v xml:space="preserve">Java
                                                     深入理解android
                                                     软件用户
@@ -5876,26 +5985,26 @@
                                                     多线程模型</v>
       </c>
     </row>
-    <row r="205" xml:space="preserve">
-      <c r="A205" t="str">
-        <v>Android</v>
-      </c>
-      <c r="B205" t="str">
+    <row r="209" xml:space="preserve">
+      <c r="A209" t="str">
+        <v>Android</v>
+      </c>
+      <c r="B209" t="str">
         <v>6-8K</v>
       </c>
-      <c r="C205" t="str">
+      <c r="C209" t="str">
         <v>羽林</v>
       </c>
-      <c r="D205" t="str">
+      <c r="D209" t="str">
         <v>郑州·金水区·庙李</v>
       </c>
-      <c r="E205" t="str">
-        <v>3-5年本科</v>
-      </c>
-      <c r="F205" t="str">
-        <v>3-5年本科</v>
-      </c>
-      <c r="G205" t="str" xml:space="preserve">
+      <c r="E209" t="str">
+        <v>3-5年本科</v>
+      </c>
+      <c r="F209" t="str">
+        <v>3-5年本科</v>
+      </c>
+      <c r="G209" t="str" xml:space="preserve">
         <v xml:space="preserve">Android
                                                     移动开发
                                                     前端开发
@@ -5903,26 +6012,26 @@
                                                     安卓端</v>
       </c>
     </row>
-    <row r="206" xml:space="preserve">
-      <c r="A206" t="str">
-        <v>Android</v>
-      </c>
-      <c r="B206" t="str">
+    <row r="210" xml:space="preserve">
+      <c r="A210" t="str">
+        <v>Android</v>
+      </c>
+      <c r="B210" t="str">
         <v>8-10K</v>
       </c>
-      <c r="C206" t="str">
+      <c r="C210" t="str">
         <v>犇犇科技</v>
       </c>
-      <c r="D206" t="str">
+      <c r="D210" t="str">
         <v>郑州·二七区·大学路</v>
       </c>
-      <c r="E206" t="str">
-        <v>3-5年大专</v>
-      </c>
-      <c r="F206" t="str">
-        <v>3-5年大专</v>
-      </c>
-      <c r="G206" t="str" xml:space="preserve">
+      <c r="E210" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="F210" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="G210" t="str" xml:space="preserve">
         <v xml:space="preserve">精通android
                                                     框架原理
                                                     android平台开发
@@ -5930,26 +6039,53 @@
                                                     app模块</v>
       </c>
     </row>
-    <row r="207" xml:space="preserve">
-      <c r="A207" t="str">
+    <row r="211" xml:space="preserve">
+      <c r="A211" t="str">
+        <v>Android安卓手机软件维护开发</v>
+      </c>
+      <c r="B211" t="str">
+        <v>15-20K</v>
+      </c>
+      <c r="C211" t="str">
+        <v>绿色三谷</v>
+      </c>
+      <c r="D211" t="str">
+        <v>郑州·金水区·东建材</v>
+      </c>
+      <c r="E211" t="str">
+        <v>经验不限学历不限</v>
+      </c>
+      <c r="F211" t="str">
+        <v>经验不限学历不限</v>
+      </c>
+      <c r="G211" t="str" xml:space="preserve">
+        <v xml:space="preserve">Android
+                                                    SDK
+                                                    android安卓
+                                                    手机软件
+                                                    维护开发</v>
+      </c>
+    </row>
+    <row r="212" xml:space="preserve">
+      <c r="A212" t="str">
         <v>安卓开发工程师</v>
       </c>
-      <c r="B207" t="str">
+      <c r="B212" t="str">
         <v>6-10K</v>
       </c>
-      <c r="C207" t="str">
+      <c r="C212" t="str">
         <v>河南橙石网络科技</v>
       </c>
-      <c r="D207" t="str">
+      <c r="D212" t="str">
         <v>郑州·中原区·华山路</v>
       </c>
-      <c r="E207" t="str">
+      <c r="E212" t="str">
         <v>3-5年学历不限</v>
       </c>
-      <c r="F207" t="str">
+      <c r="F212" t="str">
         <v>3-5年学历不限</v>
       </c>
-      <c r="G207" t="str" xml:space="preserve">
+      <c r="G212" t="str" xml:space="preserve">
         <v xml:space="preserve">Android
                                                     代码结构
                                                     RxJava
@@ -5957,53 +6093,26 @@
                                                     开源库</v>
       </c>
     </row>
-    <row r="208" xml:space="preserve">
-      <c r="A208" t="str">
-        <v>Android安卓手机软件维护开发</v>
-      </c>
-      <c r="B208" t="str">
-        <v>15-20K</v>
-      </c>
-      <c r="C208" t="str">
-        <v>绿色三谷</v>
-      </c>
-      <c r="D208" t="str">
-        <v>郑州·金水区·东建材</v>
-      </c>
-      <c r="E208" t="str">
-        <v>经验不限学历不限</v>
-      </c>
-      <c r="F208" t="str">
-        <v>经验不限学历不限</v>
-      </c>
-      <c r="G208" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-                                                    SDK
-                                                    android安卓
-                                                    手机软件
-                                                    维护开发</v>
-      </c>
-    </row>
-    <row r="209" xml:space="preserve">
-      <c r="A209" t="str">
-        <v>Android</v>
-      </c>
-      <c r="B209" t="str">
+    <row r="213" xml:space="preserve">
+      <c r="A213" t="str">
+        <v>Android</v>
+      </c>
+      <c r="B213" t="str">
         <v>6-11K</v>
       </c>
-      <c r="C209" t="str">
+      <c r="C213" t="str">
         <v>合众伟奇</v>
       </c>
-      <c r="D209" t="str">
+      <c r="D213" t="str">
         <v>郑州·中原区·帝湖</v>
       </c>
-      <c r="E209" t="str">
-        <v>3-5年大专</v>
-      </c>
-      <c r="F209" t="str">
-        <v>3-5年大专</v>
-      </c>
-      <c r="G209" t="str" xml:space="preserve">
+      <c r="E213" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="F213" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="G213" t="str" xml:space="preserve">
         <v xml:space="preserve">AndroidStudio
                                                     android开发工具
                                                     android平台开发
@@ -6011,26 +6120,26 @@
                                                     Android</v>
       </c>
     </row>
-    <row r="210" xml:space="preserve">
-      <c r="A210" t="str">
-        <v>Android</v>
-      </c>
-      <c r="B210" t="str">
+    <row r="214" xml:space="preserve">
+      <c r="A214" t="str">
+        <v>Android</v>
+      </c>
+      <c r="B214" t="str">
         <v>7-14K</v>
       </c>
-      <c r="C210" t="str">
+      <c r="C214" t="str">
         <v>河南涛雷软件科技</v>
       </c>
-      <c r="D210" t="str">
+      <c r="D214" t="str">
         <v>郑州·管城回族区·郑州东站</v>
       </c>
-      <c r="E210" t="str">
-        <v>3-5年大专</v>
-      </c>
-      <c r="F210" t="str">
-        <v>3-5年大专</v>
-      </c>
-      <c r="G210" t="str" xml:space="preserve">
+      <c r="E214" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="F214" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="G214" t="str" xml:space="preserve">
         <v xml:space="preserve">NDK
                                                     ui布局
                                                     SQLite数据库
@@ -6038,26 +6147,26 @@
                                                     android版本</v>
       </c>
     </row>
-    <row r="211" xml:space="preserve">
-      <c r="A211" t="str">
-        <v>Android</v>
-      </c>
-      <c r="B211" t="str">
+    <row r="215" xml:space="preserve">
+      <c r="A215" t="str">
+        <v>Android</v>
+      </c>
+      <c r="B215" t="str">
         <v>7-10K</v>
       </c>
-      <c r="C211" t="str">
+      <c r="C215" t="str">
         <v>维飞科技</v>
       </c>
-      <c r="D211" t="str">
+      <c r="D215" t="str">
         <v>郑州·金水区·郑东新区东建材</v>
       </c>
-      <c r="E211" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="F211" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="G211" t="str" xml:space="preserve">
+      <c r="E215" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="F215" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="G215" t="str" xml:space="preserve">
         <v xml:space="preserve">Android
                                                     移动端
                                                     原生开发
@@ -6065,26 +6174,26 @@
                                                     Android手机</v>
       </c>
     </row>
-    <row r="212" xml:space="preserve">
-      <c r="A212" t="str">
+    <row r="216" xml:space="preserve">
+      <c r="A216" t="str">
         <v>安卓开发工程师</v>
       </c>
-      <c r="B212" t="str">
+      <c r="B216" t="str">
         <v>5-8K</v>
       </c>
-      <c r="C212" t="str">
+      <c r="C216" t="str">
         <v>叁柒壹</v>
       </c>
-      <c r="D212" t="str">
+      <c r="D216" t="str">
         <v>郑州·中原区·高新区</v>
       </c>
-      <c r="E212" t="str">
-        <v>3-5年大专</v>
-      </c>
-      <c r="F212" t="str">
-        <v>3-5年大专</v>
-      </c>
-      <c r="G212" t="str" xml:space="preserve">
+      <c r="E216" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="F216" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="G216" t="str" xml:space="preserve">
         <v xml:space="preserve">Android
                                                     系统软件设计
                                                     安卓开发工程师
@@ -6092,26 +6201,26 @@
                                                     编写</v>
       </c>
     </row>
-    <row r="213" xml:space="preserve">
-      <c r="A213" t="str">
+    <row r="217" xml:space="preserve">
+      <c r="A217" t="str">
         <v>急招安卓开发工程师</v>
       </c>
-      <c r="B213" t="str">
+      <c r="B217" t="str">
         <v>8-13K</v>
       </c>
-      <c r="C213" t="str">
+      <c r="C217" t="str">
         <v>winderInfo</v>
       </c>
-      <c r="D213" t="str">
+      <c r="D217" t="str">
         <v>郑州·中原区·石佛</v>
       </c>
-      <c r="E213" t="str">
-        <v>3-5年大专</v>
-      </c>
-      <c r="F213" t="str">
-        <v>3-5年大专</v>
-      </c>
-      <c r="G213" t="str" xml:space="preserve">
+      <c r="E217" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="F217" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="G217" t="str" xml:space="preserve">
         <v xml:space="preserve">精通android
                                                     框架原理
                                                     android平台开发
@@ -6119,26 +6228,26 @@
                                                     android系统</v>
       </c>
     </row>
-    <row r="214" xml:space="preserve">
-      <c r="A214" t="str">
+    <row r="218" xml:space="preserve">
+      <c r="A218" t="str">
         <v>Android jni开发工程师</v>
       </c>
-      <c r="B214" t="str">
+      <c r="B218" t="str">
         <v>8-13K</v>
       </c>
-      <c r="C214" t="str">
+      <c r="C218" t="str">
         <v>芯盾网安</v>
       </c>
-      <c r="D214" t="str">
+      <c r="D218" t="str">
         <v>郑州·中原区·新郑大</v>
       </c>
-      <c r="E214" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="F214" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="G214" t="str" xml:space="preserve">
+      <c r="E218" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="F218" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="G218" t="str" xml:space="preserve">
         <v xml:space="preserve">jni开发
                                                     NDK
                                                     xposed框架
@@ -6146,53 +6255,53 @@
                                                     android平台开发</v>
       </c>
     </row>
-    <row r="215" xml:space="preserve">
-      <c r="A215" t="str">
-        <v>中级安卓工程师 高薪 单双轮休</v>
-      </c>
-      <c r="B215" t="str">
-        <v>7-12K</v>
-      </c>
-      <c r="C215" t="str">
-        <v>迅众科技</v>
-      </c>
-      <c r="D215" t="str">
-        <v>郑州·金水区·汽配大世界</v>
-      </c>
-      <c r="E215" t="str">
-        <v>3-5年大专</v>
-      </c>
-      <c r="F215" t="str">
-        <v>3-5年大专</v>
-      </c>
-      <c r="G215" t="str" xml:space="preserve">
-        <v xml:space="preserve">安卓开发
-                                                    架构师
-                                                    内存优化
-                                                    android网络
-                                                    内存泄露</v>
-      </c>
-    </row>
-    <row r="216" xml:space="preserve">
-      <c r="A216" t="str">
+    <row r="219" xml:space="preserve">
+      <c r="A219" t="str">
+        <v>Android</v>
+      </c>
+      <c r="B219" t="str">
+        <v>6-9K</v>
+      </c>
+      <c r="C219" t="str">
+        <v>纤原网络</v>
+      </c>
+      <c r="D219" t="str">
+        <v>郑州·二七区·二七万达</v>
+      </c>
+      <c r="E219" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="F219" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="G219" t="str" xml:space="preserve">
+        <v xml:space="preserve">Android
+                                                    计算机软件
+                                                    精通android
+                                                    框架原理
+                                                    android开发</v>
+      </c>
+    </row>
+    <row r="220" xml:space="preserve">
+      <c r="A220" t="str">
         <v>Android程序员</v>
       </c>
-      <c r="B216" t="str">
+      <c r="B220" t="str">
         <v>10-15K</v>
       </c>
-      <c r="C216" t="str">
+      <c r="C220" t="str">
         <v>河南塔姆</v>
       </c>
-      <c r="D216" t="str">
+      <c r="D220" t="str">
         <v>郑州·金水区·CBD</v>
       </c>
-      <c r="E216" t="str">
-        <v>3-5年大专</v>
-      </c>
-      <c r="F216" t="str">
-        <v>3-5年大专</v>
-      </c>
-      <c r="G216" t="str" xml:space="preserve">
+      <c r="E220" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="F220" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="G220" t="str" xml:space="preserve">
         <v xml:space="preserve">聊天室
                                                     Android程序
                                                     android系统
@@ -6200,53 +6309,53 @@
                                                     项目计划</v>
       </c>
     </row>
-    <row r="217" xml:space="preserve">
-      <c r="A217" t="str">
-        <v>Android</v>
-      </c>
-      <c r="B217" t="str">
-        <v>6-9K</v>
-      </c>
-      <c r="C217" t="str">
-        <v>纤原网络</v>
-      </c>
-      <c r="D217" t="str">
-        <v>郑州·二七区·二七万达</v>
-      </c>
-      <c r="E217" t="str">
-        <v>3-5年大专</v>
-      </c>
-      <c r="F217" t="str">
-        <v>3-5年大专</v>
-      </c>
-      <c r="G217" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-                                                    计算机软件
-                                                    精通android
-                                                    框架原理
-                                                    android开发</v>
-      </c>
-    </row>
-    <row r="218" xml:space="preserve">
-      <c r="A218" t="str">
+    <row r="221" xml:space="preserve">
+      <c r="A221" t="str">
+        <v>中级安卓工程师</v>
+      </c>
+      <c r="B221" t="str">
+        <v>7-12K</v>
+      </c>
+      <c r="C221" t="str">
+        <v>迅众科技</v>
+      </c>
+      <c r="D221" t="str">
+        <v>郑州·金水区·汽配大世界</v>
+      </c>
+      <c r="E221" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="F221" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="G221" t="str" xml:space="preserve">
+        <v xml:space="preserve">安卓
+                                                    架构师
+                                                    内存优化
+                                                    android网络
+                                                    内存泄露</v>
+      </c>
+    </row>
+    <row r="222" xml:space="preserve">
+      <c r="A222" t="str">
         <v>Android C/C++开发工程师</v>
       </c>
-      <c r="B218" t="str">
+      <c r="B222" t="str">
         <v>10-15K</v>
       </c>
-      <c r="C218" t="str">
+      <c r="C222" t="str">
         <v>天迈科技</v>
       </c>
-      <c r="D218" t="str">
+      <c r="D222" t="str">
         <v>郑州·中原区·新郑大</v>
       </c>
-      <c r="E218" t="str">
-        <v>1-3年本科</v>
-      </c>
-      <c r="F218" t="str">
-        <v>1-3年本科</v>
-      </c>
-      <c r="G218" t="str" xml:space="preserve">
+      <c r="E222" t="str">
+        <v>1-3年本科</v>
+      </c>
+      <c r="F222" t="str">
+        <v>1-3年本科</v>
+      </c>
+      <c r="G222" t="str" xml:space="preserve">
         <v xml:space="preserve">多串口
                                                     SIP协议
                                                     音视频编解码
@@ -6254,26 +6363,26 @@
                                                     Android</v>
       </c>
     </row>
-    <row r="219" xml:space="preserve">
-      <c r="A219" t="str">
-        <v>Android</v>
-      </c>
-      <c r="B219" t="str">
+    <row r="223" xml:space="preserve">
+      <c r="A223" t="str">
+        <v>Android</v>
+      </c>
+      <c r="B223" t="str">
         <v>3-5K</v>
       </c>
-      <c r="C219" t="str">
+      <c r="C223" t="str">
         <v>中原申威</v>
       </c>
-      <c r="D219" t="str">
+      <c r="D223" t="str">
         <v>郑州·管城回族区·郑州东站</v>
       </c>
-      <c r="E219" t="str">
+      <c r="E223" t="str">
         <v>在校/应届本科</v>
       </c>
-      <c r="F219" t="str">
+      <c r="F223" t="str">
         <v>在校/应届本科</v>
       </c>
-      <c r="G219" t="str" xml:space="preserve">
+      <c r="G223" t="str" xml:space="preserve">
         <v xml:space="preserve">Android
                                                     人脸识别
                                                     自定义控件
@@ -6281,53 +6390,53 @@
                                                     接口通讯</v>
       </c>
     </row>
-    <row r="220" xml:space="preserve">
-      <c r="A220" t="str">
-        <v>Android-互联网产品公司</v>
-      </c>
-      <c r="B220" t="str">
-        <v>7-10K·13薪</v>
-      </c>
-      <c r="C220" t="str">
-        <v>郑州卓见软件科技</v>
-      </c>
-      <c r="D220" t="str">
-        <v>郑州·金水区·省人民医院</v>
-      </c>
-      <c r="E220" t="str">
-        <v>1-3年本科</v>
-      </c>
-      <c r="F220" t="str">
-        <v>1-3年本科</v>
-      </c>
-      <c r="G220" t="str" xml:space="preserve">
-        <v xml:space="preserve">移动开发
-                                                    Android
-                                                    android系统
-                                                    Framework
-                                                    SDK</v>
-      </c>
-    </row>
-    <row r="221" xml:space="preserve">
-      <c r="A221" t="str">
+    <row r="224" xml:space="preserve">
+      <c r="A224" t="str">
+        <v>Android</v>
+      </c>
+      <c r="B224" t="str">
+        <v>7-9K</v>
+      </c>
+      <c r="C224" t="str">
+        <v>卓瑞姆</v>
+      </c>
+      <c r="D224" t="str">
+        <v>郑州·金水区·CBD</v>
+      </c>
+      <c r="E224" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="F224" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="G224" t="str" xml:space="preserve">
+        <v xml:space="preserve">Android
+                                                    android底层
+                                                    性能调优
+                                                    应用框架
+                                                    android开发经验</v>
+      </c>
+    </row>
+    <row r="225" xml:space="preserve">
+      <c r="A225" t="str">
         <v>安卓</v>
       </c>
-      <c r="B221" t="str">
+      <c r="B225" t="str">
         <v>5-10K</v>
       </c>
-      <c r="C221" t="str">
+      <c r="C225" t="str">
         <v>河南帮枭</v>
       </c>
-      <c r="D221" t="str">
+      <c r="D225" t="str">
         <v>郑州·管城回族区·紫荆山</v>
       </c>
-      <c r="E221" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="F221" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="G221" t="str" xml:space="preserve">
+      <c r="E225" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="F225" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="G225" t="str" xml:space="preserve">
         <v xml:space="preserve">Android
                                                     移动端
                                                     JNI
@@ -6335,26 +6444,26 @@
                                                     抓包</v>
       </c>
     </row>
-    <row r="222" xml:space="preserve">
-      <c r="A222" t="str">
+    <row r="226" xml:space="preserve">
+      <c r="A226" t="str">
         <v>安卓开发工程师</v>
       </c>
-      <c r="B222" t="str">
+      <c r="B226" t="str">
         <v>11-15K</v>
       </c>
-      <c r="C222" t="str">
+      <c r="C226" t="str">
         <v>八角科技</v>
       </c>
-      <c r="D222" t="str">
+      <c r="D226" t="str">
         <v>郑州·管城回族区·郑州东站</v>
       </c>
-      <c r="E222" t="str">
-        <v>3-5年本科</v>
-      </c>
-      <c r="F222" t="str">
-        <v>3-5年本科</v>
-      </c>
-      <c r="G222" t="str" xml:space="preserve">
+      <c r="E226" t="str">
+        <v>3-5年本科</v>
+      </c>
+      <c r="F226" t="str">
+        <v>3-5年本科</v>
+      </c>
+      <c r="G226" t="str" xml:space="preserve">
         <v xml:space="preserve">Android
                                                     计算机软件
                                                     移动端
@@ -6362,26 +6471,26 @@
                                                     安卓开发工程师</v>
       </c>
     </row>
-    <row r="223" xml:space="preserve">
-      <c r="A223" t="str">
+    <row r="227" xml:space="preserve">
+      <c r="A227" t="str">
         <v>高级安卓开发工程师</v>
       </c>
-      <c r="B223" t="str">
+      <c r="B227" t="str">
         <v>9-12K·13薪</v>
       </c>
-      <c r="C223" t="str">
+      <c r="C227" t="str">
         <v>闪电云</v>
       </c>
-      <c r="D223" t="str">
+      <c r="D227" t="str">
         <v>郑州·中原区·高新区</v>
       </c>
-      <c r="E223" t="str">
-        <v>3-5年大专</v>
-      </c>
-      <c r="F223" t="str">
-        <v>3-5年大专</v>
-      </c>
-      <c r="G223" t="str" xml:space="preserve">
+      <c r="E227" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="F227" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="G227" t="str" xml:space="preserve">
         <v xml:space="preserve">RxJava
                                                     Retrofit
                                                     OKhttp
@@ -6389,26 +6498,26 @@
                                                     android应用开发</v>
       </c>
     </row>
-    <row r="224" xml:space="preserve">
-      <c r="A224" t="str">
+    <row r="228" xml:space="preserve">
+      <c r="A228" t="str">
         <v>安卓开发工程师</v>
       </c>
-      <c r="B224" t="str">
+      <c r="B228" t="str">
         <v>4-8K</v>
       </c>
-      <c r="C224" t="str">
+      <c r="C228" t="str">
         <v>聚时</v>
       </c>
-      <c r="D224" t="str">
+      <c r="D228" t="str">
         <v>郑州·管城回族区·橄榄城</v>
       </c>
-      <c r="E224" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="F224" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="G224" t="str" xml:space="preserve">
+      <c r="E228" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="F228" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="G228" t="str" xml:space="preserve">
         <v xml:space="preserve">蓝牙打印
                                                     原生开发
                                                     安卓开发工程师
@@ -6416,53 +6525,80 @@
                                                     SDK</v>
       </c>
     </row>
-    <row r="225" xml:space="preserve">
-      <c r="A225" t="str">
+    <row r="229" xml:space="preserve">
+      <c r="A229" t="str">
+        <v>安卓工程师</v>
+      </c>
+      <c r="B229" t="str">
+        <v>5-10K</v>
+      </c>
+      <c r="C229" t="str">
+        <v>买萌</v>
+      </c>
+      <c r="D229" t="str">
+        <v>郑州·中原区·西环路</v>
+      </c>
+      <c r="E229" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="F229" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="G229" t="str" xml:space="preserve">
+        <v xml:space="preserve">常用布局
+                                                    自定义view
+                                                    android应用开发
+                                                    android客户端开发
+                                                    json解析</v>
+      </c>
+    </row>
+    <row r="230" xml:space="preserve">
+      <c r="A230" t="str">
+        <v>安卓实习生</v>
+      </c>
+      <c r="B230" t="str">
+        <v>150-200元/天</v>
+      </c>
+      <c r="C230" t="str">
+        <v>华韩软件</v>
+      </c>
+      <c r="D230" t="str">
+        <v>郑州·管城回族区·紫荆山</v>
+      </c>
+      <c r="E230" t="str">
+        <v>6天/周3个月本科</v>
+      </c>
+      <c r="F230" t="str">
+        <v>6天/周3个月本科</v>
+      </c>
+      <c r="G230" t="str" xml:space="preserve">
+        <v xml:space="preserve">SDK
+                                                    安卓
+                                                    实习生
+                                                    软件系统
+                                                    开发文档</v>
+      </c>
+    </row>
+    <row r="231" xml:space="preserve">
+      <c r="A231" t="str">
         <v>安卓开发工程师</v>
       </c>
-      <c r="B225" t="str">
-        <v>8-10K</v>
-      </c>
-      <c r="C225" t="str">
-        <v>立信科技</v>
-      </c>
-      <c r="D225" t="str">
-        <v>郑州·金水区·东建材</v>
-      </c>
-      <c r="E225" t="str">
-        <v>5-10年大专</v>
-      </c>
-      <c r="F225" t="str">
-        <v>5-10年大专</v>
-      </c>
-      <c r="G225" t="str" xml:space="preserve">
-        <v xml:space="preserve">设计实践
-                                                    高性能
-                                                    优化经验
-                                                    精通android
-                                                    android客户端开发</v>
-      </c>
-    </row>
-    <row r="226" xml:space="preserve">
-      <c r="A226" t="str">
-        <v>安卓开发工程师</v>
-      </c>
-      <c r="B226" t="str">
+      <c r="B231" t="str">
         <v>7-10K</v>
       </c>
-      <c r="C226" t="str">
+      <c r="C231" t="str">
         <v>郑州广之达</v>
       </c>
-      <c r="D226" t="str">
+      <c r="D231" t="str">
         <v>郑州·金水区·索凌路北段</v>
       </c>
-      <c r="E226" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="F226" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="G226" t="str" xml:space="preserve">
+      <c r="E231" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="F231" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="G231" t="str" xml:space="preserve">
         <v xml:space="preserve">Kotlin
                                                     Android
                                                     支付
@@ -6470,26 +6606,26 @@
                                                     Java</v>
       </c>
     </row>
-    <row r="227" xml:space="preserve">
-      <c r="A227" t="str">
+    <row r="232" xml:space="preserve">
+      <c r="A232" t="str">
         <v>Android开发（全国出差）</v>
       </c>
-      <c r="B227" t="str">
+      <c r="B232" t="str">
         <v>7-10K</v>
       </c>
-      <c r="C227" t="str">
+      <c r="C232" t="str">
         <v>屹通信息科技</v>
       </c>
-      <c r="D227" t="str">
+      <c r="D232" t="str">
         <v>郑州·金水区·熙地港</v>
       </c>
-      <c r="E227" t="str">
-        <v>1-3年本科</v>
-      </c>
-      <c r="F227" t="str">
-        <v>1-3年本科</v>
-      </c>
-      <c r="G227" t="str" xml:space="preserve">
+      <c r="E232" t="str">
+        <v>1-3年本科</v>
+      </c>
+      <c r="F232" t="str">
+        <v>1-3年本科</v>
+      </c>
+      <c r="G232" t="str" xml:space="preserve">
         <v xml:space="preserve">Android
                                                     发布流程
                                                     Android SDK
@@ -6497,26 +6633,26 @@
                                                     RN</v>
       </c>
     </row>
-    <row r="228" xml:space="preserve">
-      <c r="A228" t="str">
+    <row r="233" xml:space="preserve">
+      <c r="A233" t="str">
         <v>高级安卓开发工程师</v>
       </c>
-      <c r="B228" t="str">
+      <c r="B233" t="str">
         <v>4-9K</v>
       </c>
-      <c r="C228" t="str">
+      <c r="C233" t="str">
         <v>郑州蓓蕾</v>
       </c>
-      <c r="D228" t="str">
+      <c r="D233" t="str">
         <v>郑州·中原区·中原万达</v>
       </c>
-      <c r="E228" t="str">
-        <v>1-3年本科</v>
-      </c>
-      <c r="F228" t="str">
-        <v>1-3年本科</v>
-      </c>
-      <c r="G228" t="str" xml:space="preserve">
+      <c r="E233" t="str">
+        <v>1-3年本科</v>
+      </c>
+      <c r="F233" t="str">
+        <v>1-3年本科</v>
+      </c>
+      <c r="G233" t="str" xml:space="preserve">
         <v xml:space="preserve">架构师
                                                     编程技术
                                                     android系统架构
@@ -6524,53 +6660,26 @@
                                                     app开发流程</v>
       </c>
     </row>
-    <row r="229" xml:space="preserve">
-      <c r="A229" t="str">
-        <v>安卓</v>
-      </c>
-      <c r="B229" t="str">
-        <v>7-9K</v>
-      </c>
-      <c r="C229" t="str">
-        <v>卓瑞姆</v>
-      </c>
-      <c r="D229" t="str">
-        <v>郑州·金水区·CBD</v>
-      </c>
-      <c r="E229" t="str">
-        <v>1-3年学历不限</v>
-      </c>
-      <c r="F229" t="str">
-        <v>1-3年学历不限</v>
-      </c>
-      <c r="G229" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-                                                    移动端
-                                                    android相关
-                                                    深入理解android
-                                                    代码阅读</v>
-      </c>
-    </row>
-    <row r="230" xml:space="preserve">
-      <c r="A230" t="str">
+    <row r="234" xml:space="preserve">
+      <c r="A234" t="str">
         <v>安卓工程师</v>
       </c>
-      <c r="B230" t="str">
+      <c r="B234" t="str">
         <v>8-12K</v>
       </c>
-      <c r="C230" t="str">
+      <c r="C234" t="str">
         <v>火爆网</v>
       </c>
-      <c r="D230" t="str">
+      <c r="D234" t="str">
         <v>郑州·中原区·西环路</v>
       </c>
-      <c r="E230" t="str">
-        <v>3-5年大专</v>
-      </c>
-      <c r="F230" t="str">
-        <v>3-5年大专</v>
-      </c>
-      <c r="G230" t="str" xml:space="preserve">
+      <c r="E234" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="F234" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="G234" t="str" xml:space="preserve">
         <v xml:space="preserve">Android SDK
                                                     分享技术
                                                     常用设计模式
@@ -6578,26 +6687,26 @@
                                                     编码风格</v>
       </c>
     </row>
-    <row r="231" xml:space="preserve">
-      <c r="A231" t="str">
+    <row r="235" xml:space="preserve">
+      <c r="A235" t="str">
         <v>安卓开发</v>
       </c>
-      <c r="B231" t="str">
+      <c r="B235" t="str">
         <v>7-8K</v>
       </c>
-      <c r="C231" t="str">
+      <c r="C235" t="str">
         <v>应之运</v>
       </c>
-      <c r="D231" t="str">
+      <c r="D235" t="str">
         <v>郑州·金水区·龙子湖校区</v>
       </c>
-      <c r="E231" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="F231" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="G231" t="str" xml:space="preserve">
+      <c r="E235" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="F235" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="G235" t="str" xml:space="preserve">
         <v xml:space="preserve">android软件开发
                                                     常用设计模式
                                                     安卓开发
@@ -6605,26 +6714,26 @@
                                                     计算机相关</v>
       </c>
     </row>
-    <row r="232" xml:space="preserve">
-      <c r="A232" t="str">
+    <row r="236" xml:space="preserve">
+      <c r="A236" t="str">
         <v>安卓逆向开发工程师</v>
       </c>
-      <c r="B232" t="str">
+      <c r="B236" t="str">
         <v>7-12K</v>
       </c>
-      <c r="C232" t="str">
+      <c r="C236" t="str">
         <v>喜付网络</v>
       </c>
-      <c r="D232" t="str">
+      <c r="D236" t="str">
         <v>郑州·二七区·兴华南街</v>
       </c>
-      <c r="E232" t="str">
-        <v>3-5年大专</v>
-      </c>
-      <c r="F232" t="str">
-        <v>3-5年大专</v>
-      </c>
-      <c r="G232" t="str" xml:space="preserve">
+      <c r="E236" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="F236" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="G236" t="str" xml:space="preserve">
         <v xml:space="preserve">抓包
                                                     xposed框架
                                                     android开发工具
@@ -6632,26 +6741,26 @@
                                                     apktool</v>
       </c>
     </row>
-    <row r="233" xml:space="preserve">
-      <c r="A233" t="str">
+    <row r="237" xml:space="preserve">
+      <c r="A237" t="str">
         <v>安卓工程师</v>
       </c>
-      <c r="B233" t="str">
+      <c r="B237" t="str">
         <v>6-8K</v>
       </c>
-      <c r="C233" t="str">
+      <c r="C237" t="str">
         <v>比比西</v>
       </c>
-      <c r="D233" t="str">
+      <c r="D237" t="str">
         <v>郑州·金水区·燕庄</v>
       </c>
-      <c r="E233" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="F233" t="str">
-        <v>1-3年大专</v>
-      </c>
-      <c r="G233" t="str" xml:space="preserve">
+      <c r="E237" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="F237" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="G237" t="str" xml:space="preserve">
         <v xml:space="preserve">ASP
                                                     Android
                                                     javascript
@@ -6659,26 +6768,26 @@
                                                     技术文档</v>
       </c>
     </row>
-    <row r="234" xml:space="preserve">
-      <c r="A234" t="str">
+    <row r="238" xml:space="preserve">
+      <c r="A238" t="str">
         <v>安卓Android开发工程师</v>
       </c>
-      <c r="B234" t="str">
+      <c r="B238" t="str">
         <v>7-14K</v>
       </c>
-      <c r="C234" t="str">
+      <c r="C238" t="str">
         <v>优租</v>
       </c>
-      <c r="D234" t="str">
+      <c r="D238" t="str">
         <v>郑州·金水区·农业路沿线</v>
       </c>
-      <c r="E234" t="str">
+      <c r="E238" t="str">
         <v>3-5年学历不限</v>
       </c>
-      <c r="F234" t="str">
+      <c r="F238" t="str">
         <v>3-5年学历不限</v>
       </c>
-      <c r="G234" t="str" xml:space="preserve">
+      <c r="G238" t="str" xml:space="preserve">
         <v xml:space="preserve">Android
                                                     android开发工程师
                                                     安卓开发
@@ -6686,53 +6795,26 @@
                                                     安卓</v>
       </c>
     </row>
-    <row r="235" xml:space="preserve">
-      <c r="A235" t="str">
-        <v>Android开发工程师</v>
-      </c>
-      <c r="B235" t="str">
-        <v>8-12K</v>
-      </c>
-      <c r="C235" t="str">
-        <v>郑州点都公司</v>
-      </c>
-      <c r="D235" t="str">
-        <v>郑州·金水区·龙子湖校区</v>
-      </c>
-      <c r="E235" t="str">
-        <v>经验不限大专</v>
-      </c>
-      <c r="F235" t="str">
-        <v>经验不限大专</v>
-      </c>
-      <c r="G235" t="str" xml:space="preserve">
-        <v xml:space="preserve">Android
-                                                    android应用开发
-                                                    技术文档
-                                                    框架原理
-                                                    android开发工程师</v>
-      </c>
-    </row>
-    <row r="236" xml:space="preserve">
-      <c r="A236" t="str">
+    <row r="239" xml:space="preserve">
+      <c r="A239" t="str">
         <v>android开发工程师</v>
       </c>
-      <c r="B236" t="str">
+      <c r="B239" t="str">
         <v>6-11K·13薪</v>
       </c>
-      <c r="C236" t="str">
+      <c r="C239" t="str">
         <v>新开普</v>
       </c>
-      <c r="D236" t="str">
+      <c r="D239" t="str">
         <v>郑州·中原区·高新区</v>
       </c>
-      <c r="E236" t="str">
-        <v>1-3年本科</v>
-      </c>
-      <c r="F236" t="str">
-        <v>1-3年本科</v>
-      </c>
-      <c r="G236" t="str" xml:space="preserve">
+      <c r="E239" t="str">
+        <v>1-3年本科</v>
+      </c>
+      <c r="F239" t="str">
+        <v>1-3年本科</v>
+      </c>
+      <c r="G239" t="str" xml:space="preserve">
         <v xml:space="preserve">Android
                                                     移动端
                                                     RxJava
@@ -6740,9 +6822,738 @@
                                                     Android SDK</v>
       </c>
     </row>
+    <row r="240" xml:space="preserve">
+      <c r="A240" t="str">
+        <v>Android</v>
+      </c>
+      <c r="B240" t="str">
+        <v>8-10K</v>
+      </c>
+      <c r="C240" t="str">
+        <v>羽林</v>
+      </c>
+      <c r="D240" t="str">
+        <v>郑州·金水区·庙李</v>
+      </c>
+      <c r="E240" t="str">
+        <v>1-3年本科</v>
+      </c>
+      <c r="F240" t="str">
+        <v>1-3年本科</v>
+      </c>
+      <c r="G240" t="str" xml:space="preserve">
+        <v xml:space="preserve">内存优化
+                                                    UI控件
+                                                    ui布局
+                                                    Android程序
+                                                    Socket</v>
+      </c>
+    </row>
+    <row r="241" xml:space="preserve">
+      <c r="A241" t="str">
+        <v>Android</v>
+      </c>
+      <c r="B241" t="str">
+        <v>4-7K</v>
+      </c>
+      <c r="C241" t="str">
+        <v>绿色三谷</v>
+      </c>
+      <c r="D241" t="str">
+        <v>郑州·金水区·东建材</v>
+      </c>
+      <c r="E241" t="str">
+        <v>经验不限学历不限</v>
+      </c>
+      <c r="F241" t="str">
+        <v>经验不限学历不限</v>
+      </c>
+      <c r="G241" t="str" xml:space="preserve">
+        <v xml:space="preserve">系统服务
+                                                    SDK
+                                                    Android
+                                                    用人单位
+                                                    APP</v>
+      </c>
+    </row>
+    <row r="242" xml:space="preserve">
+      <c r="A242" t="str">
+        <v>诚聘安卓开发工程师</v>
+      </c>
+      <c r="B242" t="str">
+        <v>8-12K</v>
+      </c>
+      <c r="C242" t="str">
+        <v>犇犇科技</v>
+      </c>
+      <c r="D242" t="str">
+        <v>郑州·二七区·京广路</v>
+      </c>
+      <c r="E242" t="str">
+        <v>5-10年大专</v>
+      </c>
+      <c r="F242" t="str">
+        <v>5-10年大专</v>
+      </c>
+      <c r="G242" t="str" xml:space="preserve">
+        <v xml:space="preserve">Android
+                                                    网络协议
+                                                    移动端
+                                                    前端开发
+                                                    软件工程师</v>
+      </c>
+    </row>
+    <row r="243" xml:space="preserve">
+      <c r="A243" t="str">
+        <v>Android软件工程师</v>
+      </c>
+      <c r="B243" t="str">
+        <v>7-12K</v>
+      </c>
+      <c r="C243" t="str">
+        <v>合众伟奇</v>
+      </c>
+      <c r="D243" t="str">
+        <v>郑州·中原区·帝湖</v>
+      </c>
+      <c r="E243" t="str">
+        <v>3-5年本科</v>
+      </c>
+      <c r="F243" t="str">
+        <v>3-5年本科</v>
+      </c>
+      <c r="G243" t="str" xml:space="preserve">
+        <v xml:space="preserve">代码风格
+                                                    操作系统版本
+                                                    NDK
+                                                    分辨率
+                                                    技术文档</v>
+      </c>
+    </row>
+    <row r="244" xml:space="preserve">
+      <c r="A244" t="str">
+        <v>安卓软件工程师</v>
+      </c>
+      <c r="B244" t="str">
+        <v>6-10K</v>
+      </c>
+      <c r="C244" t="str">
+        <v>芯盾网安</v>
+      </c>
+      <c r="D244" t="str">
+        <v>郑州·中原区·新郑大</v>
+      </c>
+      <c r="E244" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="F244" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="G244" t="str" xml:space="preserve">
+        <v xml:space="preserve">android应用开发
+                                                    通信机制
+                                                    React Native
+                                                    Socket通信
+                                                    Framework</v>
+      </c>
+    </row>
+    <row r="245" xml:space="preserve">
+      <c r="A245" t="str">
+        <v>安卓软件工程师</v>
+      </c>
+      <c r="B245" t="str">
+        <v>6-10K</v>
+      </c>
+      <c r="C245" t="str">
+        <v>河南塔姆</v>
+      </c>
+      <c r="D245" t="str">
+        <v>郑州·金水区·CBD</v>
+      </c>
+      <c r="E245" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="F245" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="G245" t="str" xml:space="preserve">
+        <v xml:space="preserve">React Native
+                                                    聊天室
+                                                    android系统
+                                                    app模块
+                                                    项目计划</v>
+      </c>
+    </row>
+    <row r="246" xml:space="preserve">
+      <c r="A246" t="str">
+        <v>IOS开发+安卓开发</v>
+      </c>
+      <c r="B246" t="str">
+        <v>7-12K</v>
+      </c>
+      <c r="C246" t="str">
+        <v>纤原网络</v>
+      </c>
+      <c r="D246" t="str">
+        <v>郑州·二七区·二七万达</v>
+      </c>
+      <c r="E246" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="F246" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="G246" t="str" xml:space="preserve">
+        <v xml:space="preserve">IOS
+                                                    Android
+                                                    iphone开发
+                                                    计算机或相关专业
+                                                    CocoaPods</v>
+      </c>
+    </row>
+    <row r="247" xml:space="preserve">
+      <c r="A247" t="str">
+        <v>安卓/Android开发工程师</v>
+      </c>
+      <c r="B247" t="str">
+        <v>8-12K</v>
+      </c>
+      <c r="C247" t="str">
+        <v>八角科技</v>
+      </c>
+      <c r="D247" t="str">
+        <v>郑州·管城回族区·郑州东站</v>
+      </c>
+      <c r="E247" t="str">
+        <v>3-5年本科</v>
+      </c>
+      <c r="F247" t="str">
+        <v>3-5年本科</v>
+      </c>
+      <c r="G247" t="str" xml:space="preserve">
+        <v xml:space="preserve">视频
+                                                    Android
+                                                    移动端
+                                                    Java
+                                                    C++</v>
+      </c>
+    </row>
+    <row r="248" xml:space="preserve">
+      <c r="A248" t="str">
+        <v>安卓开发工程师</v>
+      </c>
+      <c r="B248" t="str">
+        <v>5-8K</v>
+      </c>
+      <c r="C248" t="str">
+        <v>华韩软件</v>
+      </c>
+      <c r="D248" t="str">
+        <v>郑州·管城回族区·紫荆山</v>
+      </c>
+      <c r="E248" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="F248" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="G248" t="str" xml:space="preserve">
+        <v xml:space="preserve">Android
+                                                    移动端
+                                                    JNI
+                                                    NDK
+                                                    精通android</v>
+      </c>
+    </row>
+    <row r="249" xml:space="preserve">
+      <c r="A249" t="str">
+        <v>安卓</v>
+      </c>
+      <c r="B249" t="str">
+        <v>7-9K</v>
+      </c>
+      <c r="C249" t="str">
+        <v>卓瑞姆</v>
+      </c>
+      <c r="D249" t="str">
+        <v>郑州·金水区·CBD</v>
+      </c>
+      <c r="E249" t="str">
+        <v>1-3年学历不限</v>
+      </c>
+      <c r="F249" t="str">
+        <v>1-3年学历不限</v>
+      </c>
+      <c r="G249" t="str" xml:space="preserve">
+        <v xml:space="preserve">Android
+                                                    移动端
+                                                    android相关
+                                                    深入理解android
+                                                    代码阅读</v>
+      </c>
+    </row>
+    <row r="250" xml:space="preserve">
+      <c r="A250" t="str">
+        <v>安卓开发工程师</v>
+      </c>
+      <c r="B250" t="str">
+        <v>6-9K</v>
+      </c>
+      <c r="C250" t="str">
+        <v>维飞科技</v>
+      </c>
+      <c r="D250" t="str">
+        <v>郑州·金水区·郑东新区东建材</v>
+      </c>
+      <c r="E250" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="F250" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="G250" t="str" xml:space="preserve">
+        <v xml:space="preserve">精通android
+                                                    框架原理
+                                                    原生开发
+                                                    安卓开发工程师
+                                                    平板终端</v>
+      </c>
+    </row>
+    <row r="251" xml:space="preserve">
+      <c r="A251" t="str">
+        <v>Android开发工程师</v>
+      </c>
+      <c r="B251" t="str">
+        <v>8-13K</v>
+      </c>
+      <c r="C251" t="str">
+        <v>屹通信息科技</v>
+      </c>
+      <c r="D251" t="str">
+        <v>郑州·金水区·燕庄</v>
+      </c>
+      <c r="E251" t="str">
+        <v>1-3年本科</v>
+      </c>
+      <c r="F251" t="str">
+        <v>1-3年本科</v>
+      </c>
+      <c r="G251" t="str" xml:space="preserve">
+        <v xml:space="preserve">Android
+                                                    Java
+                                                    计算机软件
+                                                    android开发工程师
+                                                    android平台开发</v>
+      </c>
+    </row>
+    <row r="252" xml:space="preserve">
+      <c r="A252" t="str">
+        <v>安卓APP开发工程师</v>
+      </c>
+      <c r="B252" t="str">
+        <v>4-8K</v>
+      </c>
+      <c r="C252" t="str">
+        <v>郑州蓓蕾</v>
+      </c>
+      <c r="D252" t="str">
+        <v>郑州·中原区·中原万达</v>
+      </c>
+      <c r="E252" t="str">
+        <v>1-3年学历不限</v>
+      </c>
+      <c r="F252" t="str">
+        <v>1-3年学历不限</v>
+      </c>
+      <c r="G252" t="str" xml:space="preserve">
+        <v xml:space="preserve">Android
+                                                    编程技术
+                                                    android系统架构
+                                                    app开发流程
+                                                    SDK</v>
+      </c>
+    </row>
+    <row r="253" xml:space="preserve">
+      <c r="A253" t="str">
+        <v>android开发工程师</v>
+      </c>
+      <c r="B253" t="str">
+        <v>10-15K·14薪</v>
+      </c>
+      <c r="C253" t="str">
+        <v>天迈科技</v>
+      </c>
+      <c r="D253" t="str">
+        <v>郑州·中原区·高新区</v>
+      </c>
+      <c r="E253" t="str">
+        <v>3-5年本科</v>
+      </c>
+      <c r="F253" t="str">
+        <v>3-5年本科</v>
+      </c>
+      <c r="G253" t="str" xml:space="preserve">
+        <v xml:space="preserve">Android
+                                                    JNI
+                                                    NDK
+                                                    发布流程
+                                                    技术文档</v>
+      </c>
+    </row>
+    <row r="254" xml:space="preserve">
+      <c r="A254" t="str">
+        <v>安卓开发</v>
+      </c>
+      <c r="B254" t="str">
+        <v>4-8K</v>
+      </c>
+      <c r="C254" t="str">
+        <v>羽林</v>
+      </c>
+      <c r="D254" t="str">
+        <v>郑州·金水区·庙李</v>
+      </c>
+      <c r="E254" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="F254" t="str">
+        <v>1-3年大专</v>
+      </c>
+      <c r="G254" t="str" xml:space="preserve">
+        <v xml:space="preserve">HTML5
+                                                    Android
+                                                    安卓开发
+                                                    HTML
+                                                    CSS</v>
+      </c>
+    </row>
+    <row r="255" xml:space="preserve">
+      <c r="A255" t="str">
+        <v>安卓工程师</v>
+      </c>
+      <c r="B255" t="str">
+        <v>7-12K</v>
+      </c>
+      <c r="C255" t="str">
+        <v>犇犇科技</v>
+      </c>
+      <c r="D255" t="str">
+        <v>郑州·中原区·西环路</v>
+      </c>
+      <c r="E255" t="str">
+        <v>经验不限大专</v>
+      </c>
+      <c r="F255" t="str">
+        <v>经验不限大专</v>
+      </c>
+      <c r="G255" t="str" xml:space="preserve">
+        <v xml:space="preserve">Socket
+                                                    蓝牙
+                                                    App性能优化
+                                                    Framework层
+                                                    绘图机</v>
+      </c>
+    </row>
+    <row r="256" xml:space="preserve">
+      <c r="A256" t="str">
+        <v>android已上线运营项目的维护运营升级</v>
+      </c>
+      <c r="B256" t="str">
+        <v>6-10K</v>
+      </c>
+      <c r="C256" t="str">
+        <v>绿色三谷</v>
+      </c>
+      <c r="D256" t="str">
+        <v>郑州·金水区·东建材</v>
+      </c>
+      <c r="E256" t="str">
+        <v>经验不限学历不限</v>
+      </c>
+      <c r="F256" t="str">
+        <v>经验不限学历不限</v>
+      </c>
+      <c r="G256" t="str" xml:space="preserve">
+        <v xml:space="preserve">Android
+                                                    上线运营
+                                                    运营维护
+                                                    带薪休假
+                                                    软件产业</v>
+      </c>
+    </row>
+    <row r="257" xml:space="preserve">
+      <c r="A257" t="str">
+        <v>Android</v>
+      </c>
+      <c r="B257" t="str">
+        <v>8-12K</v>
+      </c>
+      <c r="C257" t="str">
+        <v>芯盾网安</v>
+      </c>
+      <c r="D257" t="str">
+        <v>郑州·中原区·新郑大</v>
+      </c>
+      <c r="E257" t="str">
+        <v>1-3年本科</v>
+      </c>
+      <c r="F257" t="str">
+        <v>1-3年本科</v>
+      </c>
+      <c r="G257" t="str" xml:space="preserve">
+        <v xml:space="preserve">NDK
+                                                    android应用开发
+                                                    通信机制
+                                                    Socket通信
+                                                    Framework</v>
+      </c>
+    </row>
+    <row r="258" xml:space="preserve">
+      <c r="A258" t="str">
+        <v>Android开发工程师（需要出差）</v>
+      </c>
+      <c r="B258" t="str">
+        <v>6-10K·13薪</v>
+      </c>
+      <c r="C258" t="str">
+        <v>屹通信息科技</v>
+      </c>
+      <c r="D258" t="str">
+        <v>郑州·金水区·徐寨</v>
+      </c>
+      <c r="E258" t="str">
+        <v>1-3年本科</v>
+      </c>
+      <c r="F258" t="str">
+        <v>1-3年本科</v>
+      </c>
+      <c r="G258" t="str" xml:space="preserve">
+        <v xml:space="preserve">Android
+                                                    软件发布流程
+                                                    android开发工程师
+                                                    android平台开发
+                                                    多线程开发</v>
+      </c>
+    </row>
+    <row r="259" xml:space="preserve">
+      <c r="A259" t="str">
+        <v>Android</v>
+      </c>
+      <c r="B259" t="str">
+        <v>8-12K</v>
+      </c>
+      <c r="C259" t="str">
+        <v>犇犇科技</v>
+      </c>
+      <c r="D259" t="str">
+        <v>郑州·二七区·京广路</v>
+      </c>
+      <c r="E259" t="str">
+        <v>3-5年本科</v>
+      </c>
+      <c r="F259" t="str">
+        <v>3-5年本科</v>
+      </c>
+      <c r="G259" t="str" xml:space="preserve">
+        <v xml:space="preserve">Android
+                                                    移动端
+                                                    架构师
+                                                    小程序
+                                                    精通android</v>
+      </c>
+    </row>
+    <row r="260" xml:space="preserve">
+      <c r="A260" t="str">
+        <v>高级安卓软件工程师</v>
+      </c>
+      <c r="B260" t="str">
+        <v>8-12K</v>
+      </c>
+      <c r="C260" t="str">
+        <v>芯盾网安</v>
+      </c>
+      <c r="D260" t="str">
+        <v>郑州·中原区·新郑大</v>
+      </c>
+      <c r="E260" t="str">
+        <v>3-5年本科</v>
+      </c>
+      <c r="F260" t="str">
+        <v>3-5年本科</v>
+      </c>
+      <c r="G260" t="str" xml:space="preserve">
+        <v xml:space="preserve">HTML5
+                                                    NDK
+                                                    通信机制
+                                                    android技术
+                                                    Socket通信</v>
+      </c>
+    </row>
+    <row r="261" xml:space="preserve">
+      <c r="A261" t="str">
+        <v>Android开发工程师</v>
+      </c>
+      <c r="B261" t="str">
+        <v>9-13K</v>
+      </c>
+      <c r="C261" t="str">
+        <v>屹通信息科技</v>
+      </c>
+      <c r="D261" t="str">
+        <v>郑州·金水区·徐寨</v>
+      </c>
+      <c r="E261" t="str">
+        <v>1-3年本科</v>
+      </c>
+      <c r="F261" t="str">
+        <v>1-3年本科</v>
+      </c>
+      <c r="G261" t="str" xml:space="preserve">
+        <v xml:space="preserve">Android
+                                                    常用布局
+                                                    软件发布流程
+                                                    通信机制
+                                                    Socket通信</v>
+      </c>
+    </row>
+    <row r="262" xml:space="preserve">
+      <c r="A262" t="str">
+        <v>Android</v>
+      </c>
+      <c r="B262" t="str">
+        <v>8-12K</v>
+      </c>
+      <c r="C262" t="str">
+        <v>犇犇科技</v>
+      </c>
+      <c r="D262" t="str">
+        <v>郑州·二七区·长城康桥华城</v>
+      </c>
+      <c r="E262" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="F262" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="G262" t="str" xml:space="preserve">
+        <v xml:space="preserve">精通android
+                                                    框架原理
+                                                    android平台开发
+                                                    android系统
+                                                    app模块</v>
+      </c>
+    </row>
+    <row r="263" xml:space="preserve">
+      <c r="A263" t="str">
+        <v>安卓开发工程师</v>
+      </c>
+      <c r="B263" t="str">
+        <v>8-12K</v>
+      </c>
+      <c r="C263" t="str">
+        <v>犇犇科技</v>
+      </c>
+      <c r="D263" t="str">
+        <v>郑州·二七区·京广路</v>
+      </c>
+      <c r="E263" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="F263" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="G263" t="str" xml:space="preserve">
+        <v xml:space="preserve">Socket
+                                                    精通android
+                                                    框架原理
+                                                    android平台开发
+                                                    安卓开发工程师</v>
+      </c>
+    </row>
+    <row r="264" xml:space="preserve">
+      <c r="A264" t="str">
+        <v>急聘中高级安卓开发工程师</v>
+      </c>
+      <c r="B264" t="str">
+        <v>10-12K</v>
+      </c>
+      <c r="C264" t="str">
+        <v>犇犇科技</v>
+      </c>
+      <c r="D264" t="str">
+        <v>郑州·二七区·长城康桥华城</v>
+      </c>
+      <c r="E264" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="F264" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="G264" t="str" xml:space="preserve">
+        <v xml:space="preserve">技术文档
+                                                    安卓开发工程师
+                                                    Framework
+                                                    Http协议
+                                                    Socket编程</v>
+      </c>
+    </row>
+    <row r="265" xml:space="preserve">
+      <c r="A265" t="str">
+        <v>Android开发工程师</v>
+      </c>
+      <c r="B265" t="str">
+        <v>8-12K</v>
+      </c>
+      <c r="C265" t="str">
+        <v>犇犇科技</v>
+      </c>
+      <c r="D265" t="str">
+        <v>郑州·二七区·京广路</v>
+      </c>
+      <c r="E265" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="F265" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="G265" t="str" xml:space="preserve">
+        <v xml:space="preserve">Android
+                                                    移动端
+                                                    精通android
+                                                    框架原理
+                                                    android开发工程师</v>
+      </c>
+    </row>
+    <row r="266" xml:space="preserve">
+      <c r="A266" t="str">
+        <v>Android开发工程师</v>
+      </c>
+      <c r="B266" t="str">
+        <v>8-13K</v>
+      </c>
+      <c r="C266" t="str">
+        <v>犇犇科技</v>
+      </c>
+      <c r="D266" t="str">
+        <v>郑州·二七区·京广路</v>
+      </c>
+      <c r="E266" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="F266" t="str">
+        <v>3-5年大专</v>
+      </c>
+      <c r="G266" t="str" xml:space="preserve">
+        <v xml:space="preserve">Android
+                                                    移动端
+                                                    架构师
+                                                    精通android
+                                                    框架原理</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G236"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G266"/>
   </ignoredErrors>
 </worksheet>
 </file>